--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="290">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
   <si>
     <t>reportedCurrency</t>
   </si>
@@ -175,118 +181,235 @@
     <t>index</t>
   </si>
   <si>
-    <t>AAPL-Q3-1985</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1986</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1987</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1988</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1989</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1990</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1991</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1992</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1993</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1994</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1995</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1996</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1997</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1998</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-1999</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2000</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2001</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2002</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2003</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2004</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2005</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2006</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2007</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2008</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2009</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2010</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2011</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2012</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2013</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2014</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2015</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2016</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2017</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2018</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2019</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2020</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2021</t>
-  </si>
-  <si>
-    <t>AAPL-Q3-2022</t>
+    <t>AAPL-FY-1985</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1986</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1987</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1988</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1989</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1990</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1991</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1992</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1993</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1994</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1995</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1996</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1997</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1998</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1999</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2000</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2001</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2002</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2003</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2004</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2005</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2006</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2007</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2008</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2009</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2010</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2011</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2012</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2013</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2014</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2015</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2016</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2017</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2018</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2019</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2020</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2021</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2022</t>
+  </si>
+  <si>
+    <t>1985-09-30</t>
+  </si>
+  <si>
+    <t>1986-09-30</t>
+  </si>
+  <si>
+    <t>1987-09-30</t>
+  </si>
+  <si>
+    <t>1988-09-30</t>
+  </si>
+  <si>
+    <t>1989-09-30</t>
+  </si>
+  <si>
+    <t>1990-09-30</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
+  </si>
+  <si>
+    <t>1992-09-30</t>
+  </si>
+  <si>
+    <t>1993-09-30</t>
+  </si>
+  <si>
+    <t>1994-09-30</t>
+  </si>
+  <si>
+    <t>1995-09-29</t>
+  </si>
+  <si>
+    <t>1996-09-27</t>
+  </si>
+  <si>
+    <t>1997-09-26</t>
+  </si>
+  <si>
+    <t>1998-09-25</t>
+  </si>
+  <si>
+    <t>1999-09-25</t>
+  </si>
+  <si>
+    <t>2000-09-30</t>
+  </si>
+  <si>
+    <t>2001-09-29</t>
+  </si>
+  <si>
+    <t>2002-09-28</t>
+  </si>
+  <si>
+    <t>2003-09-27</t>
+  </si>
+  <si>
+    <t>2004-09-25</t>
+  </si>
+  <si>
+    <t>2005-09-24</t>
+  </si>
+  <si>
+    <t>2006-09-30</t>
+  </si>
+  <si>
+    <t>2007-09-29</t>
+  </si>
+  <si>
+    <t>2008-09-27</t>
+  </si>
+  <si>
+    <t>2009-09-26</t>
+  </si>
+  <si>
+    <t>2010-09-25</t>
+  </si>
+  <si>
+    <t>2011-09-24</t>
+  </si>
+  <si>
+    <t>2012-09-29</t>
+  </si>
+  <si>
+    <t>2013-09-28</t>
+  </si>
+  <si>
+    <t>2014-09-27</t>
+  </si>
+  <si>
+    <t>2015-09-26</t>
+  </si>
+  <si>
+    <t>2016-09-24</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2018-09-29</t>
+  </si>
+  <si>
+    <t>2019-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>2022-09-24</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
   <si>
     <t>USD</t>
@@ -295,33 +418,6 @@
     <t>0000320193</t>
   </si>
   <si>
-    <t>1985-09-30</t>
-  </si>
-  <si>
-    <t>1986-09-30</t>
-  </si>
-  <si>
-    <t>1987-09-30</t>
-  </si>
-  <si>
-    <t>1988-09-30</t>
-  </si>
-  <si>
-    <t>1989-09-30</t>
-  </si>
-  <si>
-    <t>1990-09-30</t>
-  </si>
-  <si>
-    <t>1991-09-30</t>
-  </si>
-  <si>
-    <t>1992-09-30</t>
-  </si>
-  <si>
-    <t>1993-09-30</t>
-  </si>
-  <si>
     <t>1994-12-13</t>
   </si>
   <si>
@@ -332,9 +428,6 @@
   </si>
   <si>
     <t>1997-12-05</t>
-  </si>
-  <si>
-    <t>1998-09-25</t>
   </si>
   <si>
     <t>1999-12-22</t>
@@ -1161,15 +1254,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA39"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1327,59 +1420,65 @@
       <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:55">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2">
-        <v>337000000</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>238</v>
       </c>
       <c r="J2">
         <v>337000000</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>337000000</v>
+      </c>
+      <c r="M2">
         <v>220200000</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>167000000</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>97900000</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>822100000</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>90400000</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
@@ -1390,23 +1489,23 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>23700000</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>114100000</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>936200000</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
         <v>0</v>
       </c>
@@ -1414,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>295400000</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>295400000</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
-        <v>90300000</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1438,37 +1537,37 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>90300000</v>
       </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>385700000</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
       <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>320300000</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>-85200000</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>315400000</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>550500000</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>550500000</v>
-      </c>
-      <c r="AT2">
-        <v>936200000</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
       </c>
       <c r="AV2">
         <v>936200000</v>
@@ -1477,64 +1576,70 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>936200000</v>
       </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
         <v>-337000000</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
       <c r="G3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3">
-        <v>576200000</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
+        <v>238</v>
       </c>
       <c r="J3">
         <v>576200000</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>576200000</v>
+      </c>
+      <c r="M3">
         <v>263100000</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>108700000</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>92900000</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1040900000</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>107300000</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -1545,23 +1650,23 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>11900000</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>119200000</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>1160100000</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
         <v>0</v>
       </c>
@@ -1569,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>328500000</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>328500000</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
       <c r="AG3">
-        <v>137500000</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1593,37 +1698,37 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>137500000</v>
       </c>
       <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>466000000</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>474300000</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>-114700000</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>334500000</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>694100000</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>694100000</v>
-      </c>
-      <c r="AT3">
-        <v>1160100000</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
       </c>
       <c r="AV3">
         <v>1160100000</v>
@@ -1632,64 +1737,70 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1160100000</v>
       </c>
       <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>-576200000</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:55">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4">
-        <v>565100000</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" t="s">
+        <v>238</v>
       </c>
       <c r="J4">
         <v>565100000</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>565100000</v>
+      </c>
+      <c r="M4">
         <v>405600000</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>225800000</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>110900000</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1307400000</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>130400000</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -1700,23 +1811,23 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>40100000</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>170500000</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>1477900000</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
         <v>0</v>
       </c>
@@ -1724,61 +1835,61 @@
         <v>0</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>478700000</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>478700000</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>162800000</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>-100000</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>162700000</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
       <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>641400000</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
       <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>573100000</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>-158700000</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>422100000</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>836500000</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>836500000</v>
-      </c>
-      <c r="AT4">
-        <v>1477900000</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
       </c>
       <c r="AV4">
         <v>1477900000</v>
@@ -1787,64 +1898,70 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1477900000</v>
       </c>
       <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
         <v>-565100000</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:55">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>172</v>
-      </c>
       <c r="G5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5">
-        <v>545700000</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>238</v>
       </c>
       <c r="J5">
         <v>545700000</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>545700000</v>
+      </c>
+      <c r="M5">
         <v>638800000</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>461500000</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>137000000</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>1783000000</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>207400000</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
@@ -1855,43 +1972,43 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>91700000</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>299100000</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>2082100000</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>127900000</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>699200000</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>827100000</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
-        <v>251600000</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1903,37 +2020,37 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>251600000</v>
       </c>
       <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>1078700000</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
       <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>776500000</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>-213000000</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>439900000</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>1003400000</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>1003400000</v>
-      </c>
-      <c r="AT5">
-        <v>2082100000</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
       </c>
       <c r="AV5">
         <v>2082100000</v>
@@ -1942,64 +2059,70 @@
         <v>0</v>
       </c>
       <c r="AX5">
+        <v>2082100000</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>315000000</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>-230700000</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:55">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
       <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6">
-        <v>438300000</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>238</v>
       </c>
       <c r="J6">
         <v>438300000</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>438300000</v>
+      </c>
+      <c r="M6">
         <v>792800000</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>475400000</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>587900000</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>2294400000</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>334200000</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
@@ -2010,43 +2133,43 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>115300000</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>449500000</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>2743900000</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>334200000</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>56800000</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>504300000</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>895300000</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
-        <v>362900000</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -2058,37 +2181,37 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>362900000</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>1258200000</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
       <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>1175900000</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>-309100000</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>618900000</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>1485700000</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>1485700000</v>
-      </c>
-      <c r="AT6">
-        <v>2743900000</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
       </c>
       <c r="AV6">
         <v>2743900000</v>
@@ -2097,64 +2220,70 @@
         <v>0</v>
       </c>
       <c r="AX6">
+        <v>2743900000</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>56800000</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>-381500000</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:55">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>174</v>
-      </c>
       <c r="G7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7">
-        <v>374700000</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>238</v>
       </c>
       <c r="J7">
         <v>374700000</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>374700000</v>
+      </c>
+      <c r="M7">
         <v>761900000</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>355500000</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>911200000</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2403300000</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>398200000</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
@@ -2165,85 +2294,85 @@
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>174200000</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>572400000</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>2975700000</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>340600000</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>122600000</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>563800000</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>1027000000</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>501800000</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>100000</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>501900000</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
       <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>1528900000</v>
       </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
       <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
         <v>1312200000</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>-446700000</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>581300000</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>1446800000</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>1446800000</v>
-      </c>
-      <c r="AT7">
-        <v>2975700000</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
       </c>
       <c r="AV7">
         <v>2975700000</v>
@@ -2252,64 +2381,70 @@
         <v>0</v>
       </c>
       <c r="AX7">
+        <v>2975700000</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>122600000</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>-252100000</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:55">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
-      </c>
       <c r="G8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8">
-        <v>604100000</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>238</v>
       </c>
       <c r="J8">
         <v>604100000</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>604100000</v>
+      </c>
+      <c r="M8">
         <v>907200000</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>671700000</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>680600000</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>2863600000</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>448000000</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -2320,85 +2455,85 @@
         <v>0</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>182000000</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>630000000</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>3493600000</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>357100000</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>148600000</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>711400000</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>1217100000</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>509900000</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>-100000</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>509800000</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
       <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>1726900000</v>
       </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
       <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>1492000000</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>-588000000</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>862700000</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>1766700000</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>1766700000</v>
-      </c>
-      <c r="AT8">
-        <v>3493600000</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
       </c>
       <c r="AV8">
         <v>3493600000</v>
@@ -2407,64 +2542,70 @@
         <v>0</v>
       </c>
       <c r="AX8">
+        <v>3493600000</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>148600000</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>-455500000</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:55">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" t="s">
-        <v>176</v>
-      </c>
       <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" t="s">
         <v>207</v>
       </c>
-      <c r="H9">
-        <v>498600000</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>238</v>
       </c>
       <c r="J9">
         <v>498600000</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>498600000</v>
+      </c>
+      <c r="M9">
         <v>1087200000</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>580100000</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1392500000</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>3558400000</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>462200000</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>0</v>
       </c>
@@ -2475,43 +2616,43 @@
         <v>0</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>203100000</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>665300000</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>4223700000</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>426900000</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>184500000</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>814100000</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>1425500000</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
-        <v>610800000</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2523,37 +2664,37 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>610800000</v>
       </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>2036300000</v>
       </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
       <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>1904500000</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>-673400000</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>956300000</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>2187400000</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>2187400000</v>
-      </c>
-      <c r="AT9">
-        <v>4223700000</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
       </c>
       <c r="AV9">
         <v>4223700000</v>
@@ -2562,64 +2703,70 @@
         <v>0</v>
       </c>
       <c r="AX9">
+        <v>4223700000</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
         <v>184500000</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>-314100000</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:55">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
         <v>101</v>
       </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>177</v>
-      </c>
       <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10">
-        <v>676400000</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>238</v>
       </c>
       <c r="J10">
         <v>676400000</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>676400000</v>
+      </c>
+      <c r="M10">
         <v>1381900000</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1506600000</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>773500000</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>4338400000</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>659500000</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -2630,43 +2777,43 @@
         <v>0</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>173500000</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>833000000</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>5171400000</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>742600000</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>823200000</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>949400000</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>2515200000</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
-        <v>629800000</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2678,37 +2825,37 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>629800000</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>3145000000</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
       <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>1842600000</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>-753100000</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>936900000</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>2026400000</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>2026400000</v>
-      </c>
-      <c r="AT10">
-        <v>5171400000</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
       </c>
       <c r="AV10">
         <v>5171400000</v>
@@ -2717,64 +2864,70 @@
         <v>0</v>
       </c>
       <c r="AX10">
+        <v>5171400000</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>823200000</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>146800000</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:55">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11">
+        <v>171</v>
+      </c>
+      <c r="H11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11">
         <v>1203488000</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>54368000</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1257856000</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1581347000</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1088434000</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>548815000</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>4476452000</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>667100000</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
@@ -2785,85 +2938,85 @@
         <v>0</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>159194000</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>826294000</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>5302746000</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>881717000</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>292200000</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>770388000</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>1944305000</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>304000000</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>670668000</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>472000</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>975140000</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
       <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>2919445000</v>
       </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
         <v>297929000</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>2096206000</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>-785088000</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>774254000</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>2383301000</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>2383301000</v>
-      </c>
-      <c r="AT11">
-        <v>5302746000</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
       </c>
       <c r="AV11">
         <v>5302746000</v>
@@ -2872,70 +3025,76 @@
         <v>0</v>
       </c>
       <c r="AX11">
+        <v>5302746000</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
         <v>596200000</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>-607288000</v>
       </c>
-      <c r="AZ11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>236</v>
+      <c r="BB11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:55">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12">
+        <v>172</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12">
         <v>756000000</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>196000000</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>952000000</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>1931000000</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>1775000000</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>566000000</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>5224000000</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>711000000</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
         <v>0</v>
       </c>
@@ -2943,160 +3102,166 @@
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>702000000</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>-406000000</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>1007000000</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>6231000000</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>1165000000</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>461000000</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>699000000</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>2325000000</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>303000000</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>702000000</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>1005000000</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>3330000000</v>
       </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <v>398000000</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>2464000000</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>78000000</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>-39000000</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>2901000000</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>2901000000</v>
-      </c>
-      <c r="AT12">
-        <v>6231000000</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
       </c>
       <c r="AV12">
         <v>6231000000</v>
       </c>
       <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>6231000000</v>
+      </c>
+      <c r="AY12">
         <v>196000000</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>764000000</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>8000000</v>
       </c>
-      <c r="AZ12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>237</v>
+      <c r="BB12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:55">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13">
         <v>1552000000</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>193000000</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>1745000000</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1496000000</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>662000000</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>612000000</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>4515000000</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>598000000</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
@@ -3104,160 +3269,166 @@
         <v>0</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>354000000</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>-103000000</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>849000000</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>5364000000</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>791000000</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>186000000</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>1026000000</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>2003000000</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>949000000</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>354000000</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>1303000000</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
       <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>3306000000</v>
       </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
         <v>439000000</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>1634000000</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>-30000000</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>15000000</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>2058000000</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>2058000000</v>
-      </c>
-      <c r="AT13">
-        <v>5364000000</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
       </c>
       <c r="AV13">
         <v>5364000000</v>
       </c>
       <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>5364000000</v>
+      </c>
+      <c r="AY13">
         <v>193000000</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>1135000000</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>-417000000</v>
       </c>
-      <c r="AZ13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA13" s="2" t="s">
+      <c r="BB13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14">
+      <c r="J14">
         <v>1230000000</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>229000000</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1459000000</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1035000000</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>437000000</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>493000000</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>3424000000</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>486000000</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
         <v>0</v>
       </c>
@@ -3265,160 +3436,166 @@
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>264000000</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>59000000</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>809000000</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>4233000000</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>685000000</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>25000000</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>1108000000</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>1818000000</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>951000000</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>264000000</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>1215000000</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
       <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>3033000000</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>498000000</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>589000000</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>-74000000</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>187000000</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>1200000000</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>1200000000</v>
-      </c>
-      <c r="AT14">
-        <v>4233000000</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
       </c>
       <c r="AV14">
         <v>4233000000</v>
       </c>
       <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>4233000000</v>
+      </c>
+      <c r="AY14">
         <v>229000000</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>976000000</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>-254000000</v>
       </c>
-      <c r="AZ14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BA14" s="2" t="s">
-        <v>239</v>
+      <c r="BB14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:55">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
       <c r="G15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15">
         <v>1481000000</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>819000000</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>2300000000</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>955000000</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>78000000</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>365000000</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>3698000000</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>348000000</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>0</v>
       </c>
@@ -3426,315 +3603,327 @@
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>173000000</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>70000000</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>591000000</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>4289000000</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>719000000</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>801000000</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>1520000000</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>954000000</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>173000000</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>1127000000</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>2647000000</v>
       </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
         <v>633000000</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>898000000</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>-39000000</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>150000000</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>1642000000</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>1642000000</v>
-      </c>
-      <c r="AT15">
-        <v>4289000000</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
       </c>
       <c r="AV15">
         <v>4289000000</v>
       </c>
       <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>4289000000</v>
+      </c>
+      <c r="AY15">
         <v>819000000</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>954000000</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>-527000000</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:55">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16">
         <v>1326000000</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1900000000</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>3226000000</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>681000000</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>20000000</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>358000000</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>4285000000</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>318000000</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>339000000</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>208000000</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>11000000</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>876000000</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>5161000000</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>812000000</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>737000000</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>1549000000</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>300000000</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>208000000</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>508000000</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
       <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>2057000000</v>
       </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>1349000000</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>1499000000</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>106000000</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>150000000</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>3104000000</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>3104000000</v>
-      </c>
-      <c r="AT16">
-        <v>5161000000</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
       </c>
       <c r="AV16">
         <v>5161000000</v>
       </c>
       <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>5161000000</v>
+      </c>
+      <c r="AY16">
         <v>2239000000</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>300000000</v>
       </c>
-      <c r="AY16">
+      <c r="BA16">
         <v>-1026000000</v>
       </c>
-      <c r="AZ16" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BA16" s="2" t="s">
-        <v>240</v>
+      <c r="BB16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:55">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17">
+        <v>177</v>
+      </c>
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17">
         <v>1191000000</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>2836000000</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>4027000000</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>953000000</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>33000000</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>414000000</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>5427000000</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>313000000</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
         <v>0</v>
       </c>
@@ -3745,85 +3934,85 @@
         <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>1063000000</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>1376000000</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>6803000000</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>1157000000</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>0</v>
       </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>776000000</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>1933000000</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>300000000</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>463000000</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>763000000</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>2696000000</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
         <v>1502000000</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>2285000000</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>-387000000</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>707000000</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>4107000000</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>4107000000</v>
-      </c>
-      <c r="AT17">
-        <v>6803000000</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
       </c>
       <c r="AV17">
         <v>6803000000</v>
@@ -3832,439 +4021,457 @@
         <v>0</v>
       </c>
       <c r="AX17">
+        <v>6803000000</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
         <v>300000000</v>
       </c>
-      <c r="AY17">
+      <c r="BA17">
         <v>-891000000</v>
       </c>
-      <c r="AZ17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA17" s="2" t="s">
-        <v>241</v>
+      <c r="BB17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:55">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18">
+        <v>178</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18">
         <v>2310000000</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2026000000</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>4336000000</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>466000000</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>11000000</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>330000000</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>5143000000</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>564000000</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>66000000</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>10000000</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>76000000</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>128000000</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>266000000</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>-156000000</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>878000000</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>6021000000</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>801000000</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>717000000</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>1518000000</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>317000000</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>266000000</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>583000000</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>2101000000</v>
       </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>1693000000</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>2260000000</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>-33000000</v>
       </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>3920000000</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>3920000000</v>
-      </c>
-      <c r="AT18">
-        <v>6021000000</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
       </c>
       <c r="AV18">
         <v>6021000000</v>
       </c>
       <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>6021000000</v>
+      </c>
+      <c r="AY18">
         <v>2154000000</v>
       </c>
-      <c r="AX18">
+      <c r="AZ18">
         <v>317000000</v>
       </c>
-      <c r="AY18">
+      <c r="BA18">
         <v>-1993000000</v>
       </c>
-      <c r="AZ18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA18" s="2" t="s">
-        <v>214</v>
+      <c r="BB18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:55">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19">
+        <v>179</v>
+      </c>
+      <c r="H19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19">
         <v>2252000000</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2085000000</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>4337000000</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>565000000</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>45000000</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>441000000</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>5388000000</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>621000000</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>85000000</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>34000000</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>119000000</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>39000000</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>229000000</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>-98000000</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>910000000</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>6298000000</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>911000000</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>747000000</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>1658000000</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>316000000</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
       <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>229000000</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>545000000</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
       <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>2203000000</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>1826000000</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>2325000000</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>-56000000</v>
       </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
         <v>4095000000</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>4095000000</v>
-      </c>
-      <c r="AT19">
-        <v>6298000000</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
       </c>
       <c r="AV19">
         <v>6298000000</v>
       </c>
       <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>6298000000</v>
+      </c>
+      <c r="AY19">
         <v>2124000000</v>
       </c>
-      <c r="AX19">
+      <c r="AZ19">
         <v>316000000</v>
       </c>
-      <c r="AY19">
+      <c r="BA19">
         <v>-1936000000</v>
       </c>
-      <c r="AZ19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA19" s="2" t="s">
-        <v>242</v>
+      <c r="BB19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:55">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20">
+        <v>180</v>
+      </c>
+      <c r="H20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" t="s">
+        <v>238</v>
+      </c>
+      <c r="J20">
         <v>3396000000</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1170000000</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>4566000000</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>950000000</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>56000000</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>315000000</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>5887000000</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>669000000</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>85000000</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>24000000</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>109000000</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>5000000</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>60000000</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>85000000</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>928000000</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>6815000000</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>1154000000</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>304000000</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>368000000</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>531000000</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>2357000000</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
-        <v>235000000</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -4276,156 +4483,162 @@
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>235000000</v>
       </c>
       <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>2592000000</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>1926000000</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>2394000000</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>-35000000</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>-62000000</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>4223000000</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>4223000000</v>
-      </c>
-      <c r="AT20">
-        <v>6815000000</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
       </c>
       <c r="AV20">
         <v>6815000000</v>
       </c>
       <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>6815000000</v>
+      </c>
+      <c r="AY20">
         <v>1175000000</v>
       </c>
-      <c r="AX20">
+      <c r="AZ20">
         <v>304000000</v>
       </c>
-      <c r="AY20">
+      <c r="BA20">
         <v>-3092000000</v>
       </c>
-      <c r="AZ20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>216</v>
+      <c r="BB20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:55">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21">
+        <v>181</v>
+      </c>
+      <c r="H21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21">
         <v>2969000000</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2495000000</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>5464000000</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1050000000</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>101000000</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>440000000</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>7055000000</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>707000000</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>80000000</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>17000000</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>97000000</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>86000000</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>105000000</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>995000000</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>8050000000</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>1451000000</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>544000000</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>685000000</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>2680000000</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
       <c r="AG21">
-        <v>294000000</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -4437,37 +4650,37 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>294000000</v>
       </c>
       <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>2974000000</v>
       </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>2514000000</v>
       </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>2670000000</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>-15000000</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>-93000000</v>
       </c>
-      <c r="AR21">
+      <c r="AT21">
         <v>5076000000</v>
       </c>
-      <c r="AS21">
+      <c r="AU21">
         <v>5076000000</v>
-      </c>
-      <c r="AT21">
-        <v>8050000000</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
       </c>
       <c r="AV21">
         <v>8050000000</v>
@@ -4476,159 +4689,165 @@
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>8050000000</v>
       </c>
       <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
         <v>-2969000000</v>
       </c>
-      <c r="AZ21" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>217</v>
+      <c r="BB21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:55">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22">
         <v>3491000000</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>4770000000</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>8261000000</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>1312000000</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>165000000</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>562000000</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>10300000000</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>817000000</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>69000000</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>27000000</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>96000000</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>183000000</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>155000000</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>1251000000</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>11551000000</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>1779000000</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>501000000</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>1204000000</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>3484000000</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>281000000</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>308000000</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>12000000</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>601000000</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
       <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
         <v>4085000000</v>
       </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
         <v>3521000000</v>
       </c>
-      <c r="AO22">
+      <c r="AQ22">
         <v>4005000000</v>
       </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>-60000000</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>7466000000</v>
       </c>
-      <c r="AS22">
+      <c r="AU22">
         <v>7466000000</v>
-      </c>
-      <c r="AT22">
-        <v>11551000000</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
       </c>
       <c r="AV22">
         <v>11551000000</v>
@@ -4637,159 +4856,165 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>11551000000</v>
       </c>
       <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
         <v>-3491000000</v>
       </c>
-      <c r="AZ22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA22" s="2" t="s">
-        <v>218</v>
+      <c r="BB22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC22" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:55">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23">
         <v>6392000000</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>3718000000</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>10110000000</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>2845000000</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>270000000</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1284000000</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>14509000000</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1281000000</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>38000000</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>139000000</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>177000000</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>1238000000</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>2696000000</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>17205000000</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>3390000000</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>388000000</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>746000000</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>1947000000</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>6471000000</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>355000000</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>381000000</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>14000000</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>750000000</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>7221000000</v>
       </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
         <v>4355000000</v>
       </c>
-      <c r="AO23">
+      <c r="AQ23">
         <v>5607000000</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <v>22000000</v>
       </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
         <v>9984000000</v>
       </c>
-      <c r="AS23">
+      <c r="AU23">
         <v>9984000000</v>
-      </c>
-      <c r="AT23">
-        <v>17205000000</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
       </c>
       <c r="AV23">
         <v>17205000000</v>
@@ -4798,159 +5023,165 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>17205000000</v>
       </c>
       <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
         <v>-6392000000</v>
       </c>
-      <c r="AZ23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA23" s="2" t="s">
-        <v>219</v>
+      <c r="BB23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:55">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24">
         <v>9352000000</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>6034000000</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>15386000000</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>4029000000</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>346000000</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>2195000000</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>21956000000</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1832000000</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>38000000</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>299000000</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>337000000</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>88000000</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>1134000000</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>3391000000</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>25347000000</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>4970000000</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>488000000</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>1410000000</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>2431000000</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>9299000000</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>830000000</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>619000000</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>67000000</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>1516000000</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>10815000000</v>
       </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
         <v>5368000000</v>
       </c>
-      <c r="AO24">
+      <c r="AQ24">
         <v>9101000000</v>
       </c>
-      <c r="AP24">
+      <c r="AR24">
         <v>63000000</v>
       </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
         <v>14532000000</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
         <v>14532000000</v>
-      </c>
-      <c r="AT24">
-        <v>25347000000</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
       </c>
       <c r="AV24">
         <v>25347000000</v>
@@ -4959,159 +5190,165 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>25347000000</v>
       </c>
       <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
         <v>-9352000000</v>
       </c>
-      <c r="AZ24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA24" s="2" t="s">
-        <v>243</v>
+      <c r="BB24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:55">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25">
+        <v>185</v>
+      </c>
+      <c r="H25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25">
         <v>11875000000</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>12615000000</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>24490000000</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>4704000000</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>509000000</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>4987000000</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>34690000000</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>2455000000</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>207000000</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>285000000</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>492000000</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>138000000</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>1797000000</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>4882000000</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>39572000000</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>5520000000</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>100000000</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>4853000000</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>3619000000</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>14092000000</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>3029000000</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>675000000</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>746000000</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>4450000000</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>18542000000</v>
       </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>7177000000</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>13845000000</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>8000000</v>
       </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
         <v>21030000000</v>
       </c>
-      <c r="AS25">
+      <c r="AU25">
         <v>21030000000</v>
-      </c>
-      <c r="AT25">
-        <v>39572000000</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
       </c>
       <c r="AV25">
         <v>39572000000</v>
@@ -5120,2330 +5357,2420 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>39572000000</v>
       </c>
       <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
         <v>-11875000000</v>
       </c>
-      <c r="AZ25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA25" s="2" t="s">
-        <v>244</v>
+      <c r="BB25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC25" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:55">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26">
+        <v>186</v>
+      </c>
+      <c r="H26" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26">
         <v>5263000000</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>18201000000</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>23464000000</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>5057000000</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>455000000</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>7289000000</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>36265000000</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>2954000000</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>206000000</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>247000000</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>453000000</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>10528000000</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>259000000</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>3392000000</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>17586000000</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>53851000000</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>5601000000</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>439000000</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>10305000000</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>2937000000</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>19282000000</v>
       </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>4485000000</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>966000000</v>
       </c>
-      <c r="AH26">
+      <c r="AJ26">
         <v>1286000000</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>6737000000</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
         <v>26019000000</v>
       </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
         <v>8210000000</v>
       </c>
-      <c r="AO26">
+      <c r="AQ26">
         <v>19538000000</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <v>84000000</v>
       </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
         <v>27832000000</v>
       </c>
-      <c r="AS26">
+      <c r="AU26">
         <v>27832000000</v>
-      </c>
-      <c r="AT26">
-        <v>53851000000</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
       </c>
       <c r="AV26">
         <v>53851000000</v>
       </c>
       <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>53851000000</v>
+      </c>
+      <c r="AY26">
         <v>28729000000</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
         <v>-5263000000</v>
       </c>
-      <c r="AZ26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA26" s="2" t="s">
-        <v>245</v>
+      <c r="BB26" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC26" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:55">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27">
+        <v>187</v>
+      </c>
+      <c r="H27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27">
         <v>11261000000</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>14359000000</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>25620000000</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>9924000000</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>1051000000</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>5083000000</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>41678000000</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>4768000000</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>741000000</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>342000000</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>1083000000</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>25391000000</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>2263000000</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>33505000000</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>75183000000</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>12015000000</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>210000000</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>2984000000</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>5513000000</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>20722000000</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
         <v>1139000000</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>5531000000</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>6670000000</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>27392000000</v>
       </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
         <v>10668000000</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <v>37169000000</v>
       </c>
-      <c r="AP27">
+      <c r="AR27">
         <v>-46000000</v>
       </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
         <v>47791000000</v>
       </c>
-      <c r="AS27">
+      <c r="AU27">
         <v>47791000000</v>
-      </c>
-      <c r="AT27">
-        <v>75183000000</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
       </c>
       <c r="AV27">
         <v>75183000000</v>
       </c>
       <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>75183000000</v>
+      </c>
+      <c r="AY27">
         <v>39750000000</v>
       </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
         <v>-11261000000</v>
       </c>
-      <c r="AZ27" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA27" s="2" t="s">
-        <v>246</v>
+      <c r="BB27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC27" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:55">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28">
+        <v>188</v>
+      </c>
+      <c r="H28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28">
         <v>9815000000</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>16137000000</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>25952000000</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>11717000000</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>776000000</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>6543000000</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>44988000000</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>7777000000</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>896000000</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>3536000000</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>4432000000</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>55618000000</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>3556000000</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>71383000000</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>116371000000</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>14632000000</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <v>1140000000</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>4091000000</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>8107000000</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>27970000000</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>1686000000</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>8159000000</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>1941000000</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>11786000000</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
       <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
         <v>39756000000</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
         <v>13331000000</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>62841000000</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <v>443000000</v>
       </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
         <v>76615000000</v>
       </c>
-      <c r="AS28">
+      <c r="AU28">
         <v>76615000000</v>
-      </c>
-      <c r="AT28">
-        <v>116371000000</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
       </c>
       <c r="AV28">
         <v>116371000000</v>
       </c>
       <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>116371000000</v>
+      </c>
+      <c r="AY28">
         <v>71755000000</v>
       </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
         <v>-9815000000</v>
       </c>
-      <c r="AZ28" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA28" s="2" t="s">
-        <v>247</v>
+      <c r="BB28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC28" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:55">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29">
+        <v>189</v>
+      </c>
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29">
         <v>10746000000</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>18383000000</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>29129000000</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>18692000000</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>791000000</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>9041000000</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>57653000000</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>15452000000</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>1135000000</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>4224000000</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>5359000000</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>92122000000</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>5478000000</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>118411000000</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>176064000000</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>21175000000</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <v>1535000000</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>5953000000</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>9879000000</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>38542000000</v>
       </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>2648000000</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>13847000000</v>
       </c>
-      <c r="AH29">
+      <c r="AJ29">
         <v>2817000000</v>
       </c>
-      <c r="AI29">
+      <c r="AK29">
         <v>19312000000</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
       <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
         <v>57854000000</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
         <v>16422000000</v>
       </c>
-      <c r="AO29">
+      <c r="AQ29">
         <v>101289000000</v>
       </c>
-      <c r="AP29">
+      <c r="AR29">
         <v>499000000</v>
       </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
         <v>118210000000</v>
       </c>
-      <c r="AS29">
+      <c r="AU29">
         <v>118210000000</v>
-      </c>
-      <c r="AT29">
-        <v>176064000000</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
       </c>
       <c r="AV29">
         <v>176064000000</v>
       </c>
       <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>176064000000</v>
+      </c>
+      <c r="AY29">
         <v>110505000000</v>
       </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
         <v>-10746000000</v>
       </c>
-      <c r="AZ29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BA29" s="2" t="s">
-        <v>248</v>
+      <c r="BB29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC29" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:55">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30">
+        <v>190</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30">
         <v>14259000000</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>26287000000</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>40546000000</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>20641000000</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>1764000000</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>10335000000</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>73286000000</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>16597000000</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>1577000000</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>4179000000</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>5756000000</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>106215000000</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>5146000000</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>133714000000</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
         <v>207000000000</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>22367000000</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
         <v>1200000000</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>7435000000</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>12656000000</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>43658000000</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>16960000000</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>2625000000</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>16489000000</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>3719000000</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>39793000000</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
       <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
         <v>83451000000</v>
       </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>19764000000</v>
       </c>
-      <c r="AO30">
+      <c r="AQ30">
         <v>104256000000</v>
       </c>
-      <c r="AP30">
+      <c r="AR30">
         <v>-471000000</v>
       </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
         <v>123549000000</v>
       </c>
-      <c r="AS30">
+      <c r="AU30">
         <v>123549000000</v>
-      </c>
-      <c r="AT30">
-        <v>207000000000</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
       </c>
       <c r="AV30">
         <v>207000000000</v>
       </c>
       <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>207000000000</v>
+      </c>
+      <c r="AY30">
         <v>132502000000</v>
       </c>
-      <c r="AX30">
+      <c r="AZ30">
         <v>16960000000</v>
       </c>
-      <c r="AY30">
+      <c r="BA30">
         <v>2701000000</v>
       </c>
-      <c r="AZ30" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BA30" s="2" t="s">
-        <v>249</v>
+      <c r="BB30" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC30" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:55">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31">
+        <v>191</v>
+      </c>
+      <c r="H31" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31">
         <v>13844000000</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>11233000000</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>25077000000</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>27219000000</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>2111000000</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>14124000000</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>68531000000</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>20624000000</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>4616000000</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>4142000000</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>8758000000</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>130162000000</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>3764000000</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>163308000000</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
         <v>231839000000</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>30196000000</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>6308000000</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>1209000000</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>8491000000</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>17244000000</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>63448000000</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
         <v>28987000000</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>3031000000</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>20259000000</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
         <v>4567000000</v>
       </c>
-      <c r="AI31">
+      <c r="AK31">
         <v>56844000000</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
       <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
         <v>120292000000</v>
       </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
         <v>23313000000</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31">
         <v>87152000000</v>
       </c>
-      <c r="AP31">
+      <c r="AR31">
         <v>1082000000</v>
       </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
         <v>111547000000</v>
       </c>
-      <c r="AS31">
+      <c r="AU31">
         <v>111547000000</v>
-      </c>
-      <c r="AT31">
-        <v>231839000000</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
       </c>
       <c r="AV31">
         <v>231839000000</v>
       </c>
       <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>231839000000</v>
+      </c>
+      <c r="AY31">
         <v>141395000000</v>
       </c>
-      <c r="AX31">
+      <c r="AZ31">
         <v>35295000000</v>
       </c>
-      <c r="AY31">
+      <c r="BA31">
         <v>21451000000</v>
       </c>
-      <c r="AZ31" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA31" s="2" t="s">
-        <v>250</v>
+      <c r="BB31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC31" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:55">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32">
+        <v>192</v>
+      </c>
+      <c r="H32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32">
         <v>21120000000</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>20481000000</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>41601000000</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>30343000000</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>2349000000</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>15085000000</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>89378000000</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>22471000000</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>5116000000</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>3893000000</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>9009000000</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>164065000000</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
         <v>5556000000</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>201101000000</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
         <v>290479000000</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>35490000000</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>10999000000</v>
       </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
         <v>8940000000</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>25181000000</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>80610000000</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>53463000000</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>3624000000</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>24062000000</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>9365000000</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>90514000000</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
       <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
         <v>171124000000</v>
       </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
         <v>27416000000</v>
       </c>
-      <c r="AO32">
+      <c r="AQ32">
         <v>92284000000</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <v>-345000000</v>
       </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
         <v>119355000000</v>
       </c>
-      <c r="AS32">
+      <c r="AU32">
         <v>119355000000</v>
-      </c>
-      <c r="AT32">
-        <v>290479000000</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
       </c>
       <c r="AV32">
         <v>290479000000</v>
       </c>
       <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>290479000000</v>
+      </c>
+      <c r="AY32">
         <v>184546000000</v>
       </c>
-      <c r="AX32">
+      <c r="AZ32">
         <v>64462000000</v>
       </c>
-      <c r="AY32">
+      <c r="BA32">
         <v>43342000000</v>
       </c>
-      <c r="AZ32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA32" s="2" t="s">
-        <v>251</v>
+      <c r="BB32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BC32" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:55">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33">
+        <v>193</v>
+      </c>
+      <c r="H33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33">
         <v>20484000000</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>46671000000</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>67155000000</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>29299000000</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>2132000000</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>8283000000</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>106869000000</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>27010000000</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>5414000000</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>3206000000</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>8620000000</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>170430000000</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>8757000000</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>214817000000</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <v>321686000000</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>37294000000</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>11605000000</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <v>8080000000</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>22027000000</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>79006000000</v>
       </c>
-      <c r="AE33">
+      <c r="AG33">
         <v>75427000000</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
         <v>2930000000</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>26019000000</v>
       </c>
-      <c r="AH33">
+      <c r="AJ33">
         <v>10055000000</v>
       </c>
-      <c r="AI33">
+      <c r="AK33">
         <v>114431000000</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
       <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
         <v>193437000000</v>
       </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
         <v>31251000000</v>
       </c>
-      <c r="AO33">
+      <c r="AQ33">
         <v>96364000000</v>
       </c>
-      <c r="AP33">
+      <c r="AR33">
         <v>634000000</v>
       </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
         <v>128249000000</v>
       </c>
-      <c r="AS33">
+      <c r="AU33">
         <v>128249000000</v>
-      </c>
-      <c r="AT33">
-        <v>321686000000</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
       </c>
       <c r="AV33">
         <v>321686000000</v>
       </c>
       <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>321686000000</v>
+      </c>
+      <c r="AY33">
         <v>217101000000</v>
       </c>
-      <c r="AX33">
+      <c r="AZ33">
         <v>87032000000</v>
       </c>
-      <c r="AY33">
+      <c r="BA33">
         <v>66548000000</v>
       </c>
-      <c r="AZ33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA33" s="2" t="s">
-        <v>252</v>
+      <c r="BB33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC33" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:55">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34">
+        <v>194</v>
+      </c>
+      <c r="H34" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34">
         <v>20289000000</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>53892000000</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>74181000000</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>35673000000</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>4855000000</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>13936000000</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>128645000000</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>33783000000</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>5717000000</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>2298000000</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>8015000000</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>194714000000</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>10162000000</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>246674000000</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>375319000000</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>49049000000</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>18473000000</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <v>7548000000</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>25744000000</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>100814000000</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
         <v>97207000000</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>2836000000</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>31504000000</v>
       </c>
-      <c r="AH34">
+      <c r="AJ34">
         <v>8911000000</v>
       </c>
-      <c r="AI34">
+      <c r="AK34">
         <v>140458000000</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
       <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
         <v>241272000000</v>
       </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
         <v>35867000000</v>
       </c>
-      <c r="AO34">
+      <c r="AQ34">
         <v>98330000000</v>
       </c>
-      <c r="AP34">
+      <c r="AR34">
         <v>-150000000</v>
       </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
         <v>134047000000</v>
       </c>
-      <c r="AS34">
+      <c r="AU34">
         <v>134047000000</v>
-      </c>
-      <c r="AT34">
-        <v>375319000000</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
       </c>
       <c r="AV34">
         <v>375319000000</v>
       </c>
       <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>375319000000</v>
+      </c>
+      <c r="AY34">
         <v>248606000000</v>
       </c>
-      <c r="AX34">
+      <c r="AZ34">
         <v>115680000000</v>
       </c>
-      <c r="AY34">
+      <c r="BA34">
         <v>95391000000</v>
       </c>
-      <c r="AZ34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA34" s="2" t="s">
-        <v>253</v>
+      <c r="BB34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC34" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:55">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35">
+        <v>195</v>
+      </c>
+      <c r="H35" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35">
         <v>25913000000</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>40388000000</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>66301000000</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>48995000000</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>3956000000</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>12087000000</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>131339000000</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>41304000000</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>170799000000</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>22283000000</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>234386000000</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
         <v>365725000000</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>55888000000</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>20748000000</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
         <v>7543000000</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>32687000000</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>116866000000</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>93735000000</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>2797000000</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>426000000</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>44754000000</v>
       </c>
-      <c r="AI35">
+      <c r="AK35">
         <v>141712000000</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
       <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
         <v>258578000000</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
         <v>40201000000</v>
       </c>
-      <c r="AO35">
+      <c r="AQ35">
         <v>70400000000</v>
       </c>
-      <c r="AP35">
+      <c r="AR35">
         <v>-3454000000</v>
       </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
         <v>107147000000</v>
       </c>
-      <c r="AS35">
+      <c r="AU35">
         <v>107147000000</v>
-      </c>
-      <c r="AT35">
-        <v>365725000000</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
       </c>
       <c r="AV35">
         <v>365725000000</v>
       </c>
       <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>365725000000</v>
+      </c>
+      <c r="AY35">
         <v>211187000000</v>
       </c>
-      <c r="AX35">
+      <c r="AZ35">
         <v>114483000000</v>
       </c>
-      <c r="AY35">
+      <c r="BA35">
         <v>88570000000</v>
       </c>
-      <c r="AZ35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA35" s="2" t="s">
-        <v>254</v>
+      <c r="BB35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC35" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:55">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36">
+        <v>196</v>
+      </c>
+      <c r="H36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36">
         <v>48844000000</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>51713000000</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>100557000000</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>45804000000</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>4106000000</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>12352000000</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>162819000000</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>37378000000</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>105341000000</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>32978000000</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>175697000000</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
         <v>338516000000</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>46236000000</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>16240000000</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
         <v>5522000000</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>37720000000</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>105718000000</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
         <v>91807000000</v>
       </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
       <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>50503000000</v>
       </c>
-      <c r="AI36">
+      <c r="AK36">
         <v>142310000000</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
       <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
         <v>248028000000</v>
       </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
         <v>45174000000</v>
       </c>
-      <c r="AO36">
+      <c r="AQ36">
         <v>45898000000</v>
       </c>
-      <c r="AP36">
+      <c r="AR36">
         <v>-584000000</v>
       </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
         <v>90488000000</v>
       </c>
-      <c r="AS36">
+      <c r="AU36">
         <v>90488000000</v>
-      </c>
-      <c r="AT36">
-        <v>338516000000</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
       </c>
       <c r="AV36">
         <v>338516000000</v>
       </c>
       <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>338516000000</v>
+      </c>
+      <c r="AY36">
         <v>157054000000</v>
       </c>
-      <c r="AX36">
+      <c r="AZ36">
         <v>108047000000</v>
       </c>
-      <c r="AY36">
+      <c r="BA36">
         <v>59203000000</v>
       </c>
-      <c r="AZ36" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BA36" s="2" t="s">
-        <v>255</v>
+      <c r="BB36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC36" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:55">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37">
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>235</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37">
         <v>38016000000</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>52927000000</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>90943000000</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>37445000000</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>4061000000</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>11264000000</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>143713000000</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>36766000000</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>100887000000</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>42522000000</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>180175000000</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
         <v>323888000000</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>42296000000</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>13769000000</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>6643000000</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>42684000000</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>105392000000</v>
       </c>
-      <c r="AE37">
+      <c r="AG37">
         <v>98667000000</v>
       </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
       <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>54490000000</v>
       </c>
-      <c r="AI37">
+      <c r="AK37">
         <v>153157000000</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
       <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
         <v>258549000000</v>
       </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
         <v>50779000000</v>
       </c>
-      <c r="AO37">
+      <c r="AQ37">
         <v>14966000000</v>
       </c>
-      <c r="AP37">
+      <c r="AR37">
         <v>-406000000</v>
       </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
         <v>65339000000</v>
       </c>
-      <c r="AS37">
+      <c r="AU37">
         <v>65339000000</v>
-      </c>
-      <c r="AT37">
-        <v>323888000000</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
       </c>
       <c r="AV37">
         <v>323888000000</v>
       </c>
       <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>323888000000</v>
+      </c>
+      <c r="AY37">
         <v>153814000000</v>
       </c>
-      <c r="AX37">
+      <c r="AZ37">
         <v>112436000000</v>
       </c>
-      <c r="AY37">
+      <c r="BA37">
         <v>74420000000</v>
       </c>
-      <c r="AZ37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA37" s="2" t="s">
-        <v>256</v>
+      <c r="BB37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC37" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:55">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H38">
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I38" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38">
         <v>34940000000</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>27699000000</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>62639000000</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>51506000000</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>6580000000</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>14111000000</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>134836000000</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>39440000000</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>127877000000</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>48849000000</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>216166000000</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
         <v>351002000000</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>54763000000</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>15613000000</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
         <v>7612000000</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>47493000000</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>125481000000</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>109106000000</v>
       </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
       <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>53325000000</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <v>162431000000</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
       <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
         <v>287912000000</v>
       </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
         <v>57365000000</v>
       </c>
-      <c r="AO38">
+      <c r="AQ38">
         <v>5562000000</v>
       </c>
-      <c r="AP38">
+      <c r="AR38">
         <v>163000000</v>
       </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
         <v>63090000000</v>
       </c>
-      <c r="AS38">
+      <c r="AU38">
         <v>63090000000</v>
-      </c>
-      <c r="AT38">
-        <v>351002000000</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
       </c>
       <c r="AV38">
         <v>351002000000</v>
       </c>
       <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>351002000000</v>
+      </c>
+      <c r="AY38">
         <v>155576000000</v>
       </c>
-      <c r="AX38">
+      <c r="AZ38">
         <v>124719000000</v>
       </c>
-      <c r="AY38">
+      <c r="BA38">
         <v>89779000000</v>
       </c>
-      <c r="AZ38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA38" s="2" t="s">
-        <v>257</v>
+      <c r="BB38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC38" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:55">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39">
+        <v>199</v>
+      </c>
+      <c r="H39" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39">
         <v>23646000000</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>24658000000</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>48304000000</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>60932000000</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>4946000000</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>21223000000</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>135405000000</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>42117000000</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>120805000000</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>54428000000</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>217350000000</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>352755000000</v>
       </c>
-      <c r="Y39">
+      <c r="AA39">
         <v>64115000000</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>21110000000</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <v>7912000000</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>60845000000</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>153982000000</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
         <v>98959000000</v>
       </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
       <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>49142000000</v>
       </c>
-      <c r="AI39">
+      <c r="AK39">
         <v>148101000000</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
       <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
         <v>302083000000</v>
       </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
         <v>64849000000</v>
       </c>
-      <c r="AO39">
+      <c r="AQ39">
         <v>-3068000000</v>
       </c>
-      <c r="AP39">
+      <c r="AR39">
         <v>-11109000000</v>
       </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
         <v>50672000000</v>
       </c>
-      <c r="AS39">
+      <c r="AU39">
         <v>50672000000</v>
-      </c>
-      <c r="AT39">
-        <v>352755000000</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
       </c>
       <c r="AV39">
         <v>352755000000</v>
       </c>
       <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>352755000000</v>
+      </c>
+      <c r="AY39">
         <v>145463000000</v>
       </c>
-      <c r="AX39">
+      <c r="AZ39">
         <v>120069000000</v>
       </c>
-      <c r="AY39">
+      <c r="BA39">
         <v>96423000000</v>
       </c>
-      <c r="AZ39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA39" s="2" t="s">
-        <v>258</v>
+      <c r="BB39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC39" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AZ11" r:id="rId1"/>
-    <hyperlink ref="BA11" r:id="rId2"/>
-    <hyperlink ref="AZ12" r:id="rId3"/>
-    <hyperlink ref="BA12" r:id="rId4"/>
-    <hyperlink ref="AZ13" r:id="rId5"/>
-    <hyperlink ref="BA13" r:id="rId6"/>
-    <hyperlink ref="AZ14" r:id="rId7"/>
-    <hyperlink ref="BA14" r:id="rId8"/>
-    <hyperlink ref="AZ16" r:id="rId9"/>
-    <hyperlink ref="BA16" r:id="rId10"/>
-    <hyperlink ref="AZ17" r:id="rId11"/>
-    <hyperlink ref="BA17" r:id="rId12"/>
-    <hyperlink ref="AZ18" r:id="rId13"/>
-    <hyperlink ref="BA18" r:id="rId14"/>
-    <hyperlink ref="AZ19" r:id="rId15"/>
-    <hyperlink ref="BA19" r:id="rId16"/>
-    <hyperlink ref="AZ20" r:id="rId17"/>
-    <hyperlink ref="BA20" r:id="rId18"/>
-    <hyperlink ref="AZ21" r:id="rId19"/>
-    <hyperlink ref="BA21" r:id="rId20"/>
-    <hyperlink ref="AZ22" r:id="rId21"/>
-    <hyperlink ref="BA22" r:id="rId22"/>
-    <hyperlink ref="AZ23" r:id="rId23"/>
-    <hyperlink ref="BA23" r:id="rId24"/>
-    <hyperlink ref="AZ24" r:id="rId25"/>
-    <hyperlink ref="BA24" r:id="rId26"/>
-    <hyperlink ref="AZ25" r:id="rId27"/>
-    <hyperlink ref="BA25" r:id="rId28"/>
-    <hyperlink ref="AZ26" r:id="rId29"/>
-    <hyperlink ref="BA26" r:id="rId30"/>
-    <hyperlink ref="AZ27" r:id="rId31"/>
-    <hyperlink ref="BA27" r:id="rId32"/>
-    <hyperlink ref="AZ28" r:id="rId33"/>
-    <hyperlink ref="BA28" r:id="rId34"/>
-    <hyperlink ref="AZ29" r:id="rId35"/>
-    <hyperlink ref="BA29" r:id="rId36"/>
-    <hyperlink ref="AZ30" r:id="rId37"/>
-    <hyperlink ref="BA30" r:id="rId38"/>
-    <hyperlink ref="AZ31" r:id="rId39"/>
-    <hyperlink ref="BA31" r:id="rId40"/>
-    <hyperlink ref="AZ32" r:id="rId41"/>
-    <hyperlink ref="BA32" r:id="rId42"/>
-    <hyperlink ref="AZ33" r:id="rId43"/>
-    <hyperlink ref="BA33" r:id="rId44"/>
-    <hyperlink ref="AZ34" r:id="rId45"/>
-    <hyperlink ref="BA34" r:id="rId46"/>
-    <hyperlink ref="AZ35" r:id="rId47"/>
-    <hyperlink ref="BA35" r:id="rId48"/>
-    <hyperlink ref="AZ36" r:id="rId49"/>
-    <hyperlink ref="BA36" r:id="rId50"/>
-    <hyperlink ref="AZ37" r:id="rId51"/>
-    <hyperlink ref="BA37" r:id="rId52"/>
-    <hyperlink ref="AZ38" r:id="rId53"/>
-    <hyperlink ref="BA38" r:id="rId54"/>
-    <hyperlink ref="AZ39" r:id="rId55"/>
-    <hyperlink ref="BA39" r:id="rId56"/>
+    <hyperlink ref="BB11" r:id="rId1"/>
+    <hyperlink ref="BC11" r:id="rId2"/>
+    <hyperlink ref="BB12" r:id="rId3"/>
+    <hyperlink ref="BC12" r:id="rId4"/>
+    <hyperlink ref="BB13" r:id="rId5"/>
+    <hyperlink ref="BC13" r:id="rId6"/>
+    <hyperlink ref="BB14" r:id="rId7"/>
+    <hyperlink ref="BC14" r:id="rId8"/>
+    <hyperlink ref="BB16" r:id="rId9"/>
+    <hyperlink ref="BC16" r:id="rId10"/>
+    <hyperlink ref="BB17" r:id="rId11"/>
+    <hyperlink ref="BC17" r:id="rId12"/>
+    <hyperlink ref="BB18" r:id="rId13"/>
+    <hyperlink ref="BC18" r:id="rId14"/>
+    <hyperlink ref="BB19" r:id="rId15"/>
+    <hyperlink ref="BC19" r:id="rId16"/>
+    <hyperlink ref="BB20" r:id="rId17"/>
+    <hyperlink ref="BC20" r:id="rId18"/>
+    <hyperlink ref="BB21" r:id="rId19"/>
+    <hyperlink ref="BC21" r:id="rId20"/>
+    <hyperlink ref="BB22" r:id="rId21"/>
+    <hyperlink ref="BC22" r:id="rId22"/>
+    <hyperlink ref="BB23" r:id="rId23"/>
+    <hyperlink ref="BC23" r:id="rId24"/>
+    <hyperlink ref="BB24" r:id="rId25"/>
+    <hyperlink ref="BC24" r:id="rId26"/>
+    <hyperlink ref="BB25" r:id="rId27"/>
+    <hyperlink ref="BC25" r:id="rId28"/>
+    <hyperlink ref="BB26" r:id="rId29"/>
+    <hyperlink ref="BC26" r:id="rId30"/>
+    <hyperlink ref="BB27" r:id="rId31"/>
+    <hyperlink ref="BC27" r:id="rId32"/>
+    <hyperlink ref="BB28" r:id="rId33"/>
+    <hyperlink ref="BC28" r:id="rId34"/>
+    <hyperlink ref="BB29" r:id="rId35"/>
+    <hyperlink ref="BC29" r:id="rId36"/>
+    <hyperlink ref="BB30" r:id="rId37"/>
+    <hyperlink ref="BC30" r:id="rId38"/>
+    <hyperlink ref="BB31" r:id="rId39"/>
+    <hyperlink ref="BC31" r:id="rId40"/>
+    <hyperlink ref="BB32" r:id="rId41"/>
+    <hyperlink ref="BC32" r:id="rId42"/>
+    <hyperlink ref="BB33" r:id="rId43"/>
+    <hyperlink ref="BC33" r:id="rId44"/>
+    <hyperlink ref="BB34" r:id="rId45"/>
+    <hyperlink ref="BC34" r:id="rId46"/>
+    <hyperlink ref="BB35" r:id="rId47"/>
+    <hyperlink ref="BC35" r:id="rId48"/>
+    <hyperlink ref="BB36" r:id="rId49"/>
+    <hyperlink ref="BC36" r:id="rId50"/>
+    <hyperlink ref="BB37" r:id="rId51"/>
+    <hyperlink ref="BC37" r:id="rId52"/>
+    <hyperlink ref="BB38" r:id="rId53"/>
+    <hyperlink ref="BC38" r:id="rId54"/>
+    <hyperlink ref="BB39" r:id="rId55"/>
+    <hyperlink ref="BC39" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
   <si>
     <t>date</t>
   </si>
@@ -295,6 +295,15 @@
     <t>AAPL-FY-2022</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0000320193</t>
+  </si>
+  <si>
     <t>1985-09-30</t>
   </si>
   <si>
@@ -322,112 +331,19 @@
     <t>1993-09-30</t>
   </si>
   <si>
-    <t>1994-09-30</t>
-  </si>
-  <si>
-    <t>1995-09-29</t>
-  </si>
-  <si>
-    <t>1996-09-27</t>
-  </si>
-  <si>
-    <t>1997-09-26</t>
+    <t>1994-12-13</t>
+  </si>
+  <si>
+    <t>1995-12-19</t>
+  </si>
+  <si>
+    <t>1996-12-19</t>
+  </si>
+  <si>
+    <t>1997-12-05</t>
   </si>
   <si>
     <t>1998-09-25</t>
-  </si>
-  <si>
-    <t>1999-09-25</t>
-  </si>
-  <si>
-    <t>2000-09-30</t>
-  </si>
-  <si>
-    <t>2001-09-29</t>
-  </si>
-  <si>
-    <t>2002-09-28</t>
-  </si>
-  <si>
-    <t>2003-09-27</t>
-  </si>
-  <si>
-    <t>2004-09-25</t>
-  </si>
-  <si>
-    <t>2005-09-24</t>
-  </si>
-  <si>
-    <t>2006-09-30</t>
-  </si>
-  <si>
-    <t>2007-09-29</t>
-  </si>
-  <si>
-    <t>2008-09-27</t>
-  </si>
-  <si>
-    <t>2009-09-26</t>
-  </si>
-  <si>
-    <t>2010-09-25</t>
-  </si>
-  <si>
-    <t>2011-09-24</t>
-  </si>
-  <si>
-    <t>2012-09-29</t>
-  </si>
-  <si>
-    <t>2013-09-28</t>
-  </si>
-  <si>
-    <t>2014-09-27</t>
-  </si>
-  <si>
-    <t>2015-09-26</t>
-  </si>
-  <si>
-    <t>2016-09-24</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>2018-09-29</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2020-09-26</t>
-  </si>
-  <si>
-    <t>2021-09-25</t>
-  </si>
-  <si>
-    <t>2022-09-24</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>0000320193</t>
-  </si>
-  <si>
-    <t>1994-12-13</t>
-  </si>
-  <si>
-    <t>1995-12-19</t>
-  </si>
-  <si>
-    <t>1996-12-19</t>
-  </si>
-  <si>
-    <t>1997-12-05</t>
   </si>
   <si>
     <t>1999-12-22</t>
@@ -890,6 +806,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -953,11 +872,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,29 +1351,29 @@
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>31320</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J2">
         <v>337000000</v>
@@ -1592,29 +1512,29 @@
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>31685</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J3">
         <v>576200000</v>
@@ -1753,29 +1673,29 @@
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>32050</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J4">
         <v>565100000</v>
@@ -1914,29 +1834,29 @@
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
+      <c r="B5" s="2">
+        <v>32416</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J5">
         <v>545700000</v>
@@ -2075,29 +1995,29 @@
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
+      <c r="B6" s="2">
+        <v>32781</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J6">
         <v>438300000</v>
@@ -2236,29 +2156,29 @@
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>98</v>
+      <c r="B7" s="2">
+        <v>33146</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J7">
         <v>374700000</v>
@@ -2397,29 +2317,29 @@
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
+      <c r="B8" s="2">
+        <v>33511</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J8">
         <v>604100000</v>
@@ -2558,29 +2478,29 @@
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>100</v>
+      <c r="B9" s="2">
+        <v>33877</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J9">
         <v>498600000</v>
@@ -2719,29 +2639,29 @@
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
-        <v>101</v>
+      <c r="B10" s="2">
+        <v>34242</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J10">
         <v>676400000</v>
@@ -2880,29 +2800,29 @@
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>102</v>
+      <c r="B11" s="2">
+        <v>34607</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J11">
         <v>1203488000</v>
@@ -3036,40 +2956,40 @@
       <c r="BA11">
         <v>-607288000</v>
       </c>
-      <c r="BB11" s="2" t="s">
+      <c r="BB11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC11" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="B12" s="2">
+        <v>34971</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" t="s">
         <v>210</v>
-      </c>
-      <c r="I12" t="s">
-        <v>238</v>
       </c>
       <c r="J12">
         <v>756000000</v>
@@ -3203,40 +3123,40 @@
       <c r="BA12">
         <v>8000000</v>
       </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BB12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC12" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
-        <v>104</v>
+      <c r="B13" s="2">
+        <v>35335</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J13">
         <v>1552000000</v>
@@ -3370,40 +3290,40 @@
       <c r="BA13">
         <v>-417000000</v>
       </c>
-      <c r="BB13" s="2" t="s">
+      <c r="BB13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC13" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:55">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
-        <v>105</v>
+      <c r="B14" s="2">
+        <v>35699</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J14">
         <v>1230000000</v>
@@ -3537,40 +3457,40 @@
       <c r="BA14">
         <v>-254000000</v>
       </c>
-      <c r="BB14" s="2" t="s">
+      <c r="BB14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC14" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>106</v>
+      <c r="B15" s="2">
+        <v>36063</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J15">
         <v>1481000000</v>
@@ -3709,29 +3629,29 @@
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>107</v>
+      <c r="B16" s="2">
+        <v>36428</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J16">
         <v>1326000000</v>
@@ -3865,40 +3785,40 @@
       <c r="BA16">
         <v>-1026000000</v>
       </c>
-      <c r="BB16" s="2" t="s">
+      <c r="BB16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC16" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="BC16" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:55">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>108</v>
+      <c r="B17" s="2">
+        <v>36799</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J17">
         <v>1191000000</v>
@@ -4032,40 +3952,40 @@
       <c r="BA17">
         <v>-891000000</v>
       </c>
-      <c r="BB17" s="2" t="s">
+      <c r="BB17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC17" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="BC17" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:55">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>109</v>
+      <c r="B18" s="2">
+        <v>37163</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J18">
         <v>2310000000</v>
@@ -4199,40 +4119,40 @@
       <c r="BA18">
         <v>-1993000000</v>
       </c>
-      <c r="BB18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC18" s="2" t="s">
-        <v>245</v>
+      <c r="BB18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC18" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
-        <v>110</v>
+      <c r="B19" s="2">
+        <v>37527</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J19">
         <v>2252000000</v>
@@ -4366,40 +4286,40 @@
       <c r="BA19">
         <v>-1936000000</v>
       </c>
-      <c r="BB19" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>273</v>
+      <c r="BB19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:55">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>111</v>
+      <c r="B20" s="2">
+        <v>37891</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J20">
         <v>3396000000</v>
@@ -4533,40 +4453,40 @@
       <c r="BA20">
         <v>-3092000000</v>
       </c>
-      <c r="BB20" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="BC20" s="2" t="s">
-        <v>247</v>
+      <c r="BB20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC20" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:55">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>112</v>
+      <c r="B21" s="2">
+        <v>38255</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J21">
         <v>2969000000</v>
@@ -4700,40 +4620,40 @@
       <c r="BA21">
         <v>-2969000000</v>
       </c>
-      <c r="BB21" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>248</v>
+      <c r="BB21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC21" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:55">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
-        <v>113</v>
+      <c r="B22" s="2">
+        <v>38619</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J22">
         <v>3491000000</v>
@@ -4867,40 +4787,40 @@
       <c r="BA22">
         <v>-3491000000</v>
       </c>
-      <c r="BB22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="BC22" s="2" t="s">
-        <v>249</v>
+      <c r="BB22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC22" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:55">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
-        <v>114</v>
+      <c r="B23" s="2">
+        <v>38990</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J23">
         <v>6392000000</v>
@@ -5034,40 +4954,40 @@
       <c r="BA23">
         <v>-6392000000</v>
       </c>
-      <c r="BB23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC23" s="2" t="s">
-        <v>250</v>
+      <c r="BB23" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC23" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
-        <v>115</v>
+      <c r="B24" s="2">
+        <v>39354</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J24">
         <v>9352000000</v>
@@ -5201,40 +5121,40 @@
       <c r="BA24">
         <v>-9352000000</v>
       </c>
-      <c r="BB24" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BC24" s="2" t="s">
-        <v>274</v>
+      <c r="BB24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC24" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
-        <v>116</v>
+      <c r="B25" s="2">
+        <v>39718</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J25">
         <v>11875000000</v>
@@ -5368,40 +5288,40 @@
       <c r="BA25">
         <v>-11875000000</v>
       </c>
-      <c r="BB25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC25" s="2" t="s">
-        <v>275</v>
+      <c r="BB25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC25" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
-        <v>117</v>
+      <c r="B26" s="2">
+        <v>40082</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J26">
         <v>5263000000</v>
@@ -5535,40 +5455,40 @@
       <c r="BA26">
         <v>-5263000000</v>
       </c>
-      <c r="BB26" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC26" s="2" t="s">
-        <v>276</v>
+      <c r="BB26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC26" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:55">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
-        <v>118</v>
+      <c r="B27" s="2">
+        <v>40446</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J27">
         <v>11261000000</v>
@@ -5702,40 +5622,40 @@
       <c r="BA27">
         <v>-11261000000</v>
       </c>
-      <c r="BB27" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC27" s="2" t="s">
-        <v>277</v>
+      <c r="BB27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC27" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:55">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>119</v>
+      <c r="B28" s="2">
+        <v>40810</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J28">
         <v>9815000000</v>
@@ -5869,40 +5789,40 @@
       <c r="BA28">
         <v>-9815000000</v>
       </c>
-      <c r="BB28" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BC28" s="2" t="s">
-        <v>278</v>
+      <c r="BB28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BC28" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:55">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
-        <v>120</v>
+      <c r="B29" s="2">
+        <v>41181</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J29">
         <v>10746000000</v>
@@ -6036,40 +5956,40 @@
       <c r="BA29">
         <v>-10746000000</v>
       </c>
-      <c r="BB29" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BC29" s="2" t="s">
-        <v>279</v>
+      <c r="BB29" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC29" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:55">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" t="s">
-        <v>121</v>
+      <c r="B30" s="2">
+        <v>41545</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J30">
         <v>14259000000</v>
@@ -6203,40 +6123,40 @@
       <c r="BA30">
         <v>2701000000</v>
       </c>
-      <c r="BB30" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BC30" s="2" t="s">
-        <v>280</v>
+      <c r="BB30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC30" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
-        <v>122</v>
+      <c r="B31" s="2">
+        <v>41909</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J31">
         <v>13844000000</v>
@@ -6370,40 +6290,40 @@
       <c r="BA31">
         <v>21451000000</v>
       </c>
-      <c r="BB31" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="BC31" s="2" t="s">
-        <v>281</v>
+      <c r="BB31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC31" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:55">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
-        <v>123</v>
+      <c r="B32" s="2">
+        <v>42273</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J32">
         <v>21120000000</v>
@@ -6537,40 +6457,40 @@
       <c r="BA32">
         <v>43342000000</v>
       </c>
-      <c r="BB32" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="BC32" s="2" t="s">
-        <v>282</v>
+      <c r="BB32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BC32" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:55">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>124</v>
+      <c r="B33" s="2">
+        <v>42637</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J33">
         <v>20484000000</v>
@@ -6704,40 +6624,40 @@
       <c r="BA33">
         <v>66548000000</v>
       </c>
-      <c r="BB33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC33" s="2" t="s">
-        <v>283</v>
+      <c r="BB33" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC33" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:55">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
-        <v>125</v>
+      <c r="B34" s="2">
+        <v>43008</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J34">
         <v>20289000000</v>
@@ -6871,40 +6791,40 @@
       <c r="BA34">
         <v>95391000000</v>
       </c>
-      <c r="BB34" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC34" s="2" t="s">
-        <v>284</v>
+      <c r="BB34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC34" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:55">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
-        <v>126</v>
+      <c r="B35" s="2">
+        <v>43372</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J35">
         <v>25913000000</v>
@@ -7038,40 +6958,40 @@
       <c r="BA35">
         <v>88570000000</v>
       </c>
-      <c r="BB35" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BC35" s="2" t="s">
-        <v>285</v>
+      <c r="BB35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC35" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:55">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
-        <v>127</v>
+      <c r="B36" s="2">
+        <v>43736</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J36">
         <v>48844000000</v>
@@ -7205,40 +7125,40 @@
       <c r="BA36">
         <v>59203000000</v>
       </c>
-      <c r="BB36" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC36" s="2" t="s">
-        <v>286</v>
+      <c r="BB36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC36" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:55">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
-        <v>128</v>
+      <c r="B37" s="2">
+        <v>44100</v>
       </c>
       <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
         <v>131</v>
       </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" t="s">
-        <v>159</v>
-      </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J37">
         <v>38016000000</v>
@@ -7372,40 +7292,40 @@
       <c r="BA37">
         <v>74420000000</v>
       </c>
-      <c r="BB37" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC37" s="2" t="s">
-        <v>287</v>
+      <c r="BB37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC37" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:55">
       <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
-        <v>129</v>
+      <c r="B38" s="2">
+        <v>44464</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" t="s">
-        <v>160</v>
-      </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J38">
         <v>34940000000</v>
@@ -7539,40 +7459,40 @@
       <c r="BA38">
         <v>89779000000</v>
       </c>
-      <c r="BB38" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="BC38" s="2" t="s">
-        <v>288</v>
+      <c r="BB38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC38" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:55">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
-        <v>130</v>
+      <c r="B39" s="2">
+        <v>44828</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
         <v>133</v>
       </c>
-      <c r="F39" t="s">
-        <v>161</v>
-      </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J39">
         <v>23646000000</v>
@@ -7706,11 +7626,11 @@
       <c r="BA39">
         <v>96423000000</v>
       </c>
-      <c r="BB39" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC39" s="2" t="s">
-        <v>289</v>
+      <c r="BB39" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC39" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
   <si>
     <t>date</t>
   </si>
@@ -181,18 +181,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>AAPL-FY-1985</t>
-  </si>
-  <si>
-    <t>AAPL-FY-1986</t>
-  </si>
-  <si>
-    <t>AAPL-FY-1987</t>
-  </si>
-  <si>
-    <t>AAPL-FY-1988</t>
-  </si>
-  <si>
     <t>AAPL-FY-1989</t>
   </si>
   <si>
@@ -304,18 +292,6 @@
     <t>0000320193</t>
   </si>
   <si>
-    <t>1985-09-30</t>
-  </si>
-  <si>
-    <t>1986-09-30</t>
-  </si>
-  <si>
-    <t>1987-09-30</t>
-  </si>
-  <si>
-    <t>1988-09-30</t>
-  </si>
-  <si>
     <t>1989-09-30</t>
   </si>
   <si>
@@ -418,18 +394,6 @@
     <t>2022-10-28</t>
   </si>
   <si>
-    <t>1985-09-29 20:00:00</t>
-  </si>
-  <si>
-    <t>1986-09-29 20:00:00</t>
-  </si>
-  <si>
-    <t>1987-09-29 20:00:00</t>
-  </si>
-  <si>
-    <t>1988-09-29 20:00:00</t>
-  </si>
-  <si>
     <t>1989-09-29 20:00:00</t>
   </si>
   <si>
@@ -530,18 +494,6 @@
   </si>
   <si>
     <t>2022-10-27 18:01:14</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
   </si>
   <si>
     <t>1989</t>
@@ -1174,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC39"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1352,52 +1304,52 @@
         <v>55</v>
       </c>
       <c r="B2" s="2">
-        <v>31320</v>
+        <v>32781</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J2">
-        <v>337000000</v>
+        <v>438300000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>337000000</v>
+        <v>438300000</v>
       </c>
       <c r="M2">
-        <v>220200000</v>
+        <v>792800000</v>
       </c>
       <c r="N2">
-        <v>167000000</v>
+        <v>475400000</v>
       </c>
       <c r="O2">
-        <v>97900000</v>
+        <v>587900000</v>
       </c>
       <c r="P2">
-        <v>822100000</v>
+        <v>2294400000</v>
       </c>
       <c r="Q2">
-        <v>90400000</v>
+        <v>334200000</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1415,22 +1367,22 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>23700000</v>
+        <v>115300000</v>
       </c>
       <c r="X2">
-        <v>114100000</v>
+        <v>449500000</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>936200000</v>
+        <v>2743900000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>334200000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>56800000</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1439,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>295400000</v>
+        <v>504300000</v>
       </c>
       <c r="AF2">
-        <v>295400000</v>
+        <v>895300000</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1451,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>90300000</v>
+        <v>362900000</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>90300000</v>
+        <v>362900000</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1466,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>385700000</v>
+        <v>1258200000</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1475,37 +1427,37 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>320300000</v>
+        <v>1175900000</v>
       </c>
       <c r="AR2">
-        <v>-85200000</v>
+        <v>-309100000</v>
       </c>
       <c r="AS2">
-        <v>315400000</v>
+        <v>618900000</v>
       </c>
       <c r="AT2">
-        <v>550500000</v>
+        <v>1485700000</v>
       </c>
       <c r="AU2">
-        <v>550500000</v>
+        <v>1485700000</v>
       </c>
       <c r="AV2">
-        <v>936200000</v>
+        <v>2743900000</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>936200000</v>
+        <v>2743900000</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>56800000</v>
       </c>
       <c r="BA2">
-        <v>-337000000</v>
+        <v>-381500000</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1513,52 +1465,52 @@
         <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>31685</v>
+        <v>33146</v>
       </c>
       <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J3">
-        <v>576200000</v>
+        <v>374700000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>576200000</v>
+        <v>374700000</v>
       </c>
       <c r="M3">
-        <v>263100000</v>
+        <v>761900000</v>
       </c>
       <c r="N3">
-        <v>108700000</v>
+        <v>355500000</v>
       </c>
       <c r="O3">
-        <v>92900000</v>
+        <v>911200000</v>
       </c>
       <c r="P3">
-        <v>1040900000</v>
+        <v>2403300000</v>
       </c>
       <c r="Q3">
-        <v>107300000</v>
+        <v>398200000</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1576,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>11900000</v>
+        <v>174200000</v>
       </c>
       <c r="X3">
-        <v>119200000</v>
+        <v>572400000</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1160100000</v>
+        <v>2975700000</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>340600000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>122600000</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1600,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>328500000</v>
+        <v>563800000</v>
       </c>
       <c r="AF3">
-        <v>328500000</v>
+        <v>1027000000</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1612,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>137500000</v>
+        <v>501800000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AK3">
-        <v>137500000</v>
+        <v>501900000</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1627,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>466000000</v>
+        <v>1528900000</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1636,37 +1588,37 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>474300000</v>
+        <v>1312200000</v>
       </c>
       <c r="AR3">
-        <v>-114700000</v>
+        <v>-446700000</v>
       </c>
       <c r="AS3">
-        <v>334500000</v>
+        <v>581300000</v>
       </c>
       <c r="AT3">
-        <v>694100000</v>
+        <v>1446800000</v>
       </c>
       <c r="AU3">
-        <v>694100000</v>
+        <v>1446800000</v>
       </c>
       <c r="AV3">
-        <v>1160100000</v>
+        <v>2975700000</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>1160100000</v>
+        <v>2975700000</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>122600000</v>
       </c>
       <c r="BA3">
-        <v>-576200000</v>
+        <v>-252100000</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1674,52 +1626,52 @@
         <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>32050</v>
+        <v>33511</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J4">
-        <v>565100000</v>
+        <v>604100000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>565100000</v>
+        <v>604100000</v>
       </c>
       <c r="M4">
-        <v>405600000</v>
+        <v>907200000</v>
       </c>
       <c r="N4">
-        <v>225800000</v>
+        <v>671700000</v>
       </c>
       <c r="O4">
-        <v>110900000</v>
+        <v>680600000</v>
       </c>
       <c r="P4">
-        <v>1307400000</v>
+        <v>2863600000</v>
       </c>
       <c r="Q4">
-        <v>130400000</v>
+        <v>448000000</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1737,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>40100000</v>
+        <v>182000000</v>
       </c>
       <c r="X4">
-        <v>170500000</v>
+        <v>630000000</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1477900000</v>
+        <v>3493600000</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>357100000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>148600000</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1761,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>478700000</v>
+        <v>711400000</v>
       </c>
       <c r="AF4">
-        <v>478700000</v>
+        <v>1217100000</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1773,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>162800000</v>
+        <v>509900000</v>
       </c>
       <c r="AJ4">
         <v>-100000</v>
       </c>
       <c r="AK4">
-        <v>162700000</v>
+        <v>509800000</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1788,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>641400000</v>
+        <v>1726900000</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1797,37 +1749,37 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>573100000</v>
+        <v>1492000000</v>
       </c>
       <c r="AR4">
-        <v>-158700000</v>
+        <v>-588000000</v>
       </c>
       <c r="AS4">
-        <v>422100000</v>
+        <v>862700000</v>
       </c>
       <c r="AT4">
-        <v>836500000</v>
+        <v>1766700000</v>
       </c>
       <c r="AU4">
-        <v>836500000</v>
+        <v>1766700000</v>
       </c>
       <c r="AV4">
-        <v>1477900000</v>
+        <v>3493600000</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1477900000</v>
+        <v>3493600000</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>148600000</v>
       </c>
       <c r="BA4">
-        <v>-565100000</v>
+        <v>-455500000</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1835,52 +1787,52 @@
         <v>58</v>
       </c>
       <c r="B5" s="2">
-        <v>32416</v>
+        <v>33877</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J5">
-        <v>545700000</v>
+        <v>498600000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>545700000</v>
+        <v>498600000</v>
       </c>
       <c r="M5">
-        <v>638800000</v>
+        <v>1087200000</v>
       </c>
       <c r="N5">
-        <v>461500000</v>
+        <v>580100000</v>
       </c>
       <c r="O5">
-        <v>137000000</v>
+        <v>1392500000</v>
       </c>
       <c r="P5">
-        <v>1783000000</v>
+        <v>3558400000</v>
       </c>
       <c r="Q5">
-        <v>207400000</v>
+        <v>462200000</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1898,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>91700000</v>
+        <v>203100000</v>
       </c>
       <c r="X5">
-        <v>299100000</v>
+        <v>665300000</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>2082100000</v>
+        <v>4223700000</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>426900000</v>
       </c>
       <c r="AB5">
-        <v>127900000</v>
+        <v>184500000</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1922,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>699200000</v>
+        <v>814100000</v>
       </c>
       <c r="AF5">
-        <v>827100000</v>
+        <v>1425500000</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1934,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>251600000</v>
+        <v>610800000</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>251600000</v>
+        <v>610800000</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1949,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1078700000</v>
+        <v>2036300000</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1958,37 +1910,37 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>776500000</v>
+        <v>1904500000</v>
       </c>
       <c r="AR5">
-        <v>-213000000</v>
+        <v>-673400000</v>
       </c>
       <c r="AS5">
-        <v>439900000</v>
+        <v>956300000</v>
       </c>
       <c r="AT5">
-        <v>1003400000</v>
+        <v>2187400000</v>
       </c>
       <c r="AU5">
-        <v>1003400000</v>
+        <v>2187400000</v>
       </c>
       <c r="AV5">
-        <v>2082100000</v>
+        <v>4223700000</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>2082100000</v>
+        <v>4223700000</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>315000000</v>
+        <v>184500000</v>
       </c>
       <c r="BA5">
-        <v>-230700000</v>
+        <v>-314100000</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1996,52 +1948,52 @@
         <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>32781</v>
+        <v>34242</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J6">
-        <v>438300000</v>
+        <v>676400000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>438300000</v>
+        <v>676400000</v>
       </c>
       <c r="M6">
-        <v>792800000</v>
+        <v>1381900000</v>
       </c>
       <c r="N6">
-        <v>475400000</v>
+        <v>1506600000</v>
       </c>
       <c r="O6">
-        <v>587900000</v>
+        <v>773500000</v>
       </c>
       <c r="P6">
-        <v>2294400000</v>
+        <v>4338400000</v>
       </c>
       <c r="Q6">
-        <v>334200000</v>
+        <v>659500000</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2059,22 +2011,22 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>115300000</v>
+        <v>173500000</v>
       </c>
       <c r="X6">
-        <v>449500000</v>
+        <v>833000000</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2743900000</v>
+        <v>5171400000</v>
       </c>
       <c r="AA6">
-        <v>334200000</v>
+        <v>742600000</v>
       </c>
       <c r="AB6">
-        <v>56800000</v>
+        <v>823200000</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2083,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>504300000</v>
+        <v>949400000</v>
       </c>
       <c r="AF6">
-        <v>895300000</v>
+        <v>2515200000</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2095,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>362900000</v>
+        <v>629800000</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>362900000</v>
+        <v>629800000</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -2110,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1258200000</v>
+        <v>3145000000</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -2119,37 +2071,37 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1175900000</v>
+        <v>1842600000</v>
       </c>
       <c r="AR6">
-        <v>-309100000</v>
+        <v>-753100000</v>
       </c>
       <c r="AS6">
-        <v>618900000</v>
+        <v>936900000</v>
       </c>
       <c r="AT6">
-        <v>1485700000</v>
+        <v>2026400000</v>
       </c>
       <c r="AU6">
-        <v>1485700000</v>
+        <v>2026400000</v>
       </c>
       <c r="AV6">
-        <v>2743900000</v>
+        <v>5171400000</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>2743900000</v>
+        <v>5171400000</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>56800000</v>
+        <v>823200000</v>
       </c>
       <c r="BA6">
-        <v>-381500000</v>
+        <v>146800000</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2157,52 +2109,52 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>33146</v>
+        <v>34607</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J7">
-        <v>374700000</v>
+        <v>1203488000</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>54368000</v>
       </c>
       <c r="L7">
-        <v>374700000</v>
+        <v>1257856000</v>
       </c>
       <c r="M7">
-        <v>761900000</v>
+        <v>1581347000</v>
       </c>
       <c r="N7">
-        <v>355500000</v>
+        <v>1088434000</v>
       </c>
       <c r="O7">
-        <v>911200000</v>
+        <v>548815000</v>
       </c>
       <c r="P7">
-        <v>2403300000</v>
+        <v>4476452000</v>
       </c>
       <c r="Q7">
-        <v>398200000</v>
+        <v>667100000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2220,22 +2172,22 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>174200000</v>
+        <v>159194000</v>
       </c>
       <c r="X7">
-        <v>572400000</v>
+        <v>826294000</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2975700000</v>
+        <v>5302746000</v>
       </c>
       <c r="AA7">
-        <v>340600000</v>
+        <v>881717000</v>
       </c>
       <c r="AB7">
-        <v>122600000</v>
+        <v>292200000</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2244,25 +2196,25 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>563800000</v>
+        <v>770388000</v>
       </c>
       <c r="AF7">
-        <v>1027000000</v>
+        <v>1944305000</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>304000000</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>501800000</v>
+        <v>670668000</v>
       </c>
       <c r="AJ7">
-        <v>100000</v>
+        <v>472000</v>
       </c>
       <c r="AK7">
-        <v>501900000</v>
+        <v>975140000</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2271,46 +2223,52 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1528900000</v>
+        <v>2919445000</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>297929000</v>
       </c>
       <c r="AQ7">
-        <v>1312200000</v>
+        <v>2096206000</v>
       </c>
       <c r="AR7">
-        <v>-446700000</v>
+        <v>-785088000</v>
       </c>
       <c r="AS7">
-        <v>581300000</v>
+        <v>774254000</v>
       </c>
       <c r="AT7">
-        <v>1446800000</v>
+        <v>2383301000</v>
       </c>
       <c r="AU7">
-        <v>1446800000</v>
+        <v>2383301000</v>
       </c>
       <c r="AV7">
-        <v>2975700000</v>
+        <v>5302746000</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>2975700000</v>
+        <v>5302746000</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>122600000</v>
+        <v>596200000</v>
       </c>
       <c r="BA7">
-        <v>-252100000</v>
+        <v>-607288000</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2318,52 +2276,52 @@
         <v>61</v>
       </c>
       <c r="B8" s="2">
-        <v>33511</v>
+        <v>34971</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J8">
-        <v>604100000</v>
+        <v>756000000</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>196000000</v>
       </c>
       <c r="L8">
-        <v>604100000</v>
+        <v>952000000</v>
       </c>
       <c r="M8">
-        <v>907200000</v>
+        <v>1931000000</v>
       </c>
       <c r="N8">
-        <v>671700000</v>
+        <v>1775000000</v>
       </c>
       <c r="O8">
-        <v>680600000</v>
+        <v>566000000</v>
       </c>
       <c r="P8">
-        <v>2863600000</v>
+        <v>5224000000</v>
       </c>
       <c r="Q8">
-        <v>448000000</v>
+        <v>711000000</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2378,25 +2336,25 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>702000000</v>
       </c>
       <c r="W8">
-        <v>182000000</v>
+        <v>-406000000</v>
       </c>
       <c r="X8">
-        <v>630000000</v>
+        <v>1007000000</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>3493600000</v>
+        <v>6231000000</v>
       </c>
       <c r="AA8">
-        <v>357100000</v>
+        <v>1165000000</v>
       </c>
       <c r="AB8">
-        <v>148600000</v>
+        <v>461000000</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2405,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>711400000</v>
+        <v>699000000</v>
       </c>
       <c r="AF8">
-        <v>1217100000</v>
+        <v>2325000000</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>303000000</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>509900000</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-100000</v>
+        <v>702000000</v>
       </c>
       <c r="AK8">
-        <v>509800000</v>
+        <v>1005000000</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2432,46 +2390,52 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1726900000</v>
+        <v>3330000000</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>398000000</v>
       </c>
       <c r="AQ8">
-        <v>1492000000</v>
+        <v>2464000000</v>
       </c>
       <c r="AR8">
-        <v>-588000000</v>
+        <v>78000000</v>
       </c>
       <c r="AS8">
-        <v>862700000</v>
+        <v>-39000000</v>
       </c>
       <c r="AT8">
-        <v>1766700000</v>
+        <v>2901000000</v>
       </c>
       <c r="AU8">
-        <v>1766700000</v>
+        <v>2901000000</v>
       </c>
       <c r="AV8">
-        <v>3493600000</v>
+        <v>6231000000</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>3493600000</v>
+        <v>6231000000</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>196000000</v>
       </c>
       <c r="AZ8">
-        <v>148600000</v>
+        <v>764000000</v>
       </c>
       <c r="BA8">
-        <v>-455500000</v>
+        <v>8000000</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2479,52 +2443,52 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>33877</v>
+        <v>35335</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J9">
-        <v>498600000</v>
+        <v>1552000000</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>193000000</v>
       </c>
       <c r="L9">
-        <v>498600000</v>
+        <v>1745000000</v>
       </c>
       <c r="M9">
-        <v>1087200000</v>
+        <v>1496000000</v>
       </c>
       <c r="N9">
-        <v>580100000</v>
+        <v>662000000</v>
       </c>
       <c r="O9">
-        <v>1392500000</v>
+        <v>612000000</v>
       </c>
       <c r="P9">
-        <v>3558400000</v>
+        <v>4515000000</v>
       </c>
       <c r="Q9">
-        <v>462200000</v>
+        <v>598000000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2539,25 +2503,25 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>354000000</v>
       </c>
       <c r="W9">
-        <v>203100000</v>
+        <v>-103000000</v>
       </c>
       <c r="X9">
-        <v>665300000</v>
+        <v>849000000</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>4223700000</v>
+        <v>5364000000</v>
       </c>
       <c r="AA9">
-        <v>426900000</v>
+        <v>791000000</v>
       </c>
       <c r="AB9">
-        <v>184500000</v>
+        <v>186000000</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2566,25 +2530,25 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>814100000</v>
+        <v>1026000000</v>
       </c>
       <c r="AF9">
-        <v>1425500000</v>
+        <v>2003000000</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>949000000</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>610800000</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>354000000</v>
       </c>
       <c r="AK9">
-        <v>610800000</v>
+        <v>1303000000</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2593,46 +2557,52 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>2036300000</v>
+        <v>3306000000</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>439000000</v>
       </c>
       <c r="AQ9">
-        <v>1904500000</v>
+        <v>1634000000</v>
       </c>
       <c r="AR9">
-        <v>-673400000</v>
+        <v>-30000000</v>
       </c>
       <c r="AS9">
-        <v>956300000</v>
+        <v>15000000</v>
       </c>
       <c r="AT9">
-        <v>2187400000</v>
+        <v>2058000000</v>
       </c>
       <c r="AU9">
-        <v>2187400000</v>
+        <v>2058000000</v>
       </c>
       <c r="AV9">
-        <v>4223700000</v>
+        <v>5364000000</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>4223700000</v>
+        <v>5364000000</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>193000000</v>
       </c>
       <c r="AZ9">
-        <v>184500000</v>
+        <v>1135000000</v>
       </c>
       <c r="BA9">
-        <v>-314100000</v>
+        <v>-417000000</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2640,52 +2610,52 @@
         <v>63</v>
       </c>
       <c r="B10" s="2">
-        <v>34242</v>
+        <v>35699</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J10">
-        <v>676400000</v>
+        <v>1230000000</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>229000000</v>
       </c>
       <c r="L10">
-        <v>676400000</v>
+        <v>1459000000</v>
       </c>
       <c r="M10">
-        <v>1381900000</v>
+        <v>1035000000</v>
       </c>
       <c r="N10">
-        <v>1506600000</v>
+        <v>437000000</v>
       </c>
       <c r="O10">
-        <v>773500000</v>
+        <v>493000000</v>
       </c>
       <c r="P10">
-        <v>4338400000</v>
+        <v>3424000000</v>
       </c>
       <c r="Q10">
-        <v>659500000</v>
+        <v>486000000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2700,25 +2670,25 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>264000000</v>
       </c>
       <c r="W10">
-        <v>173500000</v>
+        <v>59000000</v>
       </c>
       <c r="X10">
-        <v>833000000</v>
+        <v>809000000</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>5171400000</v>
+        <v>4233000000</v>
       </c>
       <c r="AA10">
-        <v>742600000</v>
+        <v>685000000</v>
       </c>
       <c r="AB10">
-        <v>823200000</v>
+        <v>25000000</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2727,25 +2697,25 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>949400000</v>
+        <v>1108000000</v>
       </c>
       <c r="AF10">
-        <v>2515200000</v>
+        <v>1818000000</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>951000000</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>629800000</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>264000000</v>
       </c>
       <c r="AK10">
-        <v>629800000</v>
+        <v>1215000000</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2754,46 +2724,52 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>3145000000</v>
+        <v>3033000000</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>498000000</v>
       </c>
       <c r="AQ10">
-        <v>1842600000</v>
+        <v>589000000</v>
       </c>
       <c r="AR10">
-        <v>-753100000</v>
+        <v>-74000000</v>
       </c>
       <c r="AS10">
-        <v>936900000</v>
+        <v>187000000</v>
       </c>
       <c r="AT10">
-        <v>2026400000</v>
+        <v>1200000000</v>
       </c>
       <c r="AU10">
-        <v>2026400000</v>
+        <v>1200000000</v>
       </c>
       <c r="AV10">
-        <v>5171400000</v>
+        <v>4233000000</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>5171400000</v>
+        <v>4233000000</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>229000000</v>
       </c>
       <c r="AZ10">
-        <v>823200000</v>
+        <v>976000000</v>
       </c>
       <c r="BA10">
-        <v>146800000</v>
+        <v>-254000000</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2801,52 +2777,52 @@
         <v>64</v>
       </c>
       <c r="B11" s="2">
-        <v>34607</v>
+        <v>36063</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J11">
-        <v>1203488000</v>
+        <v>1481000000</v>
       </c>
       <c r="K11">
-        <v>54368000</v>
+        <v>819000000</v>
       </c>
       <c r="L11">
-        <v>1257856000</v>
+        <v>2300000000</v>
       </c>
       <c r="M11">
-        <v>1581347000</v>
+        <v>955000000</v>
       </c>
       <c r="N11">
-        <v>1088434000</v>
+        <v>78000000</v>
       </c>
       <c r="O11">
-        <v>548815000</v>
+        <v>365000000</v>
       </c>
       <c r="P11">
-        <v>4476452000</v>
+        <v>3698000000</v>
       </c>
       <c r="Q11">
-        <v>667100000</v>
+        <v>348000000</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2861,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>173000000</v>
       </c>
       <c r="W11">
-        <v>159194000</v>
+        <v>70000000</v>
       </c>
       <c r="X11">
-        <v>826294000</v>
+        <v>591000000</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>5302746000</v>
+        <v>4289000000</v>
       </c>
       <c r="AA11">
-        <v>881717000</v>
+        <v>719000000</v>
       </c>
       <c r="AB11">
-        <v>292200000</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2888,25 +2864,25 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>770388000</v>
+        <v>801000000</v>
       </c>
       <c r="AF11">
-        <v>1944305000</v>
+        <v>1520000000</v>
       </c>
       <c r="AG11">
-        <v>304000000</v>
+        <v>954000000</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>670668000</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>472000</v>
+        <v>173000000</v>
       </c>
       <c r="AK11">
-        <v>975140000</v>
+        <v>1127000000</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2915,52 +2891,46 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>2919445000</v>
+        <v>2647000000</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>297929000</v>
+        <v>633000000</v>
       </c>
       <c r="AQ11">
-        <v>2096206000</v>
+        <v>898000000</v>
       </c>
       <c r="AR11">
-        <v>-785088000</v>
+        <v>-39000000</v>
       </c>
       <c r="AS11">
-        <v>774254000</v>
+        <v>150000000</v>
       </c>
       <c r="AT11">
-        <v>2383301000</v>
+        <v>1642000000</v>
       </c>
       <c r="AU11">
-        <v>2383301000</v>
+        <v>1642000000</v>
       </c>
       <c r="AV11">
-        <v>5302746000</v>
+        <v>4289000000</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>5302746000</v>
+        <v>4289000000</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>819000000</v>
       </c>
       <c r="AZ11">
-        <v>596200000</v>
+        <v>954000000</v>
       </c>
       <c r="BA11">
-        <v>-607288000</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>239</v>
+        <v>-527000000</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2968,52 +2938,52 @@
         <v>65</v>
       </c>
       <c r="B12" s="2">
-        <v>34971</v>
+        <v>36428</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J12">
-        <v>756000000</v>
+        <v>1326000000</v>
       </c>
       <c r="K12">
-        <v>196000000</v>
+        <v>1900000000</v>
       </c>
       <c r="L12">
-        <v>952000000</v>
+        <v>3226000000</v>
       </c>
       <c r="M12">
-        <v>1931000000</v>
+        <v>681000000</v>
       </c>
       <c r="N12">
-        <v>1775000000</v>
+        <v>20000000</v>
       </c>
       <c r="O12">
-        <v>566000000</v>
+        <v>358000000</v>
       </c>
       <c r="P12">
-        <v>5224000000</v>
+        <v>4285000000</v>
       </c>
       <c r="Q12">
-        <v>711000000</v>
+        <v>318000000</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -3025,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>339000000</v>
       </c>
       <c r="V12">
-        <v>702000000</v>
+        <v>208000000</v>
       </c>
       <c r="W12">
-        <v>-406000000</v>
+        <v>11000000</v>
       </c>
       <c r="X12">
-        <v>1007000000</v>
+        <v>876000000</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>6231000000</v>
+        <v>5161000000</v>
       </c>
       <c r="AA12">
-        <v>1165000000</v>
+        <v>812000000</v>
       </c>
       <c r="AB12">
-        <v>461000000</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -3055,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>699000000</v>
+        <v>737000000</v>
       </c>
       <c r="AF12">
-        <v>2325000000</v>
+        <v>1549000000</v>
       </c>
       <c r="AG12">
-        <v>303000000</v>
+        <v>300000000</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3070,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>702000000</v>
+        <v>208000000</v>
       </c>
       <c r="AK12">
-        <v>1005000000</v>
+        <v>508000000</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -3082,52 +3052,52 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3330000000</v>
+        <v>2057000000</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>398000000</v>
+        <v>1349000000</v>
       </c>
       <c r="AQ12">
-        <v>2464000000</v>
+        <v>1499000000</v>
       </c>
       <c r="AR12">
-        <v>78000000</v>
+        <v>106000000</v>
       </c>
       <c r="AS12">
-        <v>-39000000</v>
+        <v>150000000</v>
       </c>
       <c r="AT12">
-        <v>2901000000</v>
+        <v>3104000000</v>
       </c>
       <c r="AU12">
-        <v>2901000000</v>
+        <v>3104000000</v>
       </c>
       <c r="AV12">
-        <v>6231000000</v>
+        <v>5161000000</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>6231000000</v>
+        <v>5161000000</v>
       </c>
       <c r="AY12">
-        <v>196000000</v>
+        <v>2239000000</v>
       </c>
       <c r="AZ12">
-        <v>764000000</v>
+        <v>300000000</v>
       </c>
       <c r="BA12">
-        <v>8000000</v>
+        <v>-1026000000</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -3135,52 +3105,52 @@
         <v>66</v>
       </c>
       <c r="B13" s="2">
-        <v>35335</v>
+        <v>36799</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J13">
-        <v>1552000000</v>
+        <v>1191000000</v>
       </c>
       <c r="K13">
-        <v>193000000</v>
+        <v>2836000000</v>
       </c>
       <c r="L13">
-        <v>1745000000</v>
+        <v>4027000000</v>
       </c>
       <c r="M13">
-        <v>1496000000</v>
+        <v>953000000</v>
       </c>
       <c r="N13">
-        <v>662000000</v>
+        <v>33000000</v>
       </c>
       <c r="O13">
-        <v>612000000</v>
+        <v>414000000</v>
       </c>
       <c r="P13">
-        <v>4515000000</v>
+        <v>5427000000</v>
       </c>
       <c r="Q13">
-        <v>598000000</v>
+        <v>313000000</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3195,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>354000000</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-103000000</v>
+        <v>1063000000</v>
       </c>
       <c r="X13">
-        <v>849000000</v>
+        <v>1376000000</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>5364000000</v>
+        <v>6803000000</v>
       </c>
       <c r="AA13">
-        <v>791000000</v>
+        <v>1157000000</v>
       </c>
       <c r="AB13">
-        <v>186000000</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3222,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1026000000</v>
+        <v>776000000</v>
       </c>
       <c r="AF13">
-        <v>2003000000</v>
+        <v>1933000000</v>
       </c>
       <c r="AG13">
-        <v>949000000</v>
+        <v>300000000</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>463000000</v>
       </c>
       <c r="AJ13">
-        <v>354000000</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>1303000000</v>
+        <v>763000000</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3249,52 +3219,52 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>3306000000</v>
+        <v>2696000000</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>439000000</v>
+        <v>1502000000</v>
       </c>
       <c r="AQ13">
-        <v>1634000000</v>
+        <v>2285000000</v>
       </c>
       <c r="AR13">
-        <v>-30000000</v>
+        <v>-387000000</v>
       </c>
       <c r="AS13">
-        <v>15000000</v>
+        <v>707000000</v>
       </c>
       <c r="AT13">
-        <v>2058000000</v>
+        <v>4107000000</v>
       </c>
       <c r="AU13">
-        <v>2058000000</v>
+        <v>4107000000</v>
       </c>
       <c r="AV13">
-        <v>5364000000</v>
+        <v>6803000000</v>
       </c>
       <c r="AW13">
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>5364000000</v>
+        <v>6803000000</v>
       </c>
       <c r="AY13">
-        <v>193000000</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
-        <v>1135000000</v>
+        <v>300000000</v>
       </c>
       <c r="BA13">
-        <v>-417000000</v>
+        <v>-891000000</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3302,85 +3272,85 @@
         <v>67</v>
       </c>
       <c r="B14" s="2">
-        <v>35699</v>
+        <v>37163</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J14">
-        <v>1230000000</v>
+        <v>2310000000</v>
       </c>
       <c r="K14">
-        <v>229000000</v>
+        <v>2026000000</v>
       </c>
       <c r="L14">
-        <v>1459000000</v>
+        <v>4336000000</v>
       </c>
       <c r="M14">
-        <v>1035000000</v>
+        <v>466000000</v>
       </c>
       <c r="N14">
-        <v>437000000</v>
+        <v>11000000</v>
       </c>
       <c r="O14">
-        <v>493000000</v>
+        <v>330000000</v>
       </c>
       <c r="P14">
-        <v>3424000000</v>
+        <v>5143000000</v>
       </c>
       <c r="Q14">
-        <v>486000000</v>
+        <v>564000000</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>66000000</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>128000000</v>
       </c>
       <c r="V14">
-        <v>264000000</v>
+        <v>266000000</v>
       </c>
       <c r="W14">
-        <v>59000000</v>
+        <v>-156000000</v>
       </c>
       <c r="X14">
-        <v>809000000</v>
+        <v>878000000</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>4233000000</v>
+        <v>6021000000</v>
       </c>
       <c r="AA14">
-        <v>685000000</v>
+        <v>801000000</v>
       </c>
       <c r="AB14">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3389,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>1108000000</v>
+        <v>717000000</v>
       </c>
       <c r="AF14">
-        <v>1818000000</v>
+        <v>1518000000</v>
       </c>
       <c r="AG14">
-        <v>951000000</v>
+        <v>317000000</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -3404,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>264000000</v>
+        <v>266000000</v>
       </c>
       <c r="AK14">
-        <v>1215000000</v>
+        <v>583000000</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3416,52 +3386,52 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>3033000000</v>
+        <v>2101000000</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>498000000</v>
+        <v>1693000000</v>
       </c>
       <c r="AQ14">
-        <v>589000000</v>
+        <v>2260000000</v>
       </c>
       <c r="AR14">
-        <v>-74000000</v>
+        <v>-33000000</v>
       </c>
       <c r="AS14">
-        <v>187000000</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1200000000</v>
+        <v>3920000000</v>
       </c>
       <c r="AU14">
-        <v>1200000000</v>
+        <v>3920000000</v>
       </c>
       <c r="AV14">
-        <v>4233000000</v>
+        <v>6021000000</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>4233000000</v>
+        <v>6021000000</v>
       </c>
       <c r="AY14">
-        <v>229000000</v>
+        <v>2154000000</v>
       </c>
       <c r="AZ14">
-        <v>976000000</v>
+        <v>317000000</v>
       </c>
       <c r="BA14">
-        <v>-254000000</v>
+        <v>-1993000000</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3469,82 +3439,82 @@
         <v>68</v>
       </c>
       <c r="B15" s="2">
-        <v>36063</v>
+        <v>37527</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J15">
-        <v>1481000000</v>
+        <v>2252000000</v>
       </c>
       <c r="K15">
-        <v>819000000</v>
+        <v>2085000000</v>
       </c>
       <c r="L15">
-        <v>2300000000</v>
+        <v>4337000000</v>
       </c>
       <c r="M15">
-        <v>955000000</v>
+        <v>565000000</v>
       </c>
       <c r="N15">
-        <v>78000000</v>
+        <v>45000000</v>
       </c>
       <c r="O15">
-        <v>365000000</v>
+        <v>441000000</v>
       </c>
       <c r="P15">
-        <v>3698000000</v>
+        <v>5388000000</v>
       </c>
       <c r="Q15">
-        <v>348000000</v>
+        <v>621000000</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>85000000</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>34000000</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>119000000</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>39000000</v>
       </c>
       <c r="V15">
-        <v>173000000</v>
+        <v>229000000</v>
       </c>
       <c r="W15">
-        <v>70000000</v>
+        <v>-98000000</v>
       </c>
       <c r="X15">
-        <v>591000000</v>
+        <v>910000000</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>4289000000</v>
+        <v>6298000000</v>
       </c>
       <c r="AA15">
-        <v>719000000</v>
+        <v>911000000</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3556,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>801000000</v>
+        <v>747000000</v>
       </c>
       <c r="AF15">
-        <v>1520000000</v>
+        <v>1658000000</v>
       </c>
       <c r="AG15">
-        <v>954000000</v>
+        <v>316000000</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -3571,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>173000000</v>
+        <v>229000000</v>
       </c>
       <c r="AK15">
-        <v>1127000000</v>
+        <v>545000000</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -3583,46 +3553,52 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>2647000000</v>
+        <v>2203000000</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>633000000</v>
+        <v>1826000000</v>
       </c>
       <c r="AQ15">
-        <v>898000000</v>
+        <v>2325000000</v>
       </c>
       <c r="AR15">
-        <v>-39000000</v>
+        <v>-56000000</v>
       </c>
       <c r="AS15">
-        <v>150000000</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1642000000</v>
+        <v>4095000000</v>
       </c>
       <c r="AU15">
-        <v>1642000000</v>
+        <v>4095000000</v>
       </c>
       <c r="AV15">
-        <v>4289000000</v>
+        <v>6298000000</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>4289000000</v>
+        <v>6298000000</v>
       </c>
       <c r="AY15">
-        <v>819000000</v>
+        <v>2124000000</v>
       </c>
       <c r="AZ15">
-        <v>954000000</v>
+        <v>316000000</v>
       </c>
       <c r="BA15">
-        <v>-527000000</v>
+        <v>-1936000000</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3630,112 +3606,112 @@
         <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>36428</v>
+        <v>37891</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J16">
-        <v>1326000000</v>
+        <v>3396000000</v>
       </c>
       <c r="K16">
-        <v>1900000000</v>
+        <v>1170000000</v>
       </c>
       <c r="L16">
-        <v>3226000000</v>
+        <v>4566000000</v>
       </c>
       <c r="M16">
-        <v>681000000</v>
+        <v>950000000</v>
       </c>
       <c r="N16">
-        <v>20000000</v>
+        <v>56000000</v>
       </c>
       <c r="O16">
-        <v>358000000</v>
+        <v>315000000</v>
       </c>
       <c r="P16">
-        <v>4285000000</v>
+        <v>5887000000</v>
       </c>
       <c r="Q16">
-        <v>318000000</v>
+        <v>669000000</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>85000000</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>109000000</v>
       </c>
       <c r="U16">
-        <v>339000000</v>
+        <v>5000000</v>
       </c>
       <c r="V16">
-        <v>208000000</v>
+        <v>60000000</v>
       </c>
       <c r="W16">
-        <v>11000000</v>
+        <v>85000000</v>
       </c>
       <c r="X16">
-        <v>876000000</v>
+        <v>928000000</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>5161000000</v>
+        <v>6815000000</v>
       </c>
       <c r="AA16">
-        <v>812000000</v>
+        <v>1154000000</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>304000000</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>368000000</v>
       </c>
       <c r="AE16">
-        <v>737000000</v>
+        <v>531000000</v>
       </c>
       <c r="AF16">
-        <v>1549000000</v>
+        <v>2357000000</v>
       </c>
       <c r="AG16">
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>235000000</v>
       </c>
       <c r="AJ16">
-        <v>208000000</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>508000000</v>
+        <v>235000000</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3744,52 +3720,52 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>2057000000</v>
+        <v>2592000000</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1349000000</v>
+        <v>1926000000</v>
       </c>
       <c r="AQ16">
-        <v>1499000000</v>
+        <v>2394000000</v>
       </c>
       <c r="AR16">
-        <v>106000000</v>
+        <v>-35000000</v>
       </c>
       <c r="AS16">
-        <v>150000000</v>
+        <v>-62000000</v>
       </c>
       <c r="AT16">
-        <v>3104000000</v>
+        <v>4223000000</v>
       </c>
       <c r="AU16">
-        <v>3104000000</v>
+        <v>4223000000</v>
       </c>
       <c r="AV16">
-        <v>5161000000</v>
+        <v>6815000000</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>5161000000</v>
+        <v>6815000000</v>
       </c>
       <c r="AY16">
-        <v>2239000000</v>
+        <v>1175000000</v>
       </c>
       <c r="AZ16">
-        <v>300000000</v>
+        <v>304000000</v>
       </c>
       <c r="BA16">
-        <v>-1026000000</v>
+        <v>-3092000000</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3797,82 +3773,82 @@
         <v>70</v>
       </c>
       <c r="B17" s="2">
-        <v>36799</v>
+        <v>38255</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J17">
-        <v>1191000000</v>
+        <v>2969000000</v>
       </c>
       <c r="K17">
-        <v>2836000000</v>
+        <v>2495000000</v>
       </c>
       <c r="L17">
-        <v>4027000000</v>
+        <v>5464000000</v>
       </c>
       <c r="M17">
-        <v>953000000</v>
+        <v>1050000000</v>
       </c>
       <c r="N17">
-        <v>33000000</v>
+        <v>101000000</v>
       </c>
       <c r="O17">
-        <v>414000000</v>
+        <v>440000000</v>
       </c>
       <c r="P17">
-        <v>5427000000</v>
+        <v>7055000000</v>
       </c>
       <c r="Q17">
-        <v>313000000</v>
+        <v>707000000</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>80000000</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>97000000</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>86000000</v>
       </c>
       <c r="W17">
-        <v>1063000000</v>
+        <v>105000000</v>
       </c>
       <c r="X17">
-        <v>1376000000</v>
+        <v>995000000</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>6803000000</v>
+        <v>8050000000</v>
       </c>
       <c r="AA17">
-        <v>1157000000</v>
+        <v>1451000000</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3881,28 +3857,28 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>544000000</v>
       </c>
       <c r="AE17">
-        <v>776000000</v>
+        <v>685000000</v>
       </c>
       <c r="AF17">
-        <v>1933000000</v>
+        <v>2680000000</v>
       </c>
       <c r="AG17">
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>463000000</v>
+        <v>294000000</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>763000000</v>
+        <v>294000000</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3911,52 +3887,52 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>2696000000</v>
+        <v>2974000000</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1502000000</v>
+        <v>2514000000</v>
       </c>
       <c r="AQ17">
-        <v>2285000000</v>
+        <v>2670000000</v>
       </c>
       <c r="AR17">
-        <v>-387000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AS17">
-        <v>707000000</v>
+        <v>-93000000</v>
       </c>
       <c r="AT17">
-        <v>4107000000</v>
+        <v>5076000000</v>
       </c>
       <c r="AU17">
-        <v>4107000000</v>
+        <v>5076000000</v>
       </c>
       <c r="AV17">
-        <v>6803000000</v>
+        <v>8050000000</v>
       </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>6803000000</v>
+        <v>8050000000</v>
       </c>
       <c r="AY17">
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="BA17">
-        <v>-891000000</v>
+        <v>-2969000000</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3964,82 +3940,82 @@
         <v>71</v>
       </c>
       <c r="B18" s="2">
-        <v>37163</v>
+        <v>38619</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J18">
-        <v>2310000000</v>
+        <v>3491000000</v>
       </c>
       <c r="K18">
-        <v>2026000000</v>
+        <v>4770000000</v>
       </c>
       <c r="L18">
-        <v>4336000000</v>
+        <v>8261000000</v>
       </c>
       <c r="M18">
-        <v>466000000</v>
+        <v>1312000000</v>
       </c>
       <c r="N18">
-        <v>11000000</v>
+        <v>165000000</v>
       </c>
       <c r="O18">
-        <v>330000000</v>
+        <v>562000000</v>
       </c>
       <c r="P18">
-        <v>5143000000</v>
+        <v>10300000000</v>
       </c>
       <c r="Q18">
-        <v>564000000</v>
+        <v>817000000</v>
       </c>
       <c r="R18">
-        <v>66000000</v>
+        <v>69000000</v>
       </c>
       <c r="S18">
-        <v>10000000</v>
+        <v>27000000</v>
       </c>
       <c r="T18">
-        <v>76000000</v>
+        <v>96000000</v>
       </c>
       <c r="U18">
-        <v>128000000</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>266000000</v>
+        <v>183000000</v>
       </c>
       <c r="W18">
-        <v>-156000000</v>
+        <v>155000000</v>
       </c>
       <c r="X18">
-        <v>878000000</v>
+        <v>1251000000</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6021000000</v>
+        <v>11551000000</v>
       </c>
       <c r="AA18">
-        <v>801000000</v>
+        <v>1779000000</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -4048,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>501000000</v>
       </c>
       <c r="AE18">
-        <v>717000000</v>
+        <v>1204000000</v>
       </c>
       <c r="AF18">
-        <v>1518000000</v>
+        <v>3484000000</v>
       </c>
       <c r="AG18">
-        <v>317000000</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>281000000</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>308000000</v>
       </c>
       <c r="AJ18">
-        <v>266000000</v>
+        <v>12000000</v>
       </c>
       <c r="AK18">
-        <v>583000000</v>
+        <v>601000000</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -4078,52 +4054,52 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>2101000000</v>
+        <v>4085000000</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1693000000</v>
+        <v>3521000000</v>
       </c>
       <c r="AQ18">
-        <v>2260000000</v>
+        <v>4005000000</v>
       </c>
       <c r="AR18">
-        <v>-33000000</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>-60000000</v>
       </c>
       <c r="AT18">
-        <v>3920000000</v>
+        <v>7466000000</v>
       </c>
       <c r="AU18">
-        <v>3920000000</v>
+        <v>7466000000</v>
       </c>
       <c r="AV18">
-        <v>6021000000</v>
+        <v>11551000000</v>
       </c>
       <c r="AW18">
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>6021000000</v>
+        <v>11551000000</v>
       </c>
       <c r="AY18">
-        <v>2154000000</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>317000000</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>-1993000000</v>
+        <v>-3491000000</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -4131,112 +4107,112 @@
         <v>72</v>
       </c>
       <c r="B19" s="2">
-        <v>37527</v>
+        <v>38990</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J19">
-        <v>2252000000</v>
+        <v>6392000000</v>
       </c>
       <c r="K19">
-        <v>2085000000</v>
+        <v>3718000000</v>
       </c>
       <c r="L19">
-        <v>4337000000</v>
+        <v>10110000000</v>
       </c>
       <c r="M19">
-        <v>565000000</v>
+        <v>2845000000</v>
       </c>
       <c r="N19">
-        <v>45000000</v>
+        <v>270000000</v>
       </c>
       <c r="O19">
-        <v>441000000</v>
+        <v>1284000000</v>
       </c>
       <c r="P19">
-        <v>5388000000</v>
+        <v>14509000000</v>
       </c>
       <c r="Q19">
-        <v>621000000</v>
+        <v>1281000000</v>
       </c>
       <c r="R19">
-        <v>85000000</v>
+        <v>38000000</v>
       </c>
       <c r="S19">
-        <v>34000000</v>
+        <v>139000000</v>
       </c>
       <c r="T19">
-        <v>119000000</v>
+        <v>177000000</v>
       </c>
       <c r="U19">
-        <v>39000000</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>229000000</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>-98000000</v>
+        <v>1238000000</v>
       </c>
       <c r="X19">
-        <v>910000000</v>
+        <v>2696000000</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>6298000000</v>
+        <v>17205000000</v>
       </c>
       <c r="AA19">
-        <v>911000000</v>
+        <v>3390000000</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>388000000</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>746000000</v>
       </c>
       <c r="AE19">
-        <v>747000000</v>
+        <v>1947000000</v>
       </c>
       <c r="AF19">
-        <v>1658000000</v>
+        <v>6471000000</v>
       </c>
       <c r="AG19">
-        <v>316000000</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>355000000</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>381000000</v>
       </c>
       <c r="AJ19">
-        <v>229000000</v>
+        <v>14000000</v>
       </c>
       <c r="AK19">
-        <v>545000000</v>
+        <v>750000000</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -4245,52 +4221,52 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>2203000000</v>
+        <v>7221000000</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1826000000</v>
+        <v>4355000000</v>
       </c>
       <c r="AQ19">
-        <v>2325000000</v>
+        <v>5607000000</v>
       </c>
       <c r="AR19">
-        <v>-56000000</v>
+        <v>22000000</v>
       </c>
       <c r="AS19">
         <v>0</v>
       </c>
       <c r="AT19">
-        <v>4095000000</v>
+        <v>9984000000</v>
       </c>
       <c r="AU19">
-        <v>4095000000</v>
+        <v>9984000000</v>
       </c>
       <c r="AV19">
-        <v>6298000000</v>
+        <v>17205000000</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>6298000000</v>
+        <v>17205000000</v>
       </c>
       <c r="AY19">
-        <v>2124000000</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
-        <v>316000000</v>
+        <v>0</v>
       </c>
       <c r="BA19">
-        <v>-1936000000</v>
+        <v>-6392000000</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4298,112 +4274,112 @@
         <v>73</v>
       </c>
       <c r="B20" s="2">
-        <v>37891</v>
+        <v>39354</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J20">
-        <v>3396000000</v>
+        <v>9352000000</v>
       </c>
       <c r="K20">
-        <v>1170000000</v>
+        <v>6034000000</v>
       </c>
       <c r="L20">
-        <v>4566000000</v>
+        <v>15386000000</v>
       </c>
       <c r="M20">
-        <v>950000000</v>
+        <v>4029000000</v>
       </c>
       <c r="N20">
-        <v>56000000</v>
+        <v>346000000</v>
       </c>
       <c r="O20">
-        <v>315000000</v>
+        <v>2195000000</v>
       </c>
       <c r="P20">
-        <v>5887000000</v>
+        <v>21956000000</v>
       </c>
       <c r="Q20">
-        <v>669000000</v>
+        <v>1832000000</v>
       </c>
       <c r="R20">
-        <v>85000000</v>
+        <v>38000000</v>
       </c>
       <c r="S20">
-        <v>24000000</v>
+        <v>299000000</v>
       </c>
       <c r="T20">
-        <v>109000000</v>
+        <v>337000000</v>
       </c>
       <c r="U20">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>60000000</v>
+        <v>88000000</v>
       </c>
       <c r="W20">
-        <v>85000000</v>
+        <v>1134000000</v>
       </c>
       <c r="X20">
-        <v>928000000</v>
+        <v>3391000000</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>6815000000</v>
+        <v>25347000000</v>
       </c>
       <c r="AA20">
-        <v>1154000000</v>
+        <v>4970000000</v>
       </c>
       <c r="AB20">
-        <v>304000000</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>488000000</v>
       </c>
       <c r="AD20">
-        <v>368000000</v>
+        <v>1410000000</v>
       </c>
       <c r="AE20">
-        <v>531000000</v>
+        <v>2431000000</v>
       </c>
       <c r="AF20">
-        <v>2357000000</v>
+        <v>9299000000</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>830000000</v>
       </c>
       <c r="AI20">
-        <v>235000000</v>
+        <v>619000000</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>67000000</v>
       </c>
       <c r="AK20">
-        <v>235000000</v>
+        <v>1516000000</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -4412,52 +4388,52 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>2592000000</v>
+        <v>10815000000</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1926000000</v>
+        <v>5368000000</v>
       </c>
       <c r="AQ20">
-        <v>2394000000</v>
+        <v>9101000000</v>
       </c>
       <c r="AR20">
-        <v>-35000000</v>
+        <v>63000000</v>
       </c>
       <c r="AS20">
-        <v>-62000000</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>4223000000</v>
+        <v>14532000000</v>
       </c>
       <c r="AU20">
-        <v>4223000000</v>
+        <v>14532000000</v>
       </c>
       <c r="AV20">
-        <v>6815000000</v>
+        <v>25347000000</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>6815000000</v>
+        <v>25347000000</v>
       </c>
       <c r="AY20">
-        <v>1175000000</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
-        <v>304000000</v>
+        <v>0</v>
       </c>
       <c r="BA20">
-        <v>-3092000000</v>
+        <v>-9352000000</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:55">
@@ -4465,112 +4441,112 @@
         <v>74</v>
       </c>
       <c r="B21" s="2">
-        <v>38255</v>
+        <v>39718</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J21">
-        <v>2969000000</v>
+        <v>11875000000</v>
       </c>
       <c r="K21">
-        <v>2495000000</v>
+        <v>12615000000</v>
       </c>
       <c r="L21">
-        <v>5464000000</v>
+        <v>24490000000</v>
       </c>
       <c r="M21">
-        <v>1050000000</v>
+        <v>4704000000</v>
       </c>
       <c r="N21">
-        <v>101000000</v>
+        <v>509000000</v>
       </c>
       <c r="O21">
-        <v>440000000</v>
+        <v>4987000000</v>
       </c>
       <c r="P21">
-        <v>7055000000</v>
+        <v>34690000000</v>
       </c>
       <c r="Q21">
-        <v>707000000</v>
+        <v>2455000000</v>
       </c>
       <c r="R21">
-        <v>80000000</v>
+        <v>207000000</v>
       </c>
       <c r="S21">
-        <v>17000000</v>
+        <v>285000000</v>
       </c>
       <c r="T21">
-        <v>97000000</v>
+        <v>492000000</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>86000000</v>
+        <v>138000000</v>
       </c>
       <c r="W21">
-        <v>105000000</v>
+        <v>1797000000</v>
       </c>
       <c r="X21">
-        <v>995000000</v>
+        <v>4882000000</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>8050000000</v>
+        <v>39572000000</v>
       </c>
       <c r="AA21">
-        <v>1451000000</v>
+        <v>5520000000</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="AD21">
-        <v>544000000</v>
+        <v>4853000000</v>
       </c>
       <c r="AE21">
-        <v>685000000</v>
+        <v>3619000000</v>
       </c>
       <c r="AF21">
-        <v>2680000000</v>
+        <v>14092000000</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3029000000</v>
       </c>
       <c r="AI21">
-        <v>294000000</v>
+        <v>675000000</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>746000000</v>
       </c>
       <c r="AK21">
-        <v>294000000</v>
+        <v>4450000000</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -4579,37 +4555,37 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>2974000000</v>
+        <v>18542000000</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2514000000</v>
+        <v>7177000000</v>
       </c>
       <c r="AQ21">
-        <v>2670000000</v>
+        <v>13845000000</v>
       </c>
       <c r="AR21">
-        <v>-15000000</v>
+        <v>8000000</v>
       </c>
       <c r="AS21">
-        <v>-93000000</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>5076000000</v>
+        <v>21030000000</v>
       </c>
       <c r="AU21">
-        <v>5076000000</v>
+        <v>21030000000</v>
       </c>
       <c r="AV21">
-        <v>8050000000</v>
+        <v>39572000000</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>8050000000</v>
+        <v>39572000000</v>
       </c>
       <c r="AY21">
         <v>0</v>
@@ -4618,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>-2969000000</v>
+        <v>-11875000000</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:55">
@@ -4632,112 +4608,112 @@
         <v>75</v>
       </c>
       <c r="B22" s="2">
-        <v>38619</v>
+        <v>40082</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J22">
-        <v>3491000000</v>
+        <v>5263000000</v>
       </c>
       <c r="K22">
-        <v>4770000000</v>
+        <v>18201000000</v>
       </c>
       <c r="L22">
-        <v>8261000000</v>
+        <v>23464000000</v>
       </c>
       <c r="M22">
-        <v>1312000000</v>
+        <v>5057000000</v>
       </c>
       <c r="N22">
-        <v>165000000</v>
+        <v>455000000</v>
       </c>
       <c r="O22">
-        <v>562000000</v>
+        <v>7289000000</v>
       </c>
       <c r="P22">
-        <v>10300000000</v>
+        <v>36265000000</v>
       </c>
       <c r="Q22">
-        <v>817000000</v>
+        <v>2954000000</v>
       </c>
       <c r="R22">
-        <v>69000000</v>
+        <v>206000000</v>
       </c>
       <c r="S22">
-        <v>27000000</v>
+        <v>247000000</v>
       </c>
       <c r="T22">
-        <v>96000000</v>
+        <v>453000000</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>10528000000</v>
       </c>
       <c r="V22">
-        <v>183000000</v>
+        <v>259000000</v>
       </c>
       <c r="W22">
-        <v>155000000</v>
+        <v>3392000000</v>
       </c>
       <c r="X22">
-        <v>1251000000</v>
+        <v>17586000000</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11551000000</v>
+        <v>53851000000</v>
       </c>
       <c r="AA22">
-        <v>1779000000</v>
+        <v>5601000000</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>439000000</v>
       </c>
       <c r="AD22">
-        <v>501000000</v>
+        <v>10305000000</v>
       </c>
       <c r="AE22">
-        <v>1204000000</v>
+        <v>2937000000</v>
       </c>
       <c r="AF22">
-        <v>3484000000</v>
+        <v>19282000000</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>281000000</v>
+        <v>4485000000</v>
       </c>
       <c r="AI22">
-        <v>308000000</v>
+        <v>966000000</v>
       </c>
       <c r="AJ22">
-        <v>12000000</v>
+        <v>1286000000</v>
       </c>
       <c r="AK22">
-        <v>601000000</v>
+        <v>6737000000</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -4746,52 +4722,52 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>4085000000</v>
+        <v>26019000000</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3521000000</v>
+        <v>8210000000</v>
       </c>
       <c r="AQ22">
-        <v>4005000000</v>
+        <v>19538000000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>84000000</v>
       </c>
       <c r="AS22">
-        <v>-60000000</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>7466000000</v>
+        <v>27832000000</v>
       </c>
       <c r="AU22">
-        <v>7466000000</v>
+        <v>27832000000</v>
       </c>
       <c r="AV22">
-        <v>11551000000</v>
+        <v>53851000000</v>
       </c>
       <c r="AW22">
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>11551000000</v>
+        <v>53851000000</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>28729000000</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>-3491000000</v>
+        <v>-5263000000</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:55">
@@ -4799,166 +4775,166 @@
         <v>76</v>
       </c>
       <c r="B23" s="2">
-        <v>38990</v>
+        <v>40446</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23">
+        <v>11261000000</v>
+      </c>
+      <c r="K23">
+        <v>14359000000</v>
+      </c>
+      <c r="L23">
+        <v>25620000000</v>
+      </c>
+      <c r="M23">
+        <v>9924000000</v>
+      </c>
+      <c r="N23">
+        <v>1051000000</v>
+      </c>
+      <c r="O23">
+        <v>5083000000</v>
+      </c>
+      <c r="P23">
+        <v>41678000000</v>
+      </c>
+      <c r="Q23">
+        <v>4768000000</v>
+      </c>
+      <c r="R23">
+        <v>741000000</v>
+      </c>
+      <c r="S23">
+        <v>342000000</v>
+      </c>
+      <c r="T23">
+        <v>1083000000</v>
+      </c>
+      <c r="U23">
+        <v>25391000000</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2263000000</v>
+      </c>
+      <c r="X23">
+        <v>33505000000</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>75183000000</v>
+      </c>
+      <c r="AA23">
+        <v>12015000000</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>210000000</v>
+      </c>
+      <c r="AD23">
+        <v>2984000000</v>
+      </c>
+      <c r="AE23">
+        <v>5513000000</v>
+      </c>
+      <c r="AF23">
+        <v>20722000000</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1139000000</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>5531000000</v>
+      </c>
+      <c r="AK23">
+        <v>6670000000</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>27392000000</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>10668000000</v>
+      </c>
+      <c r="AQ23">
+        <v>37169000000</v>
+      </c>
+      <c r="AR23">
+        <v>-46000000</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>47791000000</v>
+      </c>
+      <c r="AU23">
+        <v>47791000000</v>
+      </c>
+      <c r="AV23">
+        <v>75183000000</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>75183000000</v>
+      </c>
+      <c r="AY23">
+        <v>39750000000</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>-11261000000</v>
+      </c>
+      <c r="BB23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J23">
-        <v>6392000000</v>
-      </c>
-      <c r="K23">
-        <v>3718000000</v>
-      </c>
-      <c r="L23">
-        <v>10110000000</v>
-      </c>
-      <c r="M23">
-        <v>2845000000</v>
-      </c>
-      <c r="N23">
-        <v>270000000</v>
-      </c>
-      <c r="O23">
-        <v>1284000000</v>
-      </c>
-      <c r="P23">
-        <v>14509000000</v>
-      </c>
-      <c r="Q23">
-        <v>1281000000</v>
-      </c>
-      <c r="R23">
-        <v>38000000</v>
-      </c>
-      <c r="S23">
-        <v>139000000</v>
-      </c>
-      <c r="T23">
-        <v>177000000</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1238000000</v>
-      </c>
-      <c r="X23">
-        <v>2696000000</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>17205000000</v>
-      </c>
-      <c r="AA23">
-        <v>3390000000</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>388000000</v>
-      </c>
-      <c r="AD23">
-        <v>746000000</v>
-      </c>
-      <c r="AE23">
-        <v>1947000000</v>
-      </c>
-      <c r="AF23">
-        <v>6471000000</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>355000000</v>
-      </c>
-      <c r="AI23">
-        <v>381000000</v>
-      </c>
-      <c r="AJ23">
-        <v>14000000</v>
-      </c>
-      <c r="AK23">
-        <v>750000000</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>7221000000</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>4355000000</v>
-      </c>
-      <c r="AQ23">
-        <v>5607000000</v>
-      </c>
-      <c r="AR23">
-        <v>22000000</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>9984000000</v>
-      </c>
-      <c r="AU23">
-        <v>9984000000</v>
-      </c>
-      <c r="AV23">
-        <v>17205000000</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>17205000000</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>-6392000000</v>
-      </c>
-      <c r="BB23" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="BC23" s="3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:55">
@@ -4966,112 +4942,112 @@
         <v>77</v>
       </c>
       <c r="B24" s="2">
-        <v>39354</v>
+        <v>40810</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
         <v>194</v>
       </c>
-      <c r="I24" t="s">
-        <v>210</v>
-      </c>
       <c r="J24">
-        <v>9352000000</v>
+        <v>9815000000</v>
       </c>
       <c r="K24">
-        <v>6034000000</v>
+        <v>16137000000</v>
       </c>
       <c r="L24">
-        <v>15386000000</v>
+        <v>25952000000</v>
       </c>
       <c r="M24">
-        <v>4029000000</v>
+        <v>11717000000</v>
       </c>
       <c r="N24">
-        <v>346000000</v>
+        <v>776000000</v>
       </c>
       <c r="O24">
-        <v>2195000000</v>
+        <v>6543000000</v>
       </c>
       <c r="P24">
-        <v>21956000000</v>
+        <v>44988000000</v>
       </c>
       <c r="Q24">
-        <v>1832000000</v>
+        <v>7777000000</v>
       </c>
       <c r="R24">
-        <v>38000000</v>
+        <v>896000000</v>
       </c>
       <c r="S24">
-        <v>299000000</v>
+        <v>3536000000</v>
       </c>
       <c r="T24">
-        <v>337000000</v>
+        <v>4432000000</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>55618000000</v>
       </c>
       <c r="V24">
-        <v>88000000</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1134000000</v>
+        <v>3556000000</v>
       </c>
       <c r="X24">
-        <v>3391000000</v>
+        <v>71383000000</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>25347000000</v>
+        <v>116371000000</v>
       </c>
       <c r="AA24">
-        <v>4970000000</v>
+        <v>14632000000</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>488000000</v>
+        <v>1140000000</v>
       </c>
       <c r="AD24">
-        <v>1410000000</v>
+        <v>4091000000</v>
       </c>
       <c r="AE24">
-        <v>2431000000</v>
+        <v>8107000000</v>
       </c>
       <c r="AF24">
-        <v>9299000000</v>
+        <v>27970000000</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>830000000</v>
+        <v>1686000000</v>
       </c>
       <c r="AI24">
-        <v>619000000</v>
+        <v>8159000000</v>
       </c>
       <c r="AJ24">
-        <v>67000000</v>
+        <v>1941000000</v>
       </c>
       <c r="AK24">
-        <v>1516000000</v>
+        <v>11786000000</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -5080,52 +5056,52 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>10815000000</v>
+        <v>39756000000</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>5368000000</v>
+        <v>13331000000</v>
       </c>
       <c r="AQ24">
-        <v>9101000000</v>
+        <v>62841000000</v>
       </c>
       <c r="AR24">
-        <v>63000000</v>
+        <v>443000000</v>
       </c>
       <c r="AS24">
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>14532000000</v>
+        <v>76615000000</v>
       </c>
       <c r="AU24">
-        <v>14532000000</v>
+        <v>76615000000</v>
       </c>
       <c r="AV24">
-        <v>25347000000</v>
+        <v>116371000000</v>
       </c>
       <c r="AW24">
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>25347000000</v>
+        <v>116371000000</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>71755000000</v>
       </c>
       <c r="AZ24">
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>-9352000000</v>
+        <v>-9815000000</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:55">
@@ -5133,112 +5109,112 @@
         <v>78</v>
       </c>
       <c r="B25" s="2">
-        <v>39718</v>
+        <v>41181</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J25">
-        <v>11875000000</v>
+        <v>10746000000</v>
       </c>
       <c r="K25">
-        <v>12615000000</v>
+        <v>18383000000</v>
       </c>
       <c r="L25">
-        <v>24490000000</v>
+        <v>29129000000</v>
       </c>
       <c r="M25">
-        <v>4704000000</v>
+        <v>18692000000</v>
       </c>
       <c r="N25">
-        <v>509000000</v>
+        <v>791000000</v>
       </c>
       <c r="O25">
-        <v>4987000000</v>
+        <v>9041000000</v>
       </c>
       <c r="P25">
-        <v>34690000000</v>
+        <v>57653000000</v>
       </c>
       <c r="Q25">
-        <v>2455000000</v>
+        <v>15452000000</v>
       </c>
       <c r="R25">
-        <v>207000000</v>
+        <v>1135000000</v>
       </c>
       <c r="S25">
-        <v>285000000</v>
+        <v>4224000000</v>
       </c>
       <c r="T25">
-        <v>492000000</v>
+        <v>5359000000</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>92122000000</v>
       </c>
       <c r="V25">
-        <v>138000000</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1797000000</v>
+        <v>5478000000</v>
       </c>
       <c r="X25">
-        <v>4882000000</v>
+        <v>118411000000</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>39572000000</v>
+        <v>176064000000</v>
       </c>
       <c r="AA25">
-        <v>5520000000</v>
+        <v>21175000000</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>100000000</v>
+        <v>1535000000</v>
       </c>
       <c r="AD25">
-        <v>4853000000</v>
+        <v>5953000000</v>
       </c>
       <c r="AE25">
-        <v>3619000000</v>
+        <v>9879000000</v>
       </c>
       <c r="AF25">
-        <v>14092000000</v>
+        <v>38542000000</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>3029000000</v>
+        <v>2648000000</v>
       </c>
       <c r="AI25">
-        <v>675000000</v>
+        <v>13847000000</v>
       </c>
       <c r="AJ25">
-        <v>746000000</v>
+        <v>2817000000</v>
       </c>
       <c r="AK25">
-        <v>4450000000</v>
+        <v>19312000000</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -5247,52 +5223,52 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>18542000000</v>
+        <v>57854000000</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>7177000000</v>
+        <v>16422000000</v>
       </c>
       <c r="AQ25">
-        <v>13845000000</v>
+        <v>101289000000</v>
       </c>
       <c r="AR25">
-        <v>8000000</v>
+        <v>499000000</v>
       </c>
       <c r="AS25">
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>21030000000</v>
+        <v>118210000000</v>
       </c>
       <c r="AU25">
-        <v>21030000000</v>
+        <v>118210000000</v>
       </c>
       <c r="AV25">
-        <v>39572000000</v>
+        <v>176064000000</v>
       </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>39572000000</v>
+        <v>176064000000</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>110505000000</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>-11875000000</v>
+        <v>-10746000000</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:55">
@@ -5300,112 +5276,112 @@
         <v>79</v>
       </c>
       <c r="B26" s="2">
-        <v>40082</v>
+        <v>41545</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J26">
-        <v>5263000000</v>
+        <v>14259000000</v>
       </c>
       <c r="K26">
-        <v>18201000000</v>
+        <v>26287000000</v>
       </c>
       <c r="L26">
-        <v>23464000000</v>
+        <v>40546000000</v>
       </c>
       <c r="M26">
-        <v>5057000000</v>
+        <v>20641000000</v>
       </c>
       <c r="N26">
-        <v>455000000</v>
+        <v>1764000000</v>
       </c>
       <c r="O26">
-        <v>7289000000</v>
+        <v>10335000000</v>
       </c>
       <c r="P26">
-        <v>36265000000</v>
+        <v>73286000000</v>
       </c>
       <c r="Q26">
-        <v>2954000000</v>
+        <v>16597000000</v>
       </c>
       <c r="R26">
-        <v>206000000</v>
+        <v>1577000000</v>
       </c>
       <c r="S26">
-        <v>247000000</v>
+        <v>4179000000</v>
       </c>
       <c r="T26">
-        <v>453000000</v>
+        <v>5756000000</v>
       </c>
       <c r="U26">
-        <v>10528000000</v>
+        <v>106215000000</v>
       </c>
       <c r="V26">
-        <v>259000000</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>3392000000</v>
+        <v>5146000000</v>
       </c>
       <c r="X26">
-        <v>17586000000</v>
+        <v>133714000000</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>53851000000</v>
+        <v>207000000000</v>
       </c>
       <c r="AA26">
-        <v>5601000000</v>
+        <v>22367000000</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>439000000</v>
+        <v>1200000000</v>
       </c>
       <c r="AD26">
-        <v>10305000000</v>
+        <v>7435000000</v>
       </c>
       <c r="AE26">
-        <v>2937000000</v>
+        <v>12656000000</v>
       </c>
       <c r="AF26">
-        <v>19282000000</v>
+        <v>43658000000</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>16960000000</v>
       </c>
       <c r="AH26">
-        <v>4485000000</v>
+        <v>2625000000</v>
       </c>
       <c r="AI26">
-        <v>966000000</v>
+        <v>16489000000</v>
       </c>
       <c r="AJ26">
-        <v>1286000000</v>
+        <v>3719000000</v>
       </c>
       <c r="AK26">
-        <v>6737000000</v>
+        <v>39793000000</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -5414,52 +5390,52 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>26019000000</v>
+        <v>83451000000</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>8210000000</v>
+        <v>19764000000</v>
       </c>
       <c r="AQ26">
-        <v>19538000000</v>
+        <v>104256000000</v>
       </c>
       <c r="AR26">
-        <v>84000000</v>
+        <v>-471000000</v>
       </c>
       <c r="AS26">
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>27832000000</v>
+        <v>123549000000</v>
       </c>
       <c r="AU26">
-        <v>27832000000</v>
+        <v>123549000000</v>
       </c>
       <c r="AV26">
-        <v>53851000000</v>
+        <v>207000000000</v>
       </c>
       <c r="AW26">
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>53851000000</v>
+        <v>207000000000</v>
       </c>
       <c r="AY26">
-        <v>28729000000</v>
+        <v>132502000000</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>16960000000</v>
       </c>
       <c r="BA26">
-        <v>-5263000000</v>
+        <v>2701000000</v>
       </c>
       <c r="BB26" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="BC26" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -5467,112 +5443,112 @@
         <v>80</v>
       </c>
       <c r="B27" s="2">
-        <v>40446</v>
+        <v>41909</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J27">
-        <v>11261000000</v>
+        <v>13844000000</v>
       </c>
       <c r="K27">
-        <v>14359000000</v>
+        <v>11233000000</v>
       </c>
       <c r="L27">
-        <v>25620000000</v>
+        <v>25077000000</v>
       </c>
       <c r="M27">
-        <v>9924000000</v>
+        <v>27219000000</v>
       </c>
       <c r="N27">
-        <v>1051000000</v>
+        <v>2111000000</v>
       </c>
       <c r="O27">
-        <v>5083000000</v>
+        <v>14124000000</v>
       </c>
       <c r="P27">
-        <v>41678000000</v>
+        <v>68531000000</v>
       </c>
       <c r="Q27">
-        <v>4768000000</v>
+        <v>20624000000</v>
       </c>
       <c r="R27">
-        <v>741000000</v>
+        <v>4616000000</v>
       </c>
       <c r="S27">
-        <v>342000000</v>
+        <v>4142000000</v>
       </c>
       <c r="T27">
-        <v>1083000000</v>
+        <v>8758000000</v>
       </c>
       <c r="U27">
-        <v>25391000000</v>
+        <v>130162000000</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>2263000000</v>
+        <v>3764000000</v>
       </c>
       <c r="X27">
-        <v>33505000000</v>
+        <v>163308000000</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>75183000000</v>
+        <v>231839000000</v>
       </c>
       <c r="AA27">
-        <v>12015000000</v>
+        <v>30196000000</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>6308000000</v>
       </c>
       <c r="AC27">
-        <v>210000000</v>
+        <v>1209000000</v>
       </c>
       <c r="AD27">
-        <v>2984000000</v>
+        <v>8491000000</v>
       </c>
       <c r="AE27">
-        <v>5513000000</v>
+        <v>17244000000</v>
       </c>
       <c r="AF27">
-        <v>20722000000</v>
+        <v>63448000000</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>28987000000</v>
       </c>
       <c r="AH27">
-        <v>1139000000</v>
+        <v>3031000000</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>20259000000</v>
       </c>
       <c r="AJ27">
-        <v>5531000000</v>
+        <v>4567000000</v>
       </c>
       <c r="AK27">
-        <v>6670000000</v>
+        <v>56844000000</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -5581,52 +5557,52 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>27392000000</v>
+        <v>120292000000</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>10668000000</v>
+        <v>23313000000</v>
       </c>
       <c r="AQ27">
-        <v>37169000000</v>
+        <v>87152000000</v>
       </c>
       <c r="AR27">
-        <v>-46000000</v>
+        <v>1082000000</v>
       </c>
       <c r="AS27">
         <v>0</v>
       </c>
       <c r="AT27">
-        <v>47791000000</v>
+        <v>111547000000</v>
       </c>
       <c r="AU27">
-        <v>47791000000</v>
+        <v>111547000000</v>
       </c>
       <c r="AV27">
-        <v>75183000000</v>
+        <v>231839000000</v>
       </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>75183000000</v>
+        <v>231839000000</v>
       </c>
       <c r="AY27">
-        <v>39750000000</v>
+        <v>141395000000</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>35295000000</v>
       </c>
       <c r="BA27">
-        <v>-11261000000</v>
+        <v>21451000000</v>
       </c>
       <c r="BB27" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="BC27" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -5634,112 +5610,112 @@
         <v>81</v>
       </c>
       <c r="B28" s="2">
-        <v>40810</v>
+        <v>42273</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J28">
-        <v>9815000000</v>
+        <v>21120000000</v>
       </c>
       <c r="K28">
-        <v>16137000000</v>
+        <v>20481000000</v>
       </c>
       <c r="L28">
-        <v>25952000000</v>
+        <v>41601000000</v>
       </c>
       <c r="M28">
-        <v>11717000000</v>
+        <v>30343000000</v>
       </c>
       <c r="N28">
-        <v>776000000</v>
+        <v>2349000000</v>
       </c>
       <c r="O28">
-        <v>6543000000</v>
+        <v>15085000000</v>
       </c>
       <c r="P28">
-        <v>44988000000</v>
+        <v>89378000000</v>
       </c>
       <c r="Q28">
-        <v>7777000000</v>
+        <v>22471000000</v>
       </c>
       <c r="R28">
-        <v>896000000</v>
+        <v>5116000000</v>
       </c>
       <c r="S28">
-        <v>3536000000</v>
+        <v>3893000000</v>
       </c>
       <c r="T28">
-        <v>4432000000</v>
+        <v>9009000000</v>
       </c>
       <c r="U28">
-        <v>55618000000</v>
+        <v>164065000000</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>3556000000</v>
+        <v>5556000000</v>
       </c>
       <c r="X28">
-        <v>71383000000</v>
+        <v>201101000000</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>116371000000</v>
+        <v>290479000000</v>
       </c>
       <c r="AA28">
-        <v>14632000000</v>
+        <v>35490000000</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>10999000000</v>
       </c>
       <c r="AC28">
-        <v>1140000000</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>4091000000</v>
+        <v>8940000000</v>
       </c>
       <c r="AE28">
-        <v>8107000000</v>
+        <v>25181000000</v>
       </c>
       <c r="AF28">
-        <v>27970000000</v>
+        <v>80610000000</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>53463000000</v>
       </c>
       <c r="AH28">
-        <v>1686000000</v>
+        <v>3624000000</v>
       </c>
       <c r="AI28">
-        <v>8159000000</v>
+        <v>24062000000</v>
       </c>
       <c r="AJ28">
-        <v>1941000000</v>
+        <v>9365000000</v>
       </c>
       <c r="AK28">
-        <v>11786000000</v>
+        <v>90514000000</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -5748,52 +5724,52 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>39756000000</v>
+        <v>171124000000</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>13331000000</v>
+        <v>27416000000</v>
       </c>
       <c r="AQ28">
-        <v>62841000000</v>
+        <v>92284000000</v>
       </c>
       <c r="AR28">
-        <v>443000000</v>
+        <v>-345000000</v>
       </c>
       <c r="AS28">
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>76615000000</v>
+        <v>119355000000</v>
       </c>
       <c r="AU28">
-        <v>76615000000</v>
+        <v>119355000000</v>
       </c>
       <c r="AV28">
-        <v>116371000000</v>
+        <v>290479000000</v>
       </c>
       <c r="AW28">
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>116371000000</v>
+        <v>290479000000</v>
       </c>
       <c r="AY28">
-        <v>71755000000</v>
+        <v>184546000000</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>64462000000</v>
       </c>
       <c r="BA28">
-        <v>-9815000000</v>
+        <v>43342000000</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="BC28" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:55">
@@ -5801,112 +5777,112 @@
         <v>82</v>
       </c>
       <c r="B29" s="2">
-        <v>41181</v>
+        <v>42637</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J29">
-        <v>10746000000</v>
+        <v>20484000000</v>
       </c>
       <c r="K29">
-        <v>18383000000</v>
+        <v>46671000000</v>
       </c>
       <c r="L29">
-        <v>29129000000</v>
+        <v>67155000000</v>
       </c>
       <c r="M29">
-        <v>18692000000</v>
+        <v>29299000000</v>
       </c>
       <c r="N29">
-        <v>791000000</v>
+        <v>2132000000</v>
       </c>
       <c r="O29">
-        <v>9041000000</v>
+        <v>8283000000</v>
       </c>
       <c r="P29">
-        <v>57653000000</v>
+        <v>106869000000</v>
       </c>
       <c r="Q29">
-        <v>15452000000</v>
+        <v>27010000000</v>
       </c>
       <c r="R29">
-        <v>1135000000</v>
+        <v>5414000000</v>
       </c>
       <c r="S29">
-        <v>4224000000</v>
+        <v>3206000000</v>
       </c>
       <c r="T29">
-        <v>5359000000</v>
+        <v>8620000000</v>
       </c>
       <c r="U29">
-        <v>92122000000</v>
+        <v>170430000000</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>5478000000</v>
+        <v>8757000000</v>
       </c>
       <c r="X29">
-        <v>118411000000</v>
+        <v>214817000000</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>176064000000</v>
+        <v>321686000000</v>
       </c>
       <c r="AA29">
-        <v>21175000000</v>
+        <v>37294000000</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>11605000000</v>
       </c>
       <c r="AC29">
-        <v>1535000000</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>5953000000</v>
+        <v>8080000000</v>
       </c>
       <c r="AE29">
-        <v>9879000000</v>
+        <v>22027000000</v>
       </c>
       <c r="AF29">
-        <v>38542000000</v>
+        <v>79006000000</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>75427000000</v>
       </c>
       <c r="AH29">
-        <v>2648000000</v>
+        <v>2930000000</v>
       </c>
       <c r="AI29">
-        <v>13847000000</v>
+        <v>26019000000</v>
       </c>
       <c r="AJ29">
-        <v>2817000000</v>
+        <v>10055000000</v>
       </c>
       <c r="AK29">
-        <v>19312000000</v>
+        <v>114431000000</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -5915,52 +5891,52 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>57854000000</v>
+        <v>193437000000</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>16422000000</v>
+        <v>31251000000</v>
       </c>
       <c r="AQ29">
-        <v>101289000000</v>
+        <v>96364000000</v>
       </c>
       <c r="AR29">
-        <v>499000000</v>
+        <v>634000000</v>
       </c>
       <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>118210000000</v>
+        <v>128249000000</v>
       </c>
       <c r="AU29">
-        <v>118210000000</v>
+        <v>128249000000</v>
       </c>
       <c r="AV29">
-        <v>176064000000</v>
+        <v>321686000000</v>
       </c>
       <c r="AW29">
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>176064000000</v>
+        <v>321686000000</v>
       </c>
       <c r="AY29">
-        <v>110505000000</v>
+        <v>217101000000</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>87032000000</v>
       </c>
       <c r="BA29">
-        <v>-10746000000</v>
+        <v>66548000000</v>
       </c>
       <c r="BB29" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="BC29" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:55">
@@ -5968,112 +5944,112 @@
         <v>83</v>
       </c>
       <c r="B30" s="2">
-        <v>41545</v>
+        <v>43008</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J30">
-        <v>14259000000</v>
+        <v>20289000000</v>
       </c>
       <c r="K30">
-        <v>26287000000</v>
+        <v>53892000000</v>
       </c>
       <c r="L30">
-        <v>40546000000</v>
+        <v>74181000000</v>
       </c>
       <c r="M30">
-        <v>20641000000</v>
+        <v>35673000000</v>
       </c>
       <c r="N30">
-        <v>1764000000</v>
+        <v>4855000000</v>
       </c>
       <c r="O30">
-        <v>10335000000</v>
+        <v>13936000000</v>
       </c>
       <c r="P30">
-        <v>73286000000</v>
+        <v>128645000000</v>
       </c>
       <c r="Q30">
-        <v>16597000000</v>
+        <v>33783000000</v>
       </c>
       <c r="R30">
-        <v>1577000000</v>
+        <v>5717000000</v>
       </c>
       <c r="S30">
-        <v>4179000000</v>
+        <v>2298000000</v>
       </c>
       <c r="T30">
-        <v>5756000000</v>
+        <v>8015000000</v>
       </c>
       <c r="U30">
-        <v>106215000000</v>
+        <v>194714000000</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>5146000000</v>
+        <v>10162000000</v>
       </c>
       <c r="X30">
-        <v>133714000000</v>
+        <v>246674000000</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>207000000000</v>
+        <v>375319000000</v>
       </c>
       <c r="AA30">
-        <v>22367000000</v>
+        <v>49049000000</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>18473000000</v>
       </c>
       <c r="AC30">
-        <v>1200000000</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>7435000000</v>
+        <v>7548000000</v>
       </c>
       <c r="AE30">
-        <v>12656000000</v>
+        <v>25744000000</v>
       </c>
       <c r="AF30">
-        <v>43658000000</v>
+        <v>100814000000</v>
       </c>
       <c r="AG30">
-        <v>16960000000</v>
+        <v>97207000000</v>
       </c>
       <c r="AH30">
-        <v>2625000000</v>
+        <v>2836000000</v>
       </c>
       <c r="AI30">
-        <v>16489000000</v>
+        <v>31504000000</v>
       </c>
       <c r="AJ30">
-        <v>3719000000</v>
+        <v>8911000000</v>
       </c>
       <c r="AK30">
-        <v>39793000000</v>
+        <v>140458000000</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -6082,52 +6058,52 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>83451000000</v>
+        <v>241272000000</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>19764000000</v>
+        <v>35867000000</v>
       </c>
       <c r="AQ30">
-        <v>104256000000</v>
+        <v>98330000000</v>
       </c>
       <c r="AR30">
-        <v>-471000000</v>
+        <v>-150000000</v>
       </c>
       <c r="AS30">
         <v>0</v>
       </c>
       <c r="AT30">
-        <v>123549000000</v>
+        <v>134047000000</v>
       </c>
       <c r="AU30">
-        <v>123549000000</v>
+        <v>134047000000</v>
       </c>
       <c r="AV30">
-        <v>207000000000</v>
+        <v>375319000000</v>
       </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>207000000000</v>
+        <v>375319000000</v>
       </c>
       <c r="AY30">
-        <v>132502000000</v>
+        <v>248606000000</v>
       </c>
       <c r="AZ30">
-        <v>16960000000</v>
+        <v>115680000000</v>
       </c>
       <c r="BA30">
-        <v>2701000000</v>
+        <v>95391000000</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -6135,112 +6111,112 @@
         <v>84</v>
       </c>
       <c r="B31" s="2">
-        <v>41909</v>
+        <v>43372</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J31">
-        <v>13844000000</v>
+        <v>25913000000</v>
       </c>
       <c r="K31">
-        <v>11233000000</v>
+        <v>40388000000</v>
       </c>
       <c r="L31">
-        <v>25077000000</v>
+        <v>66301000000</v>
       </c>
       <c r="M31">
-        <v>27219000000</v>
+        <v>48995000000</v>
       </c>
       <c r="N31">
-        <v>2111000000</v>
+        <v>3956000000</v>
       </c>
       <c r="O31">
-        <v>14124000000</v>
+        <v>12087000000</v>
       </c>
       <c r="P31">
-        <v>68531000000</v>
+        <v>131339000000</v>
       </c>
       <c r="Q31">
-        <v>20624000000</v>
+        <v>41304000000</v>
       </c>
       <c r="R31">
-        <v>4616000000</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>4142000000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>8758000000</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>130162000000</v>
+        <v>170799000000</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>3764000000</v>
+        <v>22283000000</v>
       </c>
       <c r="X31">
-        <v>163308000000</v>
+        <v>234386000000</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>231839000000</v>
+        <v>365725000000</v>
       </c>
       <c r="AA31">
-        <v>30196000000</v>
+        <v>55888000000</v>
       </c>
       <c r="AB31">
-        <v>6308000000</v>
+        <v>20748000000</v>
       </c>
       <c r="AC31">
-        <v>1209000000</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>8491000000</v>
+        <v>7543000000</v>
       </c>
       <c r="AE31">
-        <v>17244000000</v>
+        <v>32687000000</v>
       </c>
       <c r="AF31">
-        <v>63448000000</v>
+        <v>116866000000</v>
       </c>
       <c r="AG31">
-        <v>28987000000</v>
+        <v>93735000000</v>
       </c>
       <c r="AH31">
-        <v>3031000000</v>
+        <v>2797000000</v>
       </c>
       <c r="AI31">
-        <v>20259000000</v>
+        <v>426000000</v>
       </c>
       <c r="AJ31">
-        <v>4567000000</v>
+        <v>44754000000</v>
       </c>
       <c r="AK31">
-        <v>56844000000</v>
+        <v>141712000000</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -6249,52 +6225,52 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>120292000000</v>
+        <v>258578000000</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>23313000000</v>
+        <v>40201000000</v>
       </c>
       <c r="AQ31">
-        <v>87152000000</v>
+        <v>70400000000</v>
       </c>
       <c r="AR31">
-        <v>1082000000</v>
+        <v>-3454000000</v>
       </c>
       <c r="AS31">
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>111547000000</v>
+        <v>107147000000</v>
       </c>
       <c r="AU31">
-        <v>111547000000</v>
+        <v>107147000000</v>
       </c>
       <c r="AV31">
-        <v>231839000000</v>
+        <v>365725000000</v>
       </c>
       <c r="AW31">
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>231839000000</v>
+        <v>365725000000</v>
       </c>
       <c r="AY31">
-        <v>141395000000</v>
+        <v>211187000000</v>
       </c>
       <c r="AZ31">
-        <v>35295000000</v>
+        <v>114483000000</v>
       </c>
       <c r="BA31">
-        <v>21451000000</v>
+        <v>88570000000</v>
       </c>
       <c r="BB31" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="BC31" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:55">
@@ -6302,112 +6278,112 @@
         <v>85</v>
       </c>
       <c r="B32" s="2">
-        <v>42273</v>
+        <v>43736</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J32">
-        <v>21120000000</v>
+        <v>48844000000</v>
       </c>
       <c r="K32">
-        <v>20481000000</v>
+        <v>51713000000</v>
       </c>
       <c r="L32">
-        <v>41601000000</v>
+        <v>100557000000</v>
       </c>
       <c r="M32">
-        <v>30343000000</v>
+        <v>45804000000</v>
       </c>
       <c r="N32">
-        <v>2349000000</v>
+        <v>4106000000</v>
       </c>
       <c r="O32">
-        <v>15085000000</v>
+        <v>12352000000</v>
       </c>
       <c r="P32">
-        <v>89378000000</v>
+        <v>162819000000</v>
       </c>
       <c r="Q32">
-        <v>22471000000</v>
+        <v>37378000000</v>
       </c>
       <c r="R32">
-        <v>5116000000</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>3893000000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>9009000000</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>164065000000</v>
+        <v>105341000000</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>5556000000</v>
+        <v>32978000000</v>
       </c>
       <c r="X32">
-        <v>201101000000</v>
+        <v>175697000000</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>290479000000</v>
+        <v>338516000000</v>
       </c>
       <c r="AA32">
-        <v>35490000000</v>
+        <v>46236000000</v>
       </c>
       <c r="AB32">
-        <v>10999000000</v>
+        <v>16240000000</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>8940000000</v>
+        <v>5522000000</v>
       </c>
       <c r="AE32">
-        <v>25181000000</v>
+        <v>37720000000</v>
       </c>
       <c r="AF32">
-        <v>80610000000</v>
+        <v>105718000000</v>
       </c>
       <c r="AG32">
-        <v>53463000000</v>
+        <v>91807000000</v>
       </c>
       <c r="AH32">
-        <v>3624000000</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>24062000000</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>9365000000</v>
+        <v>50503000000</v>
       </c>
       <c r="AK32">
-        <v>90514000000</v>
+        <v>142310000000</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -6416,52 +6392,52 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>171124000000</v>
+        <v>248028000000</v>
       </c>
       <c r="AO32">
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>27416000000</v>
+        <v>45174000000</v>
       </c>
       <c r="AQ32">
-        <v>92284000000</v>
+        <v>45898000000</v>
       </c>
       <c r="AR32">
-        <v>-345000000</v>
+        <v>-584000000</v>
       </c>
       <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>119355000000</v>
+        <v>90488000000</v>
       </c>
       <c r="AU32">
-        <v>119355000000</v>
+        <v>90488000000</v>
       </c>
       <c r="AV32">
-        <v>290479000000</v>
+        <v>338516000000</v>
       </c>
       <c r="AW32">
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>290479000000</v>
+        <v>338516000000</v>
       </c>
       <c r="AY32">
-        <v>184546000000</v>
+        <v>157054000000</v>
       </c>
       <c r="AZ32">
-        <v>64462000000</v>
+        <v>108047000000</v>
       </c>
       <c r="BA32">
-        <v>43342000000</v>
+        <v>59203000000</v>
       </c>
       <c r="BB32" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="BC32" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:55">
@@ -6469,112 +6445,112 @@
         <v>86</v>
       </c>
       <c r="B33" s="2">
-        <v>42637</v>
+        <v>44100</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J33">
-        <v>20484000000</v>
+        <v>38016000000</v>
       </c>
       <c r="K33">
-        <v>46671000000</v>
+        <v>52927000000</v>
       </c>
       <c r="L33">
-        <v>67155000000</v>
+        <v>90943000000</v>
       </c>
       <c r="M33">
-        <v>29299000000</v>
+        <v>37445000000</v>
       </c>
       <c r="N33">
-        <v>2132000000</v>
+        <v>4061000000</v>
       </c>
       <c r="O33">
-        <v>8283000000</v>
+        <v>11264000000</v>
       </c>
       <c r="P33">
-        <v>106869000000</v>
+        <v>143713000000</v>
       </c>
       <c r="Q33">
-        <v>27010000000</v>
+        <v>36766000000</v>
       </c>
       <c r="R33">
-        <v>5414000000</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>3206000000</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>8620000000</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>170430000000</v>
+        <v>100887000000</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>8757000000</v>
+        <v>42522000000</v>
       </c>
       <c r="X33">
-        <v>214817000000</v>
+        <v>180175000000</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>321686000000</v>
+        <v>323888000000</v>
       </c>
       <c r="AA33">
-        <v>37294000000</v>
+        <v>42296000000</v>
       </c>
       <c r="AB33">
-        <v>11605000000</v>
+        <v>13769000000</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>8080000000</v>
+        <v>6643000000</v>
       </c>
       <c r="AE33">
-        <v>22027000000</v>
+        <v>42684000000</v>
       </c>
       <c r="AF33">
-        <v>79006000000</v>
+        <v>105392000000</v>
       </c>
       <c r="AG33">
-        <v>75427000000</v>
+        <v>98667000000</v>
       </c>
       <c r="AH33">
-        <v>2930000000</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>26019000000</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>10055000000</v>
+        <v>54490000000</v>
       </c>
       <c r="AK33">
-        <v>114431000000</v>
+        <v>153157000000</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -6583,52 +6559,52 @@
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>193437000000</v>
+        <v>258549000000</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>31251000000</v>
+        <v>50779000000</v>
       </c>
       <c r="AQ33">
-        <v>96364000000</v>
+        <v>14966000000</v>
       </c>
       <c r="AR33">
-        <v>634000000</v>
+        <v>-406000000</v>
       </c>
       <c r="AS33">
         <v>0</v>
       </c>
       <c r="AT33">
-        <v>128249000000</v>
+        <v>65339000000</v>
       </c>
       <c r="AU33">
-        <v>128249000000</v>
+        <v>65339000000</v>
       </c>
       <c r="AV33">
-        <v>321686000000</v>
+        <v>323888000000</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>321686000000</v>
+        <v>323888000000</v>
       </c>
       <c r="AY33">
-        <v>217101000000</v>
+        <v>153814000000</v>
       </c>
       <c r="AZ33">
-        <v>87032000000</v>
+        <v>112436000000</v>
       </c>
       <c r="BA33">
-        <v>66548000000</v>
+        <v>74420000000</v>
       </c>
       <c r="BB33" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="BC33" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:55">
@@ -6636,112 +6612,112 @@
         <v>87</v>
       </c>
       <c r="B34" s="2">
-        <v>43008</v>
+        <v>44464</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J34">
-        <v>20289000000</v>
+        <v>34940000000</v>
       </c>
       <c r="K34">
-        <v>53892000000</v>
+        <v>27699000000</v>
       </c>
       <c r="L34">
-        <v>74181000000</v>
+        <v>62639000000</v>
       </c>
       <c r="M34">
-        <v>35673000000</v>
+        <v>51506000000</v>
       </c>
       <c r="N34">
-        <v>4855000000</v>
+        <v>6580000000</v>
       </c>
       <c r="O34">
-        <v>13936000000</v>
+        <v>14111000000</v>
       </c>
       <c r="P34">
-        <v>128645000000</v>
+        <v>134836000000</v>
       </c>
       <c r="Q34">
-        <v>33783000000</v>
+        <v>39440000000</v>
       </c>
       <c r="R34">
-        <v>5717000000</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>2298000000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>8015000000</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>194714000000</v>
+        <v>127877000000</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>10162000000</v>
+        <v>48849000000</v>
       </c>
       <c r="X34">
-        <v>246674000000</v>
+        <v>216166000000</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>375319000000</v>
+        <v>351002000000</v>
       </c>
       <c r="AA34">
-        <v>49049000000</v>
+        <v>54763000000</v>
       </c>
       <c r="AB34">
-        <v>18473000000</v>
+        <v>15613000000</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>7548000000</v>
+        <v>7612000000</v>
       </c>
       <c r="AE34">
-        <v>25744000000</v>
+        <v>47493000000</v>
       </c>
       <c r="AF34">
-        <v>100814000000</v>
+        <v>125481000000</v>
       </c>
       <c r="AG34">
-        <v>97207000000</v>
+        <v>109106000000</v>
       </c>
       <c r="AH34">
-        <v>2836000000</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>31504000000</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>8911000000</v>
+        <v>53325000000</v>
       </c>
       <c r="AK34">
-        <v>140458000000</v>
+        <v>162431000000</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -6750,52 +6726,52 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>241272000000</v>
+        <v>287912000000</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>35867000000</v>
+        <v>57365000000</v>
       </c>
       <c r="AQ34">
-        <v>98330000000</v>
+        <v>5562000000</v>
       </c>
       <c r="AR34">
-        <v>-150000000</v>
+        <v>163000000</v>
       </c>
       <c r="AS34">
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>134047000000</v>
+        <v>63090000000</v>
       </c>
       <c r="AU34">
-        <v>134047000000</v>
+        <v>63090000000</v>
       </c>
       <c r="AV34">
-        <v>375319000000</v>
+        <v>351002000000</v>
       </c>
       <c r="AW34">
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>375319000000</v>
+        <v>351002000000</v>
       </c>
       <c r="AY34">
-        <v>248606000000</v>
+        <v>155576000000</v>
       </c>
       <c r="AZ34">
-        <v>115680000000</v>
+        <v>124719000000</v>
       </c>
       <c r="BA34">
-        <v>95391000000</v>
+        <v>89779000000</v>
       </c>
       <c r="BB34" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="BC34" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:55">
@@ -6803,52 +6779,52 @@
         <v>88</v>
       </c>
       <c r="B35" s="2">
-        <v>43372</v>
+        <v>44828</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J35">
-        <v>25913000000</v>
+        <v>23646000000</v>
       </c>
       <c r="K35">
-        <v>40388000000</v>
+        <v>24658000000</v>
       </c>
       <c r="L35">
-        <v>66301000000</v>
+        <v>48304000000</v>
       </c>
       <c r="M35">
-        <v>48995000000</v>
+        <v>60932000000</v>
       </c>
       <c r="N35">
-        <v>3956000000</v>
+        <v>4946000000</v>
       </c>
       <c r="O35">
-        <v>12087000000</v>
+        <v>21223000000</v>
       </c>
       <c r="P35">
-        <v>131339000000</v>
+        <v>135405000000</v>
       </c>
       <c r="Q35">
-        <v>41304000000</v>
+        <v>42117000000</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -6860,55 +6836,55 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>170799000000</v>
+        <v>120805000000</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>22283000000</v>
+        <v>54428000000</v>
       </c>
       <c r="X35">
-        <v>234386000000</v>
+        <v>217350000000</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>365725000000</v>
+        <v>352755000000</v>
       </c>
       <c r="AA35">
-        <v>55888000000</v>
+        <v>64115000000</v>
       </c>
       <c r="AB35">
-        <v>20748000000</v>
+        <v>21110000000</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>7543000000</v>
+        <v>7912000000</v>
       </c>
       <c r="AE35">
-        <v>32687000000</v>
+        <v>60845000000</v>
       </c>
       <c r="AF35">
-        <v>116866000000</v>
+        <v>153982000000</v>
       </c>
       <c r="AG35">
-        <v>93735000000</v>
+        <v>98959000000</v>
       </c>
       <c r="AH35">
-        <v>2797000000</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>426000000</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>44754000000</v>
+        <v>49142000000</v>
       </c>
       <c r="AK35">
-        <v>141712000000</v>
+        <v>148101000000</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -6917,780 +6893,112 @@
         <v>0</v>
       </c>
       <c r="AN35">
-        <v>258578000000</v>
+        <v>302083000000</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>40201000000</v>
+        <v>64849000000</v>
       </c>
       <c r="AQ35">
-        <v>70400000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="AR35">
-        <v>-3454000000</v>
+        <v>-11109000000</v>
       </c>
       <c r="AS35">
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>107147000000</v>
+        <v>50672000000</v>
       </c>
       <c r="AU35">
-        <v>107147000000</v>
+        <v>50672000000</v>
       </c>
       <c r="AV35">
-        <v>365725000000</v>
+        <v>352755000000</v>
       </c>
       <c r="AW35">
         <v>0</v>
       </c>
       <c r="AX35">
-        <v>365725000000</v>
+        <v>352755000000</v>
       </c>
       <c r="AY35">
-        <v>211187000000</v>
+        <v>145463000000</v>
       </c>
       <c r="AZ35">
-        <v>114483000000</v>
+        <v>120069000000</v>
       </c>
       <c r="BA35">
-        <v>88570000000</v>
+        <v>96423000000</v>
       </c>
       <c r="BB35" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="BC35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:55">
-      <c r="A36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43736</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36">
-        <v>48844000000</v>
-      </c>
-      <c r="K36">
-        <v>51713000000</v>
-      </c>
-      <c r="L36">
-        <v>100557000000</v>
-      </c>
-      <c r="M36">
-        <v>45804000000</v>
-      </c>
-      <c r="N36">
-        <v>4106000000</v>
-      </c>
-      <c r="O36">
-        <v>12352000000</v>
-      </c>
-      <c r="P36">
-        <v>162819000000</v>
-      </c>
-      <c r="Q36">
-        <v>37378000000</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>105341000000</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>32978000000</v>
-      </c>
-      <c r="X36">
-        <v>175697000000</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>338516000000</v>
-      </c>
-      <c r="AA36">
-        <v>46236000000</v>
-      </c>
-      <c r="AB36">
-        <v>16240000000</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>5522000000</v>
-      </c>
-      <c r="AE36">
-        <v>37720000000</v>
-      </c>
-      <c r="AF36">
-        <v>105718000000</v>
-      </c>
-      <c r="AG36">
-        <v>91807000000</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>50503000000</v>
-      </c>
-      <c r="AK36">
-        <v>142310000000</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>248028000000</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>45174000000</v>
-      </c>
-      <c r="AQ36">
-        <v>45898000000</v>
-      </c>
-      <c r="AR36">
-        <v>-584000000</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>90488000000</v>
-      </c>
-      <c r="AU36">
-        <v>90488000000</v>
-      </c>
-      <c r="AV36">
-        <v>338516000000</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>338516000000</v>
-      </c>
-      <c r="AY36">
-        <v>157054000000</v>
-      </c>
-      <c r="AZ36">
-        <v>108047000000</v>
-      </c>
-      <c r="BA36">
-        <v>59203000000</v>
-      </c>
-      <c r="BB36" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC36" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:55">
-      <c r="A37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" t="s">
-        <v>210</v>
-      </c>
-      <c r="J37">
-        <v>38016000000</v>
-      </c>
-      <c r="K37">
-        <v>52927000000</v>
-      </c>
-      <c r="L37">
-        <v>90943000000</v>
-      </c>
-      <c r="M37">
-        <v>37445000000</v>
-      </c>
-      <c r="N37">
-        <v>4061000000</v>
-      </c>
-      <c r="O37">
-        <v>11264000000</v>
-      </c>
-      <c r="P37">
-        <v>143713000000</v>
-      </c>
-      <c r="Q37">
-        <v>36766000000</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>100887000000</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>42522000000</v>
-      </c>
-      <c r="X37">
-        <v>180175000000</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>323888000000</v>
-      </c>
-      <c r="AA37">
-        <v>42296000000</v>
-      </c>
-      <c r="AB37">
-        <v>13769000000</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>6643000000</v>
-      </c>
-      <c r="AE37">
-        <v>42684000000</v>
-      </c>
-      <c r="AF37">
-        <v>105392000000</v>
-      </c>
-      <c r="AG37">
-        <v>98667000000</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>54490000000</v>
-      </c>
-      <c r="AK37">
-        <v>153157000000</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>258549000000</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>50779000000</v>
-      </c>
-      <c r="AQ37">
-        <v>14966000000</v>
-      </c>
-      <c r="AR37">
-        <v>-406000000</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>65339000000</v>
-      </c>
-      <c r="AU37">
-        <v>65339000000</v>
-      </c>
-      <c r="AV37">
-        <v>323888000000</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>323888000000</v>
-      </c>
-      <c r="AY37">
-        <v>153814000000</v>
-      </c>
-      <c r="AZ37">
-        <v>112436000000</v>
-      </c>
-      <c r="BA37">
-        <v>74420000000</v>
-      </c>
-      <c r="BB37" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="BC37" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:55">
-      <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44464</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" t="s">
-        <v>208</v>
-      </c>
-      <c r="I38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J38">
-        <v>34940000000</v>
-      </c>
-      <c r="K38">
-        <v>27699000000</v>
-      </c>
-      <c r="L38">
-        <v>62639000000</v>
-      </c>
-      <c r="M38">
-        <v>51506000000</v>
-      </c>
-      <c r="N38">
-        <v>6580000000</v>
-      </c>
-      <c r="O38">
-        <v>14111000000</v>
-      </c>
-      <c r="P38">
-        <v>134836000000</v>
-      </c>
-      <c r="Q38">
-        <v>39440000000</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>127877000000</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>48849000000</v>
-      </c>
-      <c r="X38">
-        <v>216166000000</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>351002000000</v>
-      </c>
-      <c r="AA38">
-        <v>54763000000</v>
-      </c>
-      <c r="AB38">
-        <v>15613000000</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>7612000000</v>
-      </c>
-      <c r="AE38">
-        <v>47493000000</v>
-      </c>
-      <c r="AF38">
-        <v>125481000000</v>
-      </c>
-      <c r="AG38">
-        <v>109106000000</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>53325000000</v>
-      </c>
-      <c r="AK38">
-        <v>162431000000</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>287912000000</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>57365000000</v>
-      </c>
-      <c r="AQ38">
-        <v>5562000000</v>
-      </c>
-      <c r="AR38">
-        <v>163000000</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>63090000000</v>
-      </c>
-      <c r="AU38">
-        <v>63090000000</v>
-      </c>
-      <c r="AV38">
-        <v>351002000000</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>351002000000</v>
-      </c>
-      <c r="AY38">
-        <v>155576000000</v>
-      </c>
-      <c r="AZ38">
-        <v>124719000000</v>
-      </c>
-      <c r="BA38">
-        <v>89779000000</v>
-      </c>
-      <c r="BB38" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="BC38" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:55">
-      <c r="A39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2">
-        <v>44828</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" t="s">
-        <v>209</v>
-      </c>
-      <c r="I39" t="s">
-        <v>210</v>
-      </c>
-      <c r="J39">
-        <v>23646000000</v>
-      </c>
-      <c r="K39">
-        <v>24658000000</v>
-      </c>
-      <c r="L39">
-        <v>48304000000</v>
-      </c>
-      <c r="M39">
-        <v>60932000000</v>
-      </c>
-      <c r="N39">
-        <v>4946000000</v>
-      </c>
-      <c r="O39">
-        <v>21223000000</v>
-      </c>
-      <c r="P39">
-        <v>135405000000</v>
-      </c>
-      <c r="Q39">
-        <v>42117000000</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>120805000000</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>54428000000</v>
-      </c>
-      <c r="X39">
-        <v>217350000000</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>352755000000</v>
-      </c>
-      <c r="AA39">
-        <v>64115000000</v>
-      </c>
-      <c r="AB39">
-        <v>21110000000</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>7912000000</v>
-      </c>
-      <c r="AE39">
-        <v>60845000000</v>
-      </c>
-      <c r="AF39">
-        <v>153982000000</v>
-      </c>
-      <c r="AG39">
-        <v>98959000000</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>49142000000</v>
-      </c>
-      <c r="AK39">
-        <v>148101000000</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>302083000000</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>64849000000</v>
-      </c>
-      <c r="AQ39">
-        <v>-3068000000</v>
-      </c>
-      <c r="AR39">
-        <v>-11109000000</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>50672000000</v>
-      </c>
-      <c r="AU39">
-        <v>50672000000</v>
-      </c>
-      <c r="AV39">
-        <v>352755000000</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>352755000000</v>
-      </c>
-      <c r="AY39">
-        <v>145463000000</v>
-      </c>
-      <c r="AZ39">
-        <v>120069000000</v>
-      </c>
-      <c r="BA39">
-        <v>96423000000</v>
-      </c>
-      <c r="BB39" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC39" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BB11" r:id="rId1"/>
-    <hyperlink ref="BC11" r:id="rId2"/>
-    <hyperlink ref="BB12" r:id="rId3"/>
-    <hyperlink ref="BC12" r:id="rId4"/>
-    <hyperlink ref="BB13" r:id="rId5"/>
-    <hyperlink ref="BC13" r:id="rId6"/>
-    <hyperlink ref="BB14" r:id="rId7"/>
-    <hyperlink ref="BC14" r:id="rId8"/>
-    <hyperlink ref="BB16" r:id="rId9"/>
-    <hyperlink ref="BC16" r:id="rId10"/>
-    <hyperlink ref="BB17" r:id="rId11"/>
-    <hyperlink ref="BC17" r:id="rId12"/>
-    <hyperlink ref="BB18" r:id="rId13"/>
-    <hyperlink ref="BC18" r:id="rId14"/>
-    <hyperlink ref="BB19" r:id="rId15"/>
-    <hyperlink ref="BC19" r:id="rId16"/>
-    <hyperlink ref="BB20" r:id="rId17"/>
-    <hyperlink ref="BC20" r:id="rId18"/>
-    <hyperlink ref="BB21" r:id="rId19"/>
-    <hyperlink ref="BC21" r:id="rId20"/>
-    <hyperlink ref="BB22" r:id="rId21"/>
-    <hyperlink ref="BC22" r:id="rId22"/>
-    <hyperlink ref="BB23" r:id="rId23"/>
-    <hyperlink ref="BC23" r:id="rId24"/>
-    <hyperlink ref="BB24" r:id="rId25"/>
-    <hyperlink ref="BC24" r:id="rId26"/>
-    <hyperlink ref="BB25" r:id="rId27"/>
-    <hyperlink ref="BC25" r:id="rId28"/>
-    <hyperlink ref="BB26" r:id="rId29"/>
-    <hyperlink ref="BC26" r:id="rId30"/>
-    <hyperlink ref="BB27" r:id="rId31"/>
-    <hyperlink ref="BC27" r:id="rId32"/>
-    <hyperlink ref="BB28" r:id="rId33"/>
-    <hyperlink ref="BC28" r:id="rId34"/>
-    <hyperlink ref="BB29" r:id="rId35"/>
-    <hyperlink ref="BC29" r:id="rId36"/>
-    <hyperlink ref="BB30" r:id="rId37"/>
-    <hyperlink ref="BC30" r:id="rId38"/>
-    <hyperlink ref="BB31" r:id="rId39"/>
-    <hyperlink ref="BC31" r:id="rId40"/>
-    <hyperlink ref="BB32" r:id="rId41"/>
-    <hyperlink ref="BC32" r:id="rId42"/>
-    <hyperlink ref="BB33" r:id="rId43"/>
-    <hyperlink ref="BC33" r:id="rId44"/>
-    <hyperlink ref="BB34" r:id="rId45"/>
-    <hyperlink ref="BC34" r:id="rId46"/>
-    <hyperlink ref="BB35" r:id="rId47"/>
-    <hyperlink ref="BC35" r:id="rId48"/>
-    <hyperlink ref="BB36" r:id="rId49"/>
-    <hyperlink ref="BC36" r:id="rId50"/>
-    <hyperlink ref="BB37" r:id="rId51"/>
-    <hyperlink ref="BC37" r:id="rId52"/>
-    <hyperlink ref="BB38" r:id="rId53"/>
-    <hyperlink ref="BC38" r:id="rId54"/>
-    <hyperlink ref="BB39" r:id="rId55"/>
-    <hyperlink ref="BC39" r:id="rId56"/>
+    <hyperlink ref="BB7" r:id="rId1"/>
+    <hyperlink ref="BC7" r:id="rId2"/>
+    <hyperlink ref="BB8" r:id="rId3"/>
+    <hyperlink ref="BC8" r:id="rId4"/>
+    <hyperlink ref="BB9" r:id="rId5"/>
+    <hyperlink ref="BC9" r:id="rId6"/>
+    <hyperlink ref="BB10" r:id="rId7"/>
+    <hyperlink ref="BC10" r:id="rId8"/>
+    <hyperlink ref="BB12" r:id="rId9"/>
+    <hyperlink ref="BC12" r:id="rId10"/>
+    <hyperlink ref="BB13" r:id="rId11"/>
+    <hyperlink ref="BC13" r:id="rId12"/>
+    <hyperlink ref="BB14" r:id="rId13"/>
+    <hyperlink ref="BC14" r:id="rId14"/>
+    <hyperlink ref="BB15" r:id="rId15"/>
+    <hyperlink ref="BC15" r:id="rId16"/>
+    <hyperlink ref="BB16" r:id="rId17"/>
+    <hyperlink ref="BC16" r:id="rId18"/>
+    <hyperlink ref="BB17" r:id="rId19"/>
+    <hyperlink ref="BC17" r:id="rId20"/>
+    <hyperlink ref="BB18" r:id="rId21"/>
+    <hyperlink ref="BC18" r:id="rId22"/>
+    <hyperlink ref="BB19" r:id="rId23"/>
+    <hyperlink ref="BC19" r:id="rId24"/>
+    <hyperlink ref="BB20" r:id="rId25"/>
+    <hyperlink ref="BC20" r:id="rId26"/>
+    <hyperlink ref="BB21" r:id="rId27"/>
+    <hyperlink ref="BC21" r:id="rId28"/>
+    <hyperlink ref="BB22" r:id="rId29"/>
+    <hyperlink ref="BC22" r:id="rId30"/>
+    <hyperlink ref="BB23" r:id="rId31"/>
+    <hyperlink ref="BC23" r:id="rId32"/>
+    <hyperlink ref="BB24" r:id="rId33"/>
+    <hyperlink ref="BC24" r:id="rId34"/>
+    <hyperlink ref="BB25" r:id="rId35"/>
+    <hyperlink ref="BC25" r:id="rId36"/>
+    <hyperlink ref="BB26" r:id="rId37"/>
+    <hyperlink ref="BC26" r:id="rId38"/>
+    <hyperlink ref="BB27" r:id="rId39"/>
+    <hyperlink ref="BC27" r:id="rId40"/>
+    <hyperlink ref="BB28" r:id="rId41"/>
+    <hyperlink ref="BC28" r:id="rId42"/>
+    <hyperlink ref="BB29" r:id="rId43"/>
+    <hyperlink ref="BC29" r:id="rId44"/>
+    <hyperlink ref="BB30" r:id="rId45"/>
+    <hyperlink ref="BC30" r:id="rId46"/>
+    <hyperlink ref="BB31" r:id="rId47"/>
+    <hyperlink ref="BC31" r:id="rId48"/>
+    <hyperlink ref="BB32" r:id="rId49"/>
+    <hyperlink ref="BC32" r:id="rId50"/>
+    <hyperlink ref="BB33" r:id="rId51"/>
+    <hyperlink ref="BC33" r:id="rId52"/>
+    <hyperlink ref="BB34" r:id="rId53"/>
+    <hyperlink ref="BC34" r:id="rId54"/>
+    <hyperlink ref="BB35" r:id="rId55"/>
+    <hyperlink ref="BC35" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
   <si>
     <t>date</t>
   </si>
@@ -181,6 +181,78 @@
     <t>index</t>
   </si>
   <si>
+    <t>AAPL-FY-1989</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1990</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1991</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1992</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1993</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1994</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1995</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1996</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1997</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1998</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1999</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2000</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2001</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2002</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2003</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2004</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2005</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2006</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2007</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2008</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2009</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2010</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2011</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2012</t>
+  </si>
+  <si>
     <t>AAPL-FY-2013</t>
   </si>
   <si>
@@ -220,6 +292,78 @@
     <t>0000320193</t>
   </si>
   <si>
+    <t>1989-09-30</t>
+  </si>
+  <si>
+    <t>1990-09-30</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
+  </si>
+  <si>
+    <t>1992-09-30</t>
+  </si>
+  <si>
+    <t>1993-09-30</t>
+  </si>
+  <si>
+    <t>1994-12-13</t>
+  </si>
+  <si>
+    <t>1995-12-19</t>
+  </si>
+  <si>
+    <t>1996-12-19</t>
+  </si>
+  <si>
+    <t>1997-12-05</t>
+  </si>
+  <si>
+    <t>1998-09-25</t>
+  </si>
+  <si>
+    <t>1999-12-22</t>
+  </si>
+  <si>
+    <t>2000-12-14</t>
+  </si>
+  <si>
+    <t>2001-12-21</t>
+  </si>
+  <si>
+    <t>2002-12-19</t>
+  </si>
+  <si>
+    <t>2003-12-19</t>
+  </si>
+  <si>
+    <t>2004-12-03</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-12-29</t>
+  </si>
+  <si>
+    <t>2007-11-15</t>
+  </si>
+  <si>
+    <t>2008-11-05</t>
+  </si>
+  <si>
+    <t>2009-10-27</t>
+  </si>
+  <si>
+    <t>2010-10-27</t>
+  </si>
+  <si>
+    <t>2011-10-26</t>
+  </si>
+  <si>
+    <t>2012-10-31</t>
+  </si>
+  <si>
     <t>2013-10-30</t>
   </si>
   <si>
@@ -250,6 +394,78 @@
     <t>2022-10-28</t>
   </si>
   <si>
+    <t>1989-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1990-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1991-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1992-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1993-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1994-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>1995-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1996-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1997-12-05 00:00:00</t>
+  </si>
+  <si>
+    <t>1998-09-24 20:00:00</t>
+  </si>
+  <si>
+    <t>1999-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2000-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2001-12-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2002-12-19 17:20:21</t>
+  </si>
+  <si>
+    <t>2003-12-19 17:25:45</t>
+  </si>
+  <si>
+    <t>2004-12-02 18:05:49</t>
+  </si>
+  <si>
+    <t>2005-11-30 21:22:48</t>
+  </si>
+  <si>
+    <t>2006-12-29 06:05:58</t>
+  </si>
+  <si>
+    <t>2007-11-15 16:49:37</t>
+  </si>
+  <si>
+    <t>2008-11-05 06:16:23</t>
+  </si>
+  <si>
+    <t>2009-10-27 16:18:29</t>
+  </si>
+  <si>
+    <t>2010-10-27 16:36:21</t>
+  </si>
+  <si>
+    <t>2011-10-26 16:35:25</t>
+  </si>
+  <si>
+    <t>2012-10-31 17:07:19</t>
+  </si>
+  <si>
     <t>2013-10-29 20:38:28</t>
   </si>
   <si>
@@ -280,6 +496,78 @@
     <t>2022-10-27 18:01:14</t>
   </si>
   <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -313,6 +601,60 @@
     <t>FY</t>
   </si>
   <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019394000016/0000320193-94-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019395000016/0000320193-95-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019396000023/0000320193-96-000023-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746997006960/0001047469-97-006960-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205799010244/0000912057-99-010244-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/0000912057-00-053623-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205701544436/a2066171z10-k405.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/0001047469-02-007674-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746903041604/a2124888z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746904035975/a2147337z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465905058421/a05-20674_110k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465906084288/a06-25759_210k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/0001047469-07-009340-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/0001193125-08-224958-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/0001193125-09-214859-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/0001193125-10-238044-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/0001193125-11-282113-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/0001193125-12-444068-index.html</t>
+  </si>
+  <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/0001193125-13-416534-index.html</t>
   </si>
   <si>
@@ -341,6 +683,45 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-94-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-95-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-96-000023.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0001047469-97-006960.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000912057-99-010244.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/a2032880z10-k.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/a2096490z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/a2181030z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/d220209d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/d411355d10k.htm</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/d590790d10k.htm</t>
@@ -745,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -923,112 +1304,112 @@
         <v>55</v>
       </c>
       <c r="B2" s="2">
-        <v>41545</v>
+        <v>32781</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J2">
-        <v>14259000000</v>
+        <v>438300000</v>
       </c>
       <c r="K2">
-        <v>26287000000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>40546000000</v>
+        <v>438300000</v>
       </c>
       <c r="M2">
-        <v>20641000000</v>
+        <v>792800000</v>
       </c>
       <c r="N2">
-        <v>1764000000</v>
+        <v>475400000</v>
       </c>
       <c r="O2">
-        <v>10335000000</v>
+        <v>587900000</v>
       </c>
       <c r="P2">
-        <v>73286000000</v>
+        <v>2294400000</v>
       </c>
       <c r="Q2">
-        <v>16597000000</v>
+        <v>334200000</v>
       </c>
       <c r="R2">
-        <v>1577000000</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4179000000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5756000000</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>106215000000</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>5146000000</v>
+        <v>115300000</v>
       </c>
       <c r="X2">
-        <v>133714000000</v>
+        <v>449500000</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>207000000000</v>
+        <v>2743900000</v>
       </c>
       <c r="AA2">
-        <v>22367000000</v>
+        <v>334200000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>56800000</v>
       </c>
       <c r="AC2">
-        <v>1200000000</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7435000000</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12656000000</v>
+        <v>504300000</v>
       </c>
       <c r="AF2">
-        <v>43658000000</v>
+        <v>895300000</v>
       </c>
       <c r="AG2">
-        <v>16960000000</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2625000000</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16489000000</v>
+        <v>362900000</v>
       </c>
       <c r="AJ2">
-        <v>3719000000</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>39793000000</v>
+        <v>362900000</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1037,52 +1418,46 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>83451000000</v>
+        <v>1258200000</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>19764000000</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>104256000000</v>
+        <v>1175900000</v>
       </c>
       <c r="AR2">
-        <v>-471000000</v>
+        <v>-309100000</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>618900000</v>
       </c>
       <c r="AT2">
-        <v>123549000000</v>
+        <v>1485700000</v>
       </c>
       <c r="AU2">
-        <v>123549000000</v>
+        <v>1485700000</v>
       </c>
       <c r="AV2">
-        <v>207000000000</v>
+        <v>2743900000</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>207000000000</v>
+        <v>2743900000</v>
       </c>
       <c r="AY2">
-        <v>132502000000</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>16960000000</v>
+        <v>56800000</v>
       </c>
       <c r="BA2">
-        <v>2701000000</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>109</v>
+        <v>-381500000</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1090,112 +1465,112 @@
         <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>41909</v>
+        <v>33146</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J3">
-        <v>13844000000</v>
+        <v>374700000</v>
       </c>
       <c r="K3">
-        <v>11233000000</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25077000000</v>
+        <v>374700000</v>
       </c>
       <c r="M3">
-        <v>27219000000</v>
+        <v>761900000</v>
       </c>
       <c r="N3">
-        <v>2111000000</v>
+        <v>355500000</v>
       </c>
       <c r="O3">
-        <v>14124000000</v>
+        <v>911200000</v>
       </c>
       <c r="P3">
-        <v>68531000000</v>
+        <v>2403300000</v>
       </c>
       <c r="Q3">
-        <v>20624000000</v>
+        <v>398200000</v>
       </c>
       <c r="R3">
-        <v>4616000000</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4142000000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>8758000000</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>130162000000</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3764000000</v>
+        <v>174200000</v>
       </c>
       <c r="X3">
-        <v>163308000000</v>
+        <v>572400000</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>231839000000</v>
+        <v>2975700000</v>
       </c>
       <c r="AA3">
-        <v>30196000000</v>
+        <v>340600000</v>
       </c>
       <c r="AB3">
-        <v>6308000000</v>
+        <v>122600000</v>
       </c>
       <c r="AC3">
-        <v>1209000000</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8491000000</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>17244000000</v>
+        <v>563800000</v>
       </c>
       <c r="AF3">
-        <v>63448000000</v>
+        <v>1027000000</v>
       </c>
       <c r="AG3">
-        <v>28987000000</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3031000000</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>20259000000</v>
+        <v>501800000</v>
       </c>
       <c r="AJ3">
-        <v>4567000000</v>
+        <v>100000</v>
       </c>
       <c r="AK3">
-        <v>56844000000</v>
+        <v>501900000</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1204,52 +1579,46 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>120292000000</v>
+        <v>1528900000</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>23313000000</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>87152000000</v>
+        <v>1312200000</v>
       </c>
       <c r="AR3">
-        <v>1082000000</v>
+        <v>-446700000</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>581300000</v>
       </c>
       <c r="AT3">
-        <v>111547000000</v>
+        <v>1446800000</v>
       </c>
       <c r="AU3">
-        <v>111547000000</v>
+        <v>1446800000</v>
       </c>
       <c r="AV3">
-        <v>231839000000</v>
+        <v>2975700000</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>231839000000</v>
+        <v>2975700000</v>
       </c>
       <c r="AY3">
-        <v>141395000000</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>35295000000</v>
+        <v>122600000</v>
       </c>
       <c r="BA3">
-        <v>21451000000</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>110</v>
+        <v>-252100000</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1257,112 +1626,112 @@
         <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>42273</v>
+        <v>33511</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J4">
-        <v>21120000000</v>
+        <v>604100000</v>
       </c>
       <c r="K4">
-        <v>20481000000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>41601000000</v>
+        <v>604100000</v>
       </c>
       <c r="M4">
-        <v>30343000000</v>
+        <v>907200000</v>
       </c>
       <c r="N4">
-        <v>2349000000</v>
+        <v>671700000</v>
       </c>
       <c r="O4">
-        <v>15085000000</v>
+        <v>680600000</v>
       </c>
       <c r="P4">
-        <v>89378000000</v>
+        <v>2863600000</v>
       </c>
       <c r="Q4">
-        <v>22471000000</v>
+        <v>448000000</v>
       </c>
       <c r="R4">
-        <v>5116000000</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3893000000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9009000000</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>164065000000</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>5556000000</v>
+        <v>182000000</v>
       </c>
       <c r="X4">
-        <v>201101000000</v>
+        <v>630000000</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>290479000000</v>
+        <v>3493600000</v>
       </c>
       <c r="AA4">
-        <v>35490000000</v>
+        <v>357100000</v>
       </c>
       <c r="AB4">
-        <v>10999000000</v>
+        <v>148600000</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>8940000000</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>25181000000</v>
+        <v>711400000</v>
       </c>
       <c r="AF4">
-        <v>80610000000</v>
+        <v>1217100000</v>
       </c>
       <c r="AG4">
-        <v>53463000000</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3624000000</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>24062000000</v>
+        <v>509900000</v>
       </c>
       <c r="AJ4">
-        <v>9365000000</v>
+        <v>-100000</v>
       </c>
       <c r="AK4">
-        <v>90514000000</v>
+        <v>509800000</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1371,52 +1740,46 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>171124000000</v>
+        <v>1726900000</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>27416000000</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>92284000000</v>
+        <v>1492000000</v>
       </c>
       <c r="AR4">
-        <v>-345000000</v>
+        <v>-588000000</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>862700000</v>
       </c>
       <c r="AT4">
-        <v>119355000000</v>
+        <v>1766700000</v>
       </c>
       <c r="AU4">
-        <v>119355000000</v>
+        <v>1766700000</v>
       </c>
       <c r="AV4">
-        <v>290479000000</v>
+        <v>3493600000</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>290479000000</v>
+        <v>3493600000</v>
       </c>
       <c r="AY4">
-        <v>184546000000</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>64462000000</v>
+        <v>148600000</v>
       </c>
       <c r="BA4">
-        <v>43342000000</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>111</v>
+        <v>-455500000</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1424,112 +1787,112 @@
         <v>58</v>
       </c>
       <c r="B5" s="2">
-        <v>42637</v>
+        <v>33877</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J5">
-        <v>20484000000</v>
+        <v>498600000</v>
       </c>
       <c r="K5">
-        <v>46671000000</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>67155000000</v>
+        <v>498600000</v>
       </c>
       <c r="M5">
-        <v>29299000000</v>
+        <v>1087200000</v>
       </c>
       <c r="N5">
-        <v>2132000000</v>
+        <v>580100000</v>
       </c>
       <c r="O5">
-        <v>8283000000</v>
+        <v>1392500000</v>
       </c>
       <c r="P5">
-        <v>106869000000</v>
+        <v>3558400000</v>
       </c>
       <c r="Q5">
-        <v>27010000000</v>
+        <v>462200000</v>
       </c>
       <c r="R5">
-        <v>5414000000</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3206000000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>8620000000</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>170430000000</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8757000000</v>
+        <v>203100000</v>
       </c>
       <c r="X5">
-        <v>214817000000</v>
+        <v>665300000</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>321686000000</v>
+        <v>4223700000</v>
       </c>
       <c r="AA5">
-        <v>37294000000</v>
+        <v>426900000</v>
       </c>
       <c r="AB5">
-        <v>11605000000</v>
+        <v>184500000</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>8080000000</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>22027000000</v>
+        <v>814100000</v>
       </c>
       <c r="AF5">
-        <v>79006000000</v>
+        <v>1425500000</v>
       </c>
       <c r="AG5">
-        <v>75427000000</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2930000000</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>26019000000</v>
+        <v>610800000</v>
       </c>
       <c r="AJ5">
-        <v>10055000000</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>114431000000</v>
+        <v>610800000</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1538,52 +1901,46 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>193437000000</v>
+        <v>2036300000</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>31251000000</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>96364000000</v>
+        <v>1904500000</v>
       </c>
       <c r="AR5">
-        <v>634000000</v>
+        <v>-673400000</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>956300000</v>
       </c>
       <c r="AT5">
-        <v>128249000000</v>
+        <v>2187400000</v>
       </c>
       <c r="AU5">
-        <v>128249000000</v>
+        <v>2187400000</v>
       </c>
       <c r="AV5">
-        <v>321686000000</v>
+        <v>4223700000</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>321686000000</v>
+        <v>4223700000</v>
       </c>
       <c r="AY5">
-        <v>217101000000</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>87032000000</v>
+        <v>184500000</v>
       </c>
       <c r="BA5">
-        <v>66548000000</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>112</v>
+        <v>-314100000</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1591,112 +1948,112 @@
         <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>43008</v>
+        <v>34242</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J6">
-        <v>20289000000</v>
+        <v>676400000</v>
       </c>
       <c r="K6">
-        <v>53892000000</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>74181000000</v>
+        <v>676400000</v>
       </c>
       <c r="M6">
-        <v>35673000000</v>
+        <v>1381900000</v>
       </c>
       <c r="N6">
-        <v>4855000000</v>
+        <v>1506600000</v>
       </c>
       <c r="O6">
-        <v>13936000000</v>
+        <v>773500000</v>
       </c>
       <c r="P6">
-        <v>128645000000</v>
+        <v>4338400000</v>
       </c>
       <c r="Q6">
-        <v>33783000000</v>
+        <v>659500000</v>
       </c>
       <c r="R6">
-        <v>5717000000</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2298000000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8015000000</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>194714000000</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>10162000000</v>
+        <v>173500000</v>
       </c>
       <c r="X6">
-        <v>246674000000</v>
+        <v>833000000</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>375319000000</v>
+        <v>5171400000</v>
       </c>
       <c r="AA6">
-        <v>49049000000</v>
+        <v>742600000</v>
       </c>
       <c r="AB6">
-        <v>18473000000</v>
+        <v>823200000</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>7548000000</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>25744000000</v>
+        <v>949400000</v>
       </c>
       <c r="AF6">
-        <v>100814000000</v>
+        <v>2515200000</v>
       </c>
       <c r="AG6">
-        <v>97207000000</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2836000000</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>31504000000</v>
+        <v>629800000</v>
       </c>
       <c r="AJ6">
-        <v>8911000000</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>140458000000</v>
+        <v>629800000</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1705,52 +2062,46 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>241272000000</v>
+        <v>3145000000</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>35867000000</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>98330000000</v>
+        <v>1842600000</v>
       </c>
       <c r="AR6">
-        <v>-150000000</v>
+        <v>-753100000</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>936900000</v>
       </c>
       <c r="AT6">
-        <v>134047000000</v>
+        <v>2026400000</v>
       </c>
       <c r="AU6">
-        <v>134047000000</v>
+        <v>2026400000</v>
       </c>
       <c r="AV6">
-        <v>375319000000</v>
+        <v>5171400000</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>375319000000</v>
+        <v>5171400000</v>
       </c>
       <c r="AY6">
-        <v>248606000000</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>115680000000</v>
+        <v>823200000</v>
       </c>
       <c r="BA6">
-        <v>95391000000</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>113</v>
+        <v>146800000</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -1758,52 +2109,52 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>43372</v>
+        <v>34607</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J7">
-        <v>25913000000</v>
+        <v>1203488000</v>
       </c>
       <c r="K7">
-        <v>40388000000</v>
+        <v>54368000</v>
       </c>
       <c r="L7">
-        <v>66301000000</v>
+        <v>1257856000</v>
       </c>
       <c r="M7">
-        <v>48995000000</v>
+        <v>1581347000</v>
       </c>
       <c r="N7">
-        <v>3956000000</v>
+        <v>1088434000</v>
       </c>
       <c r="O7">
-        <v>12087000000</v>
+        <v>548815000</v>
       </c>
       <c r="P7">
-        <v>131339000000</v>
+        <v>4476452000</v>
       </c>
       <c r="Q7">
-        <v>41304000000</v>
+        <v>667100000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1815,55 +2166,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>170799000000</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>22283000000</v>
+        <v>159194000</v>
       </c>
       <c r="X7">
-        <v>234386000000</v>
+        <v>826294000</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>365725000000</v>
+        <v>5302746000</v>
       </c>
       <c r="AA7">
-        <v>55888000000</v>
+        <v>881717000</v>
       </c>
       <c r="AB7">
-        <v>20748000000</v>
+        <v>292200000</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>7543000000</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>32687000000</v>
+        <v>770388000</v>
       </c>
       <c r="AF7">
-        <v>116866000000</v>
+        <v>1944305000</v>
       </c>
       <c r="AG7">
-        <v>93735000000</v>
+        <v>304000000</v>
       </c>
       <c r="AH7">
-        <v>2797000000</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>426000000</v>
+        <v>670668000</v>
       </c>
       <c r="AJ7">
-        <v>44754000000</v>
+        <v>472000</v>
       </c>
       <c r="AK7">
-        <v>141712000000</v>
+        <v>975140000</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1872,52 +2223,52 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>258578000000</v>
+        <v>2919445000</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>40201000000</v>
+        <v>297929000</v>
       </c>
       <c r="AQ7">
-        <v>70400000000</v>
+        <v>2096206000</v>
       </c>
       <c r="AR7">
-        <v>-3454000000</v>
+        <v>-785088000</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>774254000</v>
       </c>
       <c r="AT7">
-        <v>107147000000</v>
+        <v>2383301000</v>
       </c>
       <c r="AU7">
-        <v>107147000000</v>
+        <v>2383301000</v>
       </c>
       <c r="AV7">
-        <v>365725000000</v>
+        <v>5302746000</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>365725000000</v>
+        <v>5302746000</v>
       </c>
       <c r="AY7">
-        <v>211187000000</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>114483000000</v>
+        <v>596200000</v>
       </c>
       <c r="BA7">
-        <v>88570000000</v>
+        <v>-607288000</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -1925,52 +2276,52 @@
         <v>61</v>
       </c>
       <c r="B8" s="2">
-        <v>43736</v>
+        <v>34971</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J8">
-        <v>48844000000</v>
+        <v>756000000</v>
       </c>
       <c r="K8">
-        <v>51713000000</v>
+        <v>196000000</v>
       </c>
       <c r="L8">
-        <v>100557000000</v>
+        <v>952000000</v>
       </c>
       <c r="M8">
-        <v>45804000000</v>
+        <v>1931000000</v>
       </c>
       <c r="N8">
-        <v>4106000000</v>
+        <v>1775000000</v>
       </c>
       <c r="O8">
-        <v>12352000000</v>
+        <v>566000000</v>
       </c>
       <c r="P8">
-        <v>162819000000</v>
+        <v>5224000000</v>
       </c>
       <c r="Q8">
-        <v>37378000000</v>
+        <v>711000000</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1982,43 +2333,43 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>105341000000</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>702000000</v>
       </c>
       <c r="W8">
-        <v>32978000000</v>
+        <v>-406000000</v>
       </c>
       <c r="X8">
-        <v>175697000000</v>
+        <v>1007000000</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>338516000000</v>
+        <v>6231000000</v>
       </c>
       <c r="AA8">
-        <v>46236000000</v>
+        <v>1165000000</v>
       </c>
       <c r="AB8">
-        <v>16240000000</v>
+        <v>461000000</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>5522000000</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>37720000000</v>
+        <v>699000000</v>
       </c>
       <c r="AF8">
-        <v>105718000000</v>
+        <v>2325000000</v>
       </c>
       <c r="AG8">
-        <v>91807000000</v>
+        <v>303000000</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2027,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>50503000000</v>
+        <v>702000000</v>
       </c>
       <c r="AK8">
-        <v>142310000000</v>
+        <v>1005000000</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2039,52 +2390,52 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>248028000000</v>
+        <v>3330000000</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>45174000000</v>
+        <v>398000000</v>
       </c>
       <c r="AQ8">
-        <v>45898000000</v>
+        <v>2464000000</v>
       </c>
       <c r="AR8">
-        <v>-584000000</v>
+        <v>78000000</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>-39000000</v>
       </c>
       <c r="AT8">
-        <v>90488000000</v>
+        <v>2901000000</v>
       </c>
       <c r="AU8">
-        <v>90488000000</v>
+        <v>2901000000</v>
       </c>
       <c r="AV8">
-        <v>338516000000</v>
+        <v>6231000000</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>338516000000</v>
+        <v>6231000000</v>
       </c>
       <c r="AY8">
-        <v>157054000000</v>
+        <v>196000000</v>
       </c>
       <c r="AZ8">
-        <v>108047000000</v>
+        <v>764000000</v>
       </c>
       <c r="BA8">
-        <v>59203000000</v>
+        <v>8000000</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2092,52 +2443,52 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>44100</v>
+        <v>35335</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J9">
-        <v>38016000000</v>
+        <v>1552000000</v>
       </c>
       <c r="K9">
-        <v>52927000000</v>
+        <v>193000000</v>
       </c>
       <c r="L9">
-        <v>90943000000</v>
+        <v>1745000000</v>
       </c>
       <c r="M9">
-        <v>37445000000</v>
+        <v>1496000000</v>
       </c>
       <c r="N9">
-        <v>4061000000</v>
+        <v>662000000</v>
       </c>
       <c r="O9">
-        <v>11264000000</v>
+        <v>612000000</v>
       </c>
       <c r="P9">
-        <v>143713000000</v>
+        <v>4515000000</v>
       </c>
       <c r="Q9">
-        <v>36766000000</v>
+        <v>598000000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2149,43 +2500,43 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>100887000000</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>354000000</v>
       </c>
       <c r="W9">
-        <v>42522000000</v>
+        <v>-103000000</v>
       </c>
       <c r="X9">
-        <v>180175000000</v>
+        <v>849000000</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>323888000000</v>
+        <v>5364000000</v>
       </c>
       <c r="AA9">
-        <v>42296000000</v>
+        <v>791000000</v>
       </c>
       <c r="AB9">
-        <v>13769000000</v>
+        <v>186000000</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>6643000000</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>42684000000</v>
+        <v>1026000000</v>
       </c>
       <c r="AF9">
-        <v>105392000000</v>
+        <v>2003000000</v>
       </c>
       <c r="AG9">
-        <v>98667000000</v>
+        <v>949000000</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2194,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>54490000000</v>
+        <v>354000000</v>
       </c>
       <c r="AK9">
-        <v>153157000000</v>
+        <v>1303000000</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2206,52 +2557,52 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>258549000000</v>
+        <v>3306000000</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>50779000000</v>
+        <v>439000000</v>
       </c>
       <c r="AQ9">
-        <v>14966000000</v>
+        <v>1634000000</v>
       </c>
       <c r="AR9">
-        <v>-406000000</v>
+        <v>-30000000</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AT9">
-        <v>65339000000</v>
+        <v>2058000000</v>
       </c>
       <c r="AU9">
-        <v>65339000000</v>
+        <v>2058000000</v>
       </c>
       <c r="AV9">
-        <v>323888000000</v>
+        <v>5364000000</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>323888000000</v>
+        <v>5364000000</v>
       </c>
       <c r="AY9">
-        <v>153814000000</v>
+        <v>193000000</v>
       </c>
       <c r="AZ9">
-        <v>112436000000</v>
+        <v>1135000000</v>
       </c>
       <c r="BA9">
-        <v>74420000000</v>
+        <v>-417000000</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2259,52 +2610,52 @@
         <v>63</v>
       </c>
       <c r="B10" s="2">
-        <v>44464</v>
+        <v>35699</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="J10">
-        <v>34940000000</v>
+        <v>1230000000</v>
       </c>
       <c r="K10">
-        <v>27699000000</v>
+        <v>229000000</v>
       </c>
       <c r="L10">
-        <v>62639000000</v>
+        <v>1459000000</v>
       </c>
       <c r="M10">
-        <v>51506000000</v>
+        <v>1035000000</v>
       </c>
       <c r="N10">
-        <v>6580000000</v>
+        <v>437000000</v>
       </c>
       <c r="O10">
-        <v>14111000000</v>
+        <v>493000000</v>
       </c>
       <c r="P10">
-        <v>134836000000</v>
+        <v>3424000000</v>
       </c>
       <c r="Q10">
-        <v>39440000000</v>
+        <v>486000000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2316,43 +2667,43 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>127877000000</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>264000000</v>
       </c>
       <c r="W10">
-        <v>48849000000</v>
+        <v>59000000</v>
       </c>
       <c r="X10">
-        <v>216166000000</v>
+        <v>809000000</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>351002000000</v>
+        <v>4233000000</v>
       </c>
       <c r="AA10">
-        <v>54763000000</v>
+        <v>685000000</v>
       </c>
       <c r="AB10">
-        <v>15613000000</v>
+        <v>25000000</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>7612000000</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>47493000000</v>
+        <v>1108000000</v>
       </c>
       <c r="AF10">
-        <v>125481000000</v>
+        <v>1818000000</v>
       </c>
       <c r="AG10">
-        <v>109106000000</v>
+        <v>951000000</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2361,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>53325000000</v>
+        <v>264000000</v>
       </c>
       <c r="AK10">
-        <v>162431000000</v>
+        <v>1215000000</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2373,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>287912000000</v>
+        <v>3033000000</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>57365000000</v>
+        <v>498000000</v>
       </c>
       <c r="AQ10">
-        <v>5562000000</v>
+        <v>589000000</v>
       </c>
       <c r="AR10">
-        <v>163000000</v>
+        <v>-74000000</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>187000000</v>
       </c>
       <c r="AT10">
-        <v>63090000000</v>
+        <v>1200000000</v>
       </c>
       <c r="AU10">
-        <v>63090000000</v>
+        <v>1200000000</v>
       </c>
       <c r="AV10">
-        <v>351002000000</v>
+        <v>4233000000</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>351002000000</v>
+        <v>4233000000</v>
       </c>
       <c r="AY10">
-        <v>155576000000</v>
+        <v>229000000</v>
       </c>
       <c r="AZ10">
-        <v>124719000000</v>
+        <v>976000000</v>
       </c>
       <c r="BA10">
-        <v>89779000000</v>
+        <v>-254000000</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2426,190 +2777,4228 @@
         <v>64</v>
       </c>
       <c r="B11" s="2">
+        <v>36063</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11">
+        <v>1481000000</v>
+      </c>
+      <c r="K11">
+        <v>819000000</v>
+      </c>
+      <c r="L11">
+        <v>2300000000</v>
+      </c>
+      <c r="M11">
+        <v>955000000</v>
+      </c>
+      <c r="N11">
+        <v>78000000</v>
+      </c>
+      <c r="O11">
+        <v>365000000</v>
+      </c>
+      <c r="P11">
+        <v>3698000000</v>
+      </c>
+      <c r="Q11">
+        <v>348000000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>173000000</v>
+      </c>
+      <c r="W11">
+        <v>70000000</v>
+      </c>
+      <c r="X11">
+        <v>591000000</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>4289000000</v>
+      </c>
+      <c r="AA11">
+        <v>719000000</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>801000000</v>
+      </c>
+      <c r="AF11">
+        <v>1520000000</v>
+      </c>
+      <c r="AG11">
+        <v>954000000</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>173000000</v>
+      </c>
+      <c r="AK11">
+        <v>1127000000</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>2647000000</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>633000000</v>
+      </c>
+      <c r="AQ11">
+        <v>898000000</v>
+      </c>
+      <c r="AR11">
+        <v>-39000000</v>
+      </c>
+      <c r="AS11">
+        <v>150000000</v>
+      </c>
+      <c r="AT11">
+        <v>1642000000</v>
+      </c>
+      <c r="AU11">
+        <v>1642000000</v>
+      </c>
+      <c r="AV11">
+        <v>4289000000</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>4289000000</v>
+      </c>
+      <c r="AY11">
+        <v>819000000</v>
+      </c>
+      <c r="AZ11">
+        <v>954000000</v>
+      </c>
+      <c r="BA11">
+        <v>-527000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36428</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12">
+        <v>1326000000</v>
+      </c>
+      <c r="K12">
+        <v>1900000000</v>
+      </c>
+      <c r="L12">
+        <v>3226000000</v>
+      </c>
+      <c r="M12">
+        <v>681000000</v>
+      </c>
+      <c r="N12">
+        <v>20000000</v>
+      </c>
+      <c r="O12">
+        <v>358000000</v>
+      </c>
+      <c r="P12">
+        <v>4285000000</v>
+      </c>
+      <c r="Q12">
+        <v>318000000</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>339000000</v>
+      </c>
+      <c r="V12">
+        <v>208000000</v>
+      </c>
+      <c r="W12">
+        <v>11000000</v>
+      </c>
+      <c r="X12">
+        <v>876000000</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>5161000000</v>
+      </c>
+      <c r="AA12">
+        <v>812000000</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>737000000</v>
+      </c>
+      <c r="AF12">
+        <v>1549000000</v>
+      </c>
+      <c r="AG12">
+        <v>300000000</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>208000000</v>
+      </c>
+      <c r="AK12">
+        <v>508000000</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>2057000000</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1349000000</v>
+      </c>
+      <c r="AQ12">
+        <v>1499000000</v>
+      </c>
+      <c r="AR12">
+        <v>106000000</v>
+      </c>
+      <c r="AS12">
+        <v>150000000</v>
+      </c>
+      <c r="AT12">
+        <v>3104000000</v>
+      </c>
+      <c r="AU12">
+        <v>3104000000</v>
+      </c>
+      <c r="AV12">
+        <v>5161000000</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>5161000000</v>
+      </c>
+      <c r="AY12">
+        <v>2239000000</v>
+      </c>
+      <c r="AZ12">
+        <v>300000000</v>
+      </c>
+      <c r="BA12">
+        <v>-1026000000</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13">
+        <v>1191000000</v>
+      </c>
+      <c r="K13">
+        <v>2836000000</v>
+      </c>
+      <c r="L13">
+        <v>4027000000</v>
+      </c>
+      <c r="M13">
+        <v>953000000</v>
+      </c>
+      <c r="N13">
+        <v>33000000</v>
+      </c>
+      <c r="O13">
+        <v>414000000</v>
+      </c>
+      <c r="P13">
+        <v>5427000000</v>
+      </c>
+      <c r="Q13">
+        <v>313000000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1063000000</v>
+      </c>
+      <c r="X13">
+        <v>1376000000</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>6803000000</v>
+      </c>
+      <c r="AA13">
+        <v>1157000000</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>776000000</v>
+      </c>
+      <c r="AF13">
+        <v>1933000000</v>
+      </c>
+      <c r="AG13">
+        <v>300000000</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>463000000</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>763000000</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>2696000000</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1502000000</v>
+      </c>
+      <c r="AQ13">
+        <v>2285000000</v>
+      </c>
+      <c r="AR13">
+        <v>-387000000</v>
+      </c>
+      <c r="AS13">
+        <v>707000000</v>
+      </c>
+      <c r="AT13">
+        <v>4107000000</v>
+      </c>
+      <c r="AU13">
+        <v>4107000000</v>
+      </c>
+      <c r="AV13">
+        <v>6803000000</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>6803000000</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>300000000</v>
+      </c>
+      <c r="BA13">
+        <v>-891000000</v>
+      </c>
+      <c r="BB13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14">
+        <v>2310000000</v>
+      </c>
+      <c r="K14">
+        <v>2026000000</v>
+      </c>
+      <c r="L14">
+        <v>4336000000</v>
+      </c>
+      <c r="M14">
+        <v>466000000</v>
+      </c>
+      <c r="N14">
+        <v>11000000</v>
+      </c>
+      <c r="O14">
+        <v>330000000</v>
+      </c>
+      <c r="P14">
+        <v>5143000000</v>
+      </c>
+      <c r="Q14">
+        <v>564000000</v>
+      </c>
+      <c r="R14">
+        <v>66000000</v>
+      </c>
+      <c r="S14">
+        <v>10000000</v>
+      </c>
+      <c r="T14">
+        <v>76000000</v>
+      </c>
+      <c r="U14">
+        <v>128000000</v>
+      </c>
+      <c r="V14">
+        <v>266000000</v>
+      </c>
+      <c r="W14">
+        <v>-156000000</v>
+      </c>
+      <c r="X14">
+        <v>878000000</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>6021000000</v>
+      </c>
+      <c r="AA14">
+        <v>801000000</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>717000000</v>
+      </c>
+      <c r="AF14">
+        <v>1518000000</v>
+      </c>
+      <c r="AG14">
+        <v>317000000</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>266000000</v>
+      </c>
+      <c r="AK14">
+        <v>583000000</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>2101000000</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1693000000</v>
+      </c>
+      <c r="AQ14">
+        <v>2260000000</v>
+      </c>
+      <c r="AR14">
+        <v>-33000000</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>3920000000</v>
+      </c>
+      <c r="AU14">
+        <v>3920000000</v>
+      </c>
+      <c r="AV14">
+        <v>6021000000</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>6021000000</v>
+      </c>
+      <c r="AY14">
+        <v>2154000000</v>
+      </c>
+      <c r="AZ14">
+        <v>317000000</v>
+      </c>
+      <c r="BA14">
+        <v>-1993000000</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37527</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15">
+        <v>2252000000</v>
+      </c>
+      <c r="K15">
+        <v>2085000000</v>
+      </c>
+      <c r="L15">
+        <v>4337000000</v>
+      </c>
+      <c r="M15">
+        <v>565000000</v>
+      </c>
+      <c r="N15">
+        <v>45000000</v>
+      </c>
+      <c r="O15">
+        <v>441000000</v>
+      </c>
+      <c r="P15">
+        <v>5388000000</v>
+      </c>
+      <c r="Q15">
+        <v>621000000</v>
+      </c>
+      <c r="R15">
+        <v>85000000</v>
+      </c>
+      <c r="S15">
+        <v>34000000</v>
+      </c>
+      <c r="T15">
+        <v>119000000</v>
+      </c>
+      <c r="U15">
+        <v>39000000</v>
+      </c>
+      <c r="V15">
+        <v>229000000</v>
+      </c>
+      <c r="W15">
+        <v>-98000000</v>
+      </c>
+      <c r="X15">
+        <v>910000000</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>6298000000</v>
+      </c>
+      <c r="AA15">
+        <v>911000000</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>747000000</v>
+      </c>
+      <c r="AF15">
+        <v>1658000000</v>
+      </c>
+      <c r="AG15">
+        <v>316000000</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>229000000</v>
+      </c>
+      <c r="AK15">
+        <v>545000000</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>2203000000</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1826000000</v>
+      </c>
+      <c r="AQ15">
+        <v>2325000000</v>
+      </c>
+      <c r="AR15">
+        <v>-56000000</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>4095000000</v>
+      </c>
+      <c r="AU15">
+        <v>4095000000</v>
+      </c>
+      <c r="AV15">
+        <v>6298000000</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>6298000000</v>
+      </c>
+      <c r="AY15">
+        <v>2124000000</v>
+      </c>
+      <c r="AZ15">
+        <v>316000000</v>
+      </c>
+      <c r="BA15">
+        <v>-1936000000</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37891</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16">
+        <v>3396000000</v>
+      </c>
+      <c r="K16">
+        <v>1170000000</v>
+      </c>
+      <c r="L16">
+        <v>4566000000</v>
+      </c>
+      <c r="M16">
+        <v>950000000</v>
+      </c>
+      <c r="N16">
+        <v>56000000</v>
+      </c>
+      <c r="O16">
+        <v>315000000</v>
+      </c>
+      <c r="P16">
+        <v>5887000000</v>
+      </c>
+      <c r="Q16">
+        <v>669000000</v>
+      </c>
+      <c r="R16">
+        <v>85000000</v>
+      </c>
+      <c r="S16">
+        <v>24000000</v>
+      </c>
+      <c r="T16">
+        <v>109000000</v>
+      </c>
+      <c r="U16">
+        <v>5000000</v>
+      </c>
+      <c r="V16">
+        <v>60000000</v>
+      </c>
+      <c r="W16">
+        <v>85000000</v>
+      </c>
+      <c r="X16">
+        <v>928000000</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>6815000000</v>
+      </c>
+      <c r="AA16">
+        <v>1154000000</v>
+      </c>
+      <c r="AB16">
+        <v>304000000</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>368000000</v>
+      </c>
+      <c r="AE16">
+        <v>531000000</v>
+      </c>
+      <c r="AF16">
+        <v>2357000000</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>235000000</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>235000000</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>2592000000</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1926000000</v>
+      </c>
+      <c r="AQ16">
+        <v>2394000000</v>
+      </c>
+      <c r="AR16">
+        <v>-35000000</v>
+      </c>
+      <c r="AS16">
+        <v>-62000000</v>
+      </c>
+      <c r="AT16">
+        <v>4223000000</v>
+      </c>
+      <c r="AU16">
+        <v>4223000000</v>
+      </c>
+      <c r="AV16">
+        <v>6815000000</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>6815000000</v>
+      </c>
+      <c r="AY16">
+        <v>1175000000</v>
+      </c>
+      <c r="AZ16">
+        <v>304000000</v>
+      </c>
+      <c r="BA16">
+        <v>-3092000000</v>
+      </c>
+      <c r="BB16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC16" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17">
+        <v>2969000000</v>
+      </c>
+      <c r="K17">
+        <v>2495000000</v>
+      </c>
+      <c r="L17">
+        <v>5464000000</v>
+      </c>
+      <c r="M17">
+        <v>1050000000</v>
+      </c>
+      <c r="N17">
+        <v>101000000</v>
+      </c>
+      <c r="O17">
+        <v>440000000</v>
+      </c>
+      <c r="P17">
+        <v>7055000000</v>
+      </c>
+      <c r="Q17">
+        <v>707000000</v>
+      </c>
+      <c r="R17">
+        <v>80000000</v>
+      </c>
+      <c r="S17">
+        <v>17000000</v>
+      </c>
+      <c r="T17">
+        <v>97000000</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>86000000</v>
+      </c>
+      <c r="W17">
+        <v>105000000</v>
+      </c>
+      <c r="X17">
+        <v>995000000</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>8050000000</v>
+      </c>
+      <c r="AA17">
+        <v>1451000000</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>544000000</v>
+      </c>
+      <c r="AE17">
+        <v>685000000</v>
+      </c>
+      <c r="AF17">
+        <v>2680000000</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>294000000</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>294000000</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>2974000000</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>2514000000</v>
+      </c>
+      <c r="AQ17">
+        <v>2670000000</v>
+      </c>
+      <c r="AR17">
+        <v>-15000000</v>
+      </c>
+      <c r="AS17">
+        <v>-93000000</v>
+      </c>
+      <c r="AT17">
+        <v>5076000000</v>
+      </c>
+      <c r="AU17">
+        <v>5076000000</v>
+      </c>
+      <c r="AV17">
+        <v>8050000000</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>8050000000</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>-2969000000</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38619</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18">
+        <v>3491000000</v>
+      </c>
+      <c r="K18">
+        <v>4770000000</v>
+      </c>
+      <c r="L18">
+        <v>8261000000</v>
+      </c>
+      <c r="M18">
+        <v>1312000000</v>
+      </c>
+      <c r="N18">
+        <v>165000000</v>
+      </c>
+      <c r="O18">
+        <v>562000000</v>
+      </c>
+      <c r="P18">
+        <v>10300000000</v>
+      </c>
+      <c r="Q18">
+        <v>817000000</v>
+      </c>
+      <c r="R18">
+        <v>69000000</v>
+      </c>
+      <c r="S18">
+        <v>27000000</v>
+      </c>
+      <c r="T18">
+        <v>96000000</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>183000000</v>
+      </c>
+      <c r="W18">
+        <v>155000000</v>
+      </c>
+      <c r="X18">
+        <v>1251000000</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>11551000000</v>
+      </c>
+      <c r="AA18">
+        <v>1779000000</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>501000000</v>
+      </c>
+      <c r="AE18">
+        <v>1204000000</v>
+      </c>
+      <c r="AF18">
+        <v>3484000000</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>281000000</v>
+      </c>
+      <c r="AI18">
+        <v>308000000</v>
+      </c>
+      <c r="AJ18">
+        <v>12000000</v>
+      </c>
+      <c r="AK18">
+        <v>601000000</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>4085000000</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3521000000</v>
+      </c>
+      <c r="AQ18">
+        <v>4005000000</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>-60000000</v>
+      </c>
+      <c r="AT18">
+        <v>7466000000</v>
+      </c>
+      <c r="AU18">
+        <v>7466000000</v>
+      </c>
+      <c r="AV18">
+        <v>11551000000</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>11551000000</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>-3491000000</v>
+      </c>
+      <c r="BB18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC18" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38990</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19">
+        <v>6392000000</v>
+      </c>
+      <c r="K19">
+        <v>3718000000</v>
+      </c>
+      <c r="L19">
+        <v>10110000000</v>
+      </c>
+      <c r="M19">
+        <v>2845000000</v>
+      </c>
+      <c r="N19">
+        <v>270000000</v>
+      </c>
+      <c r="O19">
+        <v>1284000000</v>
+      </c>
+      <c r="P19">
+        <v>14509000000</v>
+      </c>
+      <c r="Q19">
+        <v>1281000000</v>
+      </c>
+      <c r="R19">
+        <v>38000000</v>
+      </c>
+      <c r="S19">
+        <v>139000000</v>
+      </c>
+      <c r="T19">
+        <v>177000000</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1238000000</v>
+      </c>
+      <c r="X19">
+        <v>2696000000</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>17205000000</v>
+      </c>
+      <c r="AA19">
+        <v>3390000000</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>388000000</v>
+      </c>
+      <c r="AD19">
+        <v>746000000</v>
+      </c>
+      <c r="AE19">
+        <v>1947000000</v>
+      </c>
+      <c r="AF19">
+        <v>6471000000</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>355000000</v>
+      </c>
+      <c r="AI19">
+        <v>381000000</v>
+      </c>
+      <c r="AJ19">
+        <v>14000000</v>
+      </c>
+      <c r="AK19">
+        <v>750000000</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>7221000000</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>4355000000</v>
+      </c>
+      <c r="AQ19">
+        <v>5607000000</v>
+      </c>
+      <c r="AR19">
+        <v>22000000</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>9984000000</v>
+      </c>
+      <c r="AU19">
+        <v>9984000000</v>
+      </c>
+      <c r="AV19">
+        <v>17205000000</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>17205000000</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>-6392000000</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20">
+        <v>9352000000</v>
+      </c>
+      <c r="K20">
+        <v>6034000000</v>
+      </c>
+      <c r="L20">
+        <v>15386000000</v>
+      </c>
+      <c r="M20">
+        <v>4029000000</v>
+      </c>
+      <c r="N20">
+        <v>346000000</v>
+      </c>
+      <c r="O20">
+        <v>2195000000</v>
+      </c>
+      <c r="P20">
+        <v>21956000000</v>
+      </c>
+      <c r="Q20">
+        <v>1832000000</v>
+      </c>
+      <c r="R20">
+        <v>38000000</v>
+      </c>
+      <c r="S20">
+        <v>299000000</v>
+      </c>
+      <c r="T20">
+        <v>337000000</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>88000000</v>
+      </c>
+      <c r="W20">
+        <v>1134000000</v>
+      </c>
+      <c r="X20">
+        <v>3391000000</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>25347000000</v>
+      </c>
+      <c r="AA20">
+        <v>4970000000</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>488000000</v>
+      </c>
+      <c r="AD20">
+        <v>1410000000</v>
+      </c>
+      <c r="AE20">
+        <v>2431000000</v>
+      </c>
+      <c r="AF20">
+        <v>9299000000</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>830000000</v>
+      </c>
+      <c r="AI20">
+        <v>619000000</v>
+      </c>
+      <c r="AJ20">
+        <v>67000000</v>
+      </c>
+      <c r="AK20">
+        <v>1516000000</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>10815000000</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>5368000000</v>
+      </c>
+      <c r="AQ20">
+        <v>9101000000</v>
+      </c>
+      <c r="AR20">
+        <v>63000000</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>14532000000</v>
+      </c>
+      <c r="AU20">
+        <v>14532000000</v>
+      </c>
+      <c r="AV20">
+        <v>25347000000</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>25347000000</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>-9352000000</v>
+      </c>
+      <c r="BB20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC20" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39718</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21">
+        <v>11875000000</v>
+      </c>
+      <c r="K21">
+        <v>12615000000</v>
+      </c>
+      <c r="L21">
+        <v>24490000000</v>
+      </c>
+      <c r="M21">
+        <v>4704000000</v>
+      </c>
+      <c r="N21">
+        <v>509000000</v>
+      </c>
+      <c r="O21">
+        <v>4987000000</v>
+      </c>
+      <c r="P21">
+        <v>34690000000</v>
+      </c>
+      <c r="Q21">
+        <v>2455000000</v>
+      </c>
+      <c r="R21">
+        <v>207000000</v>
+      </c>
+      <c r="S21">
+        <v>285000000</v>
+      </c>
+      <c r="T21">
+        <v>492000000</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>138000000</v>
+      </c>
+      <c r="W21">
+        <v>1797000000</v>
+      </c>
+      <c r="X21">
+        <v>4882000000</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>39572000000</v>
+      </c>
+      <c r="AA21">
+        <v>5520000000</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>100000000</v>
+      </c>
+      <c r="AD21">
+        <v>4853000000</v>
+      </c>
+      <c r="AE21">
+        <v>3619000000</v>
+      </c>
+      <c r="AF21">
+        <v>14092000000</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>3029000000</v>
+      </c>
+      <c r="AI21">
+        <v>675000000</v>
+      </c>
+      <c r="AJ21">
+        <v>746000000</v>
+      </c>
+      <c r="AK21">
+        <v>4450000000</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>18542000000</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>7177000000</v>
+      </c>
+      <c r="AQ21">
+        <v>13845000000</v>
+      </c>
+      <c r="AR21">
+        <v>8000000</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>21030000000</v>
+      </c>
+      <c r="AU21">
+        <v>21030000000</v>
+      </c>
+      <c r="AV21">
+        <v>39572000000</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>39572000000</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>-11875000000</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC21" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40082</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22">
+        <v>5263000000</v>
+      </c>
+      <c r="K22">
+        <v>18201000000</v>
+      </c>
+      <c r="L22">
+        <v>23464000000</v>
+      </c>
+      <c r="M22">
+        <v>5057000000</v>
+      </c>
+      <c r="N22">
+        <v>455000000</v>
+      </c>
+      <c r="O22">
+        <v>7289000000</v>
+      </c>
+      <c r="P22">
+        <v>36265000000</v>
+      </c>
+      <c r="Q22">
+        <v>2954000000</v>
+      </c>
+      <c r="R22">
+        <v>206000000</v>
+      </c>
+      <c r="S22">
+        <v>247000000</v>
+      </c>
+      <c r="T22">
+        <v>453000000</v>
+      </c>
+      <c r="U22">
+        <v>10528000000</v>
+      </c>
+      <c r="V22">
+        <v>259000000</v>
+      </c>
+      <c r="W22">
+        <v>3392000000</v>
+      </c>
+      <c r="X22">
+        <v>17586000000</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>53851000000</v>
+      </c>
+      <c r="AA22">
+        <v>5601000000</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>439000000</v>
+      </c>
+      <c r="AD22">
+        <v>10305000000</v>
+      </c>
+      <c r="AE22">
+        <v>2937000000</v>
+      </c>
+      <c r="AF22">
+        <v>19282000000</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>4485000000</v>
+      </c>
+      <c r="AI22">
+        <v>966000000</v>
+      </c>
+      <c r="AJ22">
+        <v>1286000000</v>
+      </c>
+      <c r="AK22">
+        <v>6737000000</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>26019000000</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>8210000000</v>
+      </c>
+      <c r="AQ22">
+        <v>19538000000</v>
+      </c>
+      <c r="AR22">
+        <v>84000000</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>27832000000</v>
+      </c>
+      <c r="AU22">
+        <v>27832000000</v>
+      </c>
+      <c r="AV22">
+        <v>53851000000</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>53851000000</v>
+      </c>
+      <c r="AY22">
+        <v>28729000000</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>-5263000000</v>
+      </c>
+      <c r="BB22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC22" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23">
+        <v>11261000000</v>
+      </c>
+      <c r="K23">
+        <v>14359000000</v>
+      </c>
+      <c r="L23">
+        <v>25620000000</v>
+      </c>
+      <c r="M23">
+        <v>9924000000</v>
+      </c>
+      <c r="N23">
+        <v>1051000000</v>
+      </c>
+      <c r="O23">
+        <v>5083000000</v>
+      </c>
+      <c r="P23">
+        <v>41678000000</v>
+      </c>
+      <c r="Q23">
+        <v>4768000000</v>
+      </c>
+      <c r="R23">
+        <v>741000000</v>
+      </c>
+      <c r="S23">
+        <v>342000000</v>
+      </c>
+      <c r="T23">
+        <v>1083000000</v>
+      </c>
+      <c r="U23">
+        <v>25391000000</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2263000000</v>
+      </c>
+      <c r="X23">
+        <v>33505000000</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>75183000000</v>
+      </c>
+      <c r="AA23">
+        <v>12015000000</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>210000000</v>
+      </c>
+      <c r="AD23">
+        <v>2984000000</v>
+      </c>
+      <c r="AE23">
+        <v>5513000000</v>
+      </c>
+      <c r="AF23">
+        <v>20722000000</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1139000000</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>5531000000</v>
+      </c>
+      <c r="AK23">
+        <v>6670000000</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>27392000000</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>10668000000</v>
+      </c>
+      <c r="AQ23">
+        <v>37169000000</v>
+      </c>
+      <c r="AR23">
+        <v>-46000000</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>47791000000</v>
+      </c>
+      <c r="AU23">
+        <v>47791000000</v>
+      </c>
+      <c r="AV23">
+        <v>75183000000</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>75183000000</v>
+      </c>
+      <c r="AY23">
+        <v>39750000000</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>-11261000000</v>
+      </c>
+      <c r="BB23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC23" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40810</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24">
+        <v>9815000000</v>
+      </c>
+      <c r="K24">
+        <v>16137000000</v>
+      </c>
+      <c r="L24">
+        <v>25952000000</v>
+      </c>
+      <c r="M24">
+        <v>11717000000</v>
+      </c>
+      <c r="N24">
+        <v>776000000</v>
+      </c>
+      <c r="O24">
+        <v>6543000000</v>
+      </c>
+      <c r="P24">
+        <v>44988000000</v>
+      </c>
+      <c r="Q24">
+        <v>7777000000</v>
+      </c>
+      <c r="R24">
+        <v>896000000</v>
+      </c>
+      <c r="S24">
+        <v>3536000000</v>
+      </c>
+      <c r="T24">
+        <v>4432000000</v>
+      </c>
+      <c r="U24">
+        <v>55618000000</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>3556000000</v>
+      </c>
+      <c r="X24">
+        <v>71383000000</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>116371000000</v>
+      </c>
+      <c r="AA24">
+        <v>14632000000</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1140000000</v>
+      </c>
+      <c r="AD24">
+        <v>4091000000</v>
+      </c>
+      <c r="AE24">
+        <v>8107000000</v>
+      </c>
+      <c r="AF24">
+        <v>27970000000</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1686000000</v>
+      </c>
+      <c r="AI24">
+        <v>8159000000</v>
+      </c>
+      <c r="AJ24">
+        <v>1941000000</v>
+      </c>
+      <c r="AK24">
+        <v>11786000000</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>39756000000</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>13331000000</v>
+      </c>
+      <c r="AQ24">
+        <v>62841000000</v>
+      </c>
+      <c r="AR24">
+        <v>443000000</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>76615000000</v>
+      </c>
+      <c r="AU24">
+        <v>76615000000</v>
+      </c>
+      <c r="AV24">
+        <v>116371000000</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>116371000000</v>
+      </c>
+      <c r="AY24">
+        <v>71755000000</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>-9815000000</v>
+      </c>
+      <c r="BB24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC24" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25">
+        <v>10746000000</v>
+      </c>
+      <c r="K25">
+        <v>18383000000</v>
+      </c>
+      <c r="L25">
+        <v>29129000000</v>
+      </c>
+      <c r="M25">
+        <v>18692000000</v>
+      </c>
+      <c r="N25">
+        <v>791000000</v>
+      </c>
+      <c r="O25">
+        <v>9041000000</v>
+      </c>
+      <c r="P25">
+        <v>57653000000</v>
+      </c>
+      <c r="Q25">
+        <v>15452000000</v>
+      </c>
+      <c r="R25">
+        <v>1135000000</v>
+      </c>
+      <c r="S25">
+        <v>4224000000</v>
+      </c>
+      <c r="T25">
+        <v>5359000000</v>
+      </c>
+      <c r="U25">
+        <v>92122000000</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>5478000000</v>
+      </c>
+      <c r="X25">
+        <v>118411000000</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>176064000000</v>
+      </c>
+      <c r="AA25">
+        <v>21175000000</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1535000000</v>
+      </c>
+      <c r="AD25">
+        <v>5953000000</v>
+      </c>
+      <c r="AE25">
+        <v>9879000000</v>
+      </c>
+      <c r="AF25">
+        <v>38542000000</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>2648000000</v>
+      </c>
+      <c r="AI25">
+        <v>13847000000</v>
+      </c>
+      <c r="AJ25">
+        <v>2817000000</v>
+      </c>
+      <c r="AK25">
+        <v>19312000000</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>57854000000</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>16422000000</v>
+      </c>
+      <c r="AQ25">
+        <v>101289000000</v>
+      </c>
+      <c r="AR25">
+        <v>499000000</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>118210000000</v>
+      </c>
+      <c r="AU25">
+        <v>118210000000</v>
+      </c>
+      <c r="AV25">
+        <v>176064000000</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>176064000000</v>
+      </c>
+      <c r="AY25">
+        <v>110505000000</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>-10746000000</v>
+      </c>
+      <c r="BB25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC25" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26">
+        <v>14259000000</v>
+      </c>
+      <c r="K26">
+        <v>26287000000</v>
+      </c>
+      <c r="L26">
+        <v>40546000000</v>
+      </c>
+      <c r="M26">
+        <v>20641000000</v>
+      </c>
+      <c r="N26">
+        <v>1764000000</v>
+      </c>
+      <c r="O26">
+        <v>10335000000</v>
+      </c>
+      <c r="P26">
+        <v>73286000000</v>
+      </c>
+      <c r="Q26">
+        <v>16597000000</v>
+      </c>
+      <c r="R26">
+        <v>1577000000</v>
+      </c>
+      <c r="S26">
+        <v>4179000000</v>
+      </c>
+      <c r="T26">
+        <v>5756000000</v>
+      </c>
+      <c r="U26">
+        <v>106215000000</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>5146000000</v>
+      </c>
+      <c r="X26">
+        <v>133714000000</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>207000000000</v>
+      </c>
+      <c r="AA26">
+        <v>22367000000</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1200000000</v>
+      </c>
+      <c r="AD26">
+        <v>7435000000</v>
+      </c>
+      <c r="AE26">
+        <v>12656000000</v>
+      </c>
+      <c r="AF26">
+        <v>43658000000</v>
+      </c>
+      <c r="AG26">
+        <v>16960000000</v>
+      </c>
+      <c r="AH26">
+        <v>2625000000</v>
+      </c>
+      <c r="AI26">
+        <v>16489000000</v>
+      </c>
+      <c r="AJ26">
+        <v>3719000000</v>
+      </c>
+      <c r="AK26">
+        <v>39793000000</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>83451000000</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>19764000000</v>
+      </c>
+      <c r="AQ26">
+        <v>104256000000</v>
+      </c>
+      <c r="AR26">
+        <v>-471000000</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>123549000000</v>
+      </c>
+      <c r="AU26">
+        <v>123549000000</v>
+      </c>
+      <c r="AV26">
+        <v>207000000000</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>207000000000</v>
+      </c>
+      <c r="AY26">
+        <v>132502000000</v>
+      </c>
+      <c r="AZ26">
+        <v>16960000000</v>
+      </c>
+      <c r="BA26">
+        <v>2701000000</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC26" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27">
+        <v>13844000000</v>
+      </c>
+      <c r="K27">
+        <v>11233000000</v>
+      </c>
+      <c r="L27">
+        <v>25077000000</v>
+      </c>
+      <c r="M27">
+        <v>27219000000</v>
+      </c>
+      <c r="N27">
+        <v>2111000000</v>
+      </c>
+      <c r="O27">
+        <v>14124000000</v>
+      </c>
+      <c r="P27">
+        <v>68531000000</v>
+      </c>
+      <c r="Q27">
+        <v>20624000000</v>
+      </c>
+      <c r="R27">
+        <v>4616000000</v>
+      </c>
+      <c r="S27">
+        <v>4142000000</v>
+      </c>
+      <c r="T27">
+        <v>8758000000</v>
+      </c>
+      <c r="U27">
+        <v>130162000000</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3764000000</v>
+      </c>
+      <c r="X27">
+        <v>163308000000</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>231839000000</v>
+      </c>
+      <c r="AA27">
+        <v>30196000000</v>
+      </c>
+      <c r="AB27">
+        <v>6308000000</v>
+      </c>
+      <c r="AC27">
+        <v>1209000000</v>
+      </c>
+      <c r="AD27">
+        <v>8491000000</v>
+      </c>
+      <c r="AE27">
+        <v>17244000000</v>
+      </c>
+      <c r="AF27">
+        <v>63448000000</v>
+      </c>
+      <c r="AG27">
+        <v>28987000000</v>
+      </c>
+      <c r="AH27">
+        <v>3031000000</v>
+      </c>
+      <c r="AI27">
+        <v>20259000000</v>
+      </c>
+      <c r="AJ27">
+        <v>4567000000</v>
+      </c>
+      <c r="AK27">
+        <v>56844000000</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>120292000000</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>23313000000</v>
+      </c>
+      <c r="AQ27">
+        <v>87152000000</v>
+      </c>
+      <c r="AR27">
+        <v>1082000000</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>111547000000</v>
+      </c>
+      <c r="AU27">
+        <v>111547000000</v>
+      </c>
+      <c r="AV27">
+        <v>231839000000</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>231839000000</v>
+      </c>
+      <c r="AY27">
+        <v>141395000000</v>
+      </c>
+      <c r="AZ27">
+        <v>35295000000</v>
+      </c>
+      <c r="BA27">
+        <v>21451000000</v>
+      </c>
+      <c r="BB27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC27" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28">
+        <v>21120000000</v>
+      </c>
+      <c r="K28">
+        <v>20481000000</v>
+      </c>
+      <c r="L28">
+        <v>41601000000</v>
+      </c>
+      <c r="M28">
+        <v>30343000000</v>
+      </c>
+      <c r="N28">
+        <v>2349000000</v>
+      </c>
+      <c r="O28">
+        <v>15085000000</v>
+      </c>
+      <c r="P28">
+        <v>89378000000</v>
+      </c>
+      <c r="Q28">
+        <v>22471000000</v>
+      </c>
+      <c r="R28">
+        <v>5116000000</v>
+      </c>
+      <c r="S28">
+        <v>3893000000</v>
+      </c>
+      <c r="T28">
+        <v>9009000000</v>
+      </c>
+      <c r="U28">
+        <v>164065000000</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>5556000000</v>
+      </c>
+      <c r="X28">
+        <v>201101000000</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>290479000000</v>
+      </c>
+      <c r="AA28">
+        <v>35490000000</v>
+      </c>
+      <c r="AB28">
+        <v>10999000000</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>8940000000</v>
+      </c>
+      <c r="AE28">
+        <v>25181000000</v>
+      </c>
+      <c r="AF28">
+        <v>80610000000</v>
+      </c>
+      <c r="AG28">
+        <v>53463000000</v>
+      </c>
+      <c r="AH28">
+        <v>3624000000</v>
+      </c>
+      <c r="AI28">
+        <v>24062000000</v>
+      </c>
+      <c r="AJ28">
+        <v>9365000000</v>
+      </c>
+      <c r="AK28">
+        <v>90514000000</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>171124000000</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>27416000000</v>
+      </c>
+      <c r="AQ28">
+        <v>92284000000</v>
+      </c>
+      <c r="AR28">
+        <v>-345000000</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>119355000000</v>
+      </c>
+      <c r="AU28">
+        <v>119355000000</v>
+      </c>
+      <c r="AV28">
+        <v>290479000000</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>290479000000</v>
+      </c>
+      <c r="AY28">
+        <v>184546000000</v>
+      </c>
+      <c r="AZ28">
+        <v>64462000000</v>
+      </c>
+      <c r="BA28">
+        <v>43342000000</v>
+      </c>
+      <c r="BB28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC28" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42637</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29">
+        <v>20484000000</v>
+      </c>
+      <c r="K29">
+        <v>46671000000</v>
+      </c>
+      <c r="L29">
+        <v>67155000000</v>
+      </c>
+      <c r="M29">
+        <v>29299000000</v>
+      </c>
+      <c r="N29">
+        <v>2132000000</v>
+      </c>
+      <c r="O29">
+        <v>8283000000</v>
+      </c>
+      <c r="P29">
+        <v>106869000000</v>
+      </c>
+      <c r="Q29">
+        <v>27010000000</v>
+      </c>
+      <c r="R29">
+        <v>5414000000</v>
+      </c>
+      <c r="S29">
+        <v>3206000000</v>
+      </c>
+      <c r="T29">
+        <v>8620000000</v>
+      </c>
+      <c r="U29">
+        <v>170430000000</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>8757000000</v>
+      </c>
+      <c r="X29">
+        <v>214817000000</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>321686000000</v>
+      </c>
+      <c r="AA29">
+        <v>37294000000</v>
+      </c>
+      <c r="AB29">
+        <v>11605000000</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>8080000000</v>
+      </c>
+      <c r="AE29">
+        <v>22027000000</v>
+      </c>
+      <c r="AF29">
+        <v>79006000000</v>
+      </c>
+      <c r="AG29">
+        <v>75427000000</v>
+      </c>
+      <c r="AH29">
+        <v>2930000000</v>
+      </c>
+      <c r="AI29">
+        <v>26019000000</v>
+      </c>
+      <c r="AJ29">
+        <v>10055000000</v>
+      </c>
+      <c r="AK29">
+        <v>114431000000</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>193437000000</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>31251000000</v>
+      </c>
+      <c r="AQ29">
+        <v>96364000000</v>
+      </c>
+      <c r="AR29">
+        <v>634000000</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>128249000000</v>
+      </c>
+      <c r="AU29">
+        <v>128249000000</v>
+      </c>
+      <c r="AV29">
+        <v>321686000000</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>321686000000</v>
+      </c>
+      <c r="AY29">
+        <v>217101000000</v>
+      </c>
+      <c r="AZ29">
+        <v>87032000000</v>
+      </c>
+      <c r="BA29">
+        <v>66548000000</v>
+      </c>
+      <c r="BB29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC29" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30">
+        <v>20289000000</v>
+      </c>
+      <c r="K30">
+        <v>53892000000</v>
+      </c>
+      <c r="L30">
+        <v>74181000000</v>
+      </c>
+      <c r="M30">
+        <v>35673000000</v>
+      </c>
+      <c r="N30">
+        <v>4855000000</v>
+      </c>
+      <c r="O30">
+        <v>13936000000</v>
+      </c>
+      <c r="P30">
+        <v>128645000000</v>
+      </c>
+      <c r="Q30">
+        <v>33783000000</v>
+      </c>
+      <c r="R30">
+        <v>5717000000</v>
+      </c>
+      <c r="S30">
+        <v>2298000000</v>
+      </c>
+      <c r="T30">
+        <v>8015000000</v>
+      </c>
+      <c r="U30">
+        <v>194714000000</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>10162000000</v>
+      </c>
+      <c r="X30">
+        <v>246674000000</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>375319000000</v>
+      </c>
+      <c r="AA30">
+        <v>49049000000</v>
+      </c>
+      <c r="AB30">
+        <v>18473000000</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>7548000000</v>
+      </c>
+      <c r="AE30">
+        <v>25744000000</v>
+      </c>
+      <c r="AF30">
+        <v>100814000000</v>
+      </c>
+      <c r="AG30">
+        <v>97207000000</v>
+      </c>
+      <c r="AH30">
+        <v>2836000000</v>
+      </c>
+      <c r="AI30">
+        <v>31504000000</v>
+      </c>
+      <c r="AJ30">
+        <v>8911000000</v>
+      </c>
+      <c r="AK30">
+        <v>140458000000</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>241272000000</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>35867000000</v>
+      </c>
+      <c r="AQ30">
+        <v>98330000000</v>
+      </c>
+      <c r="AR30">
+        <v>-150000000</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>134047000000</v>
+      </c>
+      <c r="AU30">
+        <v>134047000000</v>
+      </c>
+      <c r="AV30">
+        <v>375319000000</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>375319000000</v>
+      </c>
+      <c r="AY30">
+        <v>248606000000</v>
+      </c>
+      <c r="AZ30">
+        <v>115680000000</v>
+      </c>
+      <c r="BA30">
+        <v>95391000000</v>
+      </c>
+      <c r="BB30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC30" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43372</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31">
+        <v>25913000000</v>
+      </c>
+      <c r="K31">
+        <v>40388000000</v>
+      </c>
+      <c r="L31">
+        <v>66301000000</v>
+      </c>
+      <c r="M31">
+        <v>48995000000</v>
+      </c>
+      <c r="N31">
+        <v>3956000000</v>
+      </c>
+      <c r="O31">
+        <v>12087000000</v>
+      </c>
+      <c r="P31">
+        <v>131339000000</v>
+      </c>
+      <c r="Q31">
+        <v>41304000000</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>170799000000</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>22283000000</v>
+      </c>
+      <c r="X31">
+        <v>234386000000</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>365725000000</v>
+      </c>
+      <c r="AA31">
+        <v>55888000000</v>
+      </c>
+      <c r="AB31">
+        <v>20748000000</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>7543000000</v>
+      </c>
+      <c r="AE31">
+        <v>32687000000</v>
+      </c>
+      <c r="AF31">
+        <v>116866000000</v>
+      </c>
+      <c r="AG31">
+        <v>93735000000</v>
+      </c>
+      <c r="AH31">
+        <v>2797000000</v>
+      </c>
+      <c r="AI31">
+        <v>426000000</v>
+      </c>
+      <c r="AJ31">
+        <v>44754000000</v>
+      </c>
+      <c r="AK31">
+        <v>141712000000</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>258578000000</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>40201000000</v>
+      </c>
+      <c r="AQ31">
+        <v>70400000000</v>
+      </c>
+      <c r="AR31">
+        <v>-3454000000</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>107147000000</v>
+      </c>
+      <c r="AU31">
+        <v>107147000000</v>
+      </c>
+      <c r="AV31">
+        <v>365725000000</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>365725000000</v>
+      </c>
+      <c r="AY31">
+        <v>211187000000</v>
+      </c>
+      <c r="AZ31">
+        <v>114483000000</v>
+      </c>
+      <c r="BA31">
+        <v>88570000000</v>
+      </c>
+      <c r="BB31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC31" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43736</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32">
+        <v>48844000000</v>
+      </c>
+      <c r="K32">
+        <v>51713000000</v>
+      </c>
+      <c r="L32">
+        <v>100557000000</v>
+      </c>
+      <c r="M32">
+        <v>45804000000</v>
+      </c>
+      <c r="N32">
+        <v>4106000000</v>
+      </c>
+      <c r="O32">
+        <v>12352000000</v>
+      </c>
+      <c r="P32">
+        <v>162819000000</v>
+      </c>
+      <c r="Q32">
+        <v>37378000000</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>105341000000</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>32978000000</v>
+      </c>
+      <c r="X32">
+        <v>175697000000</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>338516000000</v>
+      </c>
+      <c r="AA32">
+        <v>46236000000</v>
+      </c>
+      <c r="AB32">
+        <v>16240000000</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>5522000000</v>
+      </c>
+      <c r="AE32">
+        <v>37720000000</v>
+      </c>
+      <c r="AF32">
+        <v>105718000000</v>
+      </c>
+      <c r="AG32">
+        <v>91807000000</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>50503000000</v>
+      </c>
+      <c r="AK32">
+        <v>142310000000</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>248028000000</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>45174000000</v>
+      </c>
+      <c r="AQ32">
+        <v>45898000000</v>
+      </c>
+      <c r="AR32">
+        <v>-584000000</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>90488000000</v>
+      </c>
+      <c r="AU32">
+        <v>90488000000</v>
+      </c>
+      <c r="AV32">
+        <v>338516000000</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>338516000000</v>
+      </c>
+      <c r="AY32">
+        <v>157054000000</v>
+      </c>
+      <c r="AZ32">
+        <v>108047000000</v>
+      </c>
+      <c r="BA32">
+        <v>59203000000</v>
+      </c>
+      <c r="BB32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC32" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33">
+        <v>38016000000</v>
+      </c>
+      <c r="K33">
+        <v>52927000000</v>
+      </c>
+      <c r="L33">
+        <v>90943000000</v>
+      </c>
+      <c r="M33">
+        <v>37445000000</v>
+      </c>
+      <c r="N33">
+        <v>4061000000</v>
+      </c>
+      <c r="O33">
+        <v>11264000000</v>
+      </c>
+      <c r="P33">
+        <v>143713000000</v>
+      </c>
+      <c r="Q33">
+        <v>36766000000</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>100887000000</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>42522000000</v>
+      </c>
+      <c r="X33">
+        <v>180175000000</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>323888000000</v>
+      </c>
+      <c r="AA33">
+        <v>42296000000</v>
+      </c>
+      <c r="AB33">
+        <v>13769000000</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>6643000000</v>
+      </c>
+      <c r="AE33">
+        <v>42684000000</v>
+      </c>
+      <c r="AF33">
+        <v>105392000000</v>
+      </c>
+      <c r="AG33">
+        <v>98667000000</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>54490000000</v>
+      </c>
+      <c r="AK33">
+        <v>153157000000</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>258549000000</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>50779000000</v>
+      </c>
+      <c r="AQ33">
+        <v>14966000000</v>
+      </c>
+      <c r="AR33">
+        <v>-406000000</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>65339000000</v>
+      </c>
+      <c r="AU33">
+        <v>65339000000</v>
+      </c>
+      <c r="AV33">
+        <v>323888000000</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>323888000000</v>
+      </c>
+      <c r="AY33">
+        <v>153814000000</v>
+      </c>
+      <c r="AZ33">
+        <v>112436000000</v>
+      </c>
+      <c r="BA33">
+        <v>74420000000</v>
+      </c>
+      <c r="BB33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC33" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44464</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34">
+        <v>34940000000</v>
+      </c>
+      <c r="K34">
+        <v>27699000000</v>
+      </c>
+      <c r="L34">
+        <v>62639000000</v>
+      </c>
+      <c r="M34">
+        <v>51506000000</v>
+      </c>
+      <c r="N34">
+        <v>6580000000</v>
+      </c>
+      <c r="O34">
+        <v>14111000000</v>
+      </c>
+      <c r="P34">
+        <v>134836000000</v>
+      </c>
+      <c r="Q34">
+        <v>39440000000</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>127877000000</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>48849000000</v>
+      </c>
+      <c r="X34">
+        <v>216166000000</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>351002000000</v>
+      </c>
+      <c r="AA34">
+        <v>54763000000</v>
+      </c>
+      <c r="AB34">
+        <v>15613000000</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>7612000000</v>
+      </c>
+      <c r="AE34">
+        <v>47493000000</v>
+      </c>
+      <c r="AF34">
+        <v>125481000000</v>
+      </c>
+      <c r="AG34">
+        <v>109106000000</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>53325000000</v>
+      </c>
+      <c r="AK34">
+        <v>162431000000</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>287912000000</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>57365000000</v>
+      </c>
+      <c r="AQ34">
+        <v>5562000000</v>
+      </c>
+      <c r="AR34">
+        <v>163000000</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>63090000000</v>
+      </c>
+      <c r="AU34">
+        <v>63090000000</v>
+      </c>
+      <c r="AV34">
+        <v>351002000000</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>351002000000</v>
+      </c>
+      <c r="AY34">
+        <v>155576000000</v>
+      </c>
+      <c r="AZ34">
+        <v>124719000000</v>
+      </c>
+      <c r="BA34">
+        <v>89779000000</v>
+      </c>
+      <c r="BB34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC34" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2">
         <v>44828</v>
       </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11">
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35">
         <v>23646000000</v>
       </c>
-      <c r="K11">
+      <c r="K35">
         <v>24658000000</v>
       </c>
-      <c r="L11">
+      <c r="L35">
         <v>48304000000</v>
       </c>
-      <c r="M11">
+      <c r="M35">
         <v>60932000000</v>
       </c>
-      <c r="N11">
+      <c r="N35">
         <v>4946000000</v>
       </c>
-      <c r="O11">
+      <c r="O35">
         <v>21223000000</v>
       </c>
-      <c r="P11">
+      <c r="P35">
         <v>135405000000</v>
       </c>
-      <c r="Q11">
+      <c r="Q35">
         <v>42117000000</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>120805000000</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>54428000000</v>
       </c>
-      <c r="X11">
+      <c r="X35">
         <v>217350000000</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
         <v>352755000000</v>
       </c>
-      <c r="AA11">
+      <c r="AA35">
         <v>64115000000</v>
       </c>
-      <c r="AB11">
+      <c r="AB35">
         <v>21110000000</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
         <v>7912000000</v>
       </c>
-      <c r="AE11">
+      <c r="AE35">
         <v>60845000000</v>
       </c>
-      <c r="AF11">
+      <c r="AF35">
         <v>153982000000</v>
       </c>
-      <c r="AG11">
+      <c r="AG35">
         <v>98959000000</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>49142000000</v>
       </c>
-      <c r="AK11">
+      <c r="AK35">
         <v>148101000000</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
         <v>302083000000</v>
       </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
         <v>64849000000</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ35">
         <v>-3068000000</v>
       </c>
-      <c r="AR11">
+      <c r="AR35">
         <v>-11109000000</v>
       </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
         <v>50672000000</v>
       </c>
-      <c r="AU11">
+      <c r="AU35">
         <v>50672000000</v>
       </c>
-      <c r="AV11">
+      <c r="AV35">
         <v>352755000000</v>
       </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
         <v>352755000000</v>
       </c>
-      <c r="AY11">
+      <c r="AY35">
         <v>145463000000</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ35">
         <v>120069000000</v>
       </c>
-      <c r="BA11">
+      <c r="BA35">
         <v>96423000000</v>
       </c>
-      <c r="BB11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>118</v>
+      <c r="BB35" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC35" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BB2" r:id="rId1"/>
-    <hyperlink ref="BC2" r:id="rId2"/>
-    <hyperlink ref="BB3" r:id="rId3"/>
-    <hyperlink ref="BC3" r:id="rId4"/>
-    <hyperlink ref="BB4" r:id="rId5"/>
-    <hyperlink ref="BC4" r:id="rId6"/>
-    <hyperlink ref="BB5" r:id="rId7"/>
-    <hyperlink ref="BC5" r:id="rId8"/>
-    <hyperlink ref="BB6" r:id="rId9"/>
-    <hyperlink ref="BC6" r:id="rId10"/>
-    <hyperlink ref="BB7" r:id="rId11"/>
-    <hyperlink ref="BC7" r:id="rId12"/>
-    <hyperlink ref="BB8" r:id="rId13"/>
-    <hyperlink ref="BC8" r:id="rId14"/>
-    <hyperlink ref="BB9" r:id="rId15"/>
-    <hyperlink ref="BC9" r:id="rId16"/>
-    <hyperlink ref="BB10" r:id="rId17"/>
-    <hyperlink ref="BC10" r:id="rId18"/>
-    <hyperlink ref="BB11" r:id="rId19"/>
-    <hyperlink ref="BC11" r:id="rId20"/>
+    <hyperlink ref="BB7" r:id="rId1"/>
+    <hyperlink ref="BC7" r:id="rId2"/>
+    <hyperlink ref="BB8" r:id="rId3"/>
+    <hyperlink ref="BC8" r:id="rId4"/>
+    <hyperlink ref="BB9" r:id="rId5"/>
+    <hyperlink ref="BC9" r:id="rId6"/>
+    <hyperlink ref="BB10" r:id="rId7"/>
+    <hyperlink ref="BC10" r:id="rId8"/>
+    <hyperlink ref="BB12" r:id="rId9"/>
+    <hyperlink ref="BC12" r:id="rId10"/>
+    <hyperlink ref="BB13" r:id="rId11"/>
+    <hyperlink ref="BC13" r:id="rId12"/>
+    <hyperlink ref="BB14" r:id="rId13"/>
+    <hyperlink ref="BC14" r:id="rId14"/>
+    <hyperlink ref="BB15" r:id="rId15"/>
+    <hyperlink ref="BC15" r:id="rId16"/>
+    <hyperlink ref="BB16" r:id="rId17"/>
+    <hyperlink ref="BC16" r:id="rId18"/>
+    <hyperlink ref="BB17" r:id="rId19"/>
+    <hyperlink ref="BC17" r:id="rId20"/>
+    <hyperlink ref="BB18" r:id="rId21"/>
+    <hyperlink ref="BC18" r:id="rId22"/>
+    <hyperlink ref="BB19" r:id="rId23"/>
+    <hyperlink ref="BC19" r:id="rId24"/>
+    <hyperlink ref="BB20" r:id="rId25"/>
+    <hyperlink ref="BC20" r:id="rId26"/>
+    <hyperlink ref="BB21" r:id="rId27"/>
+    <hyperlink ref="BC21" r:id="rId28"/>
+    <hyperlink ref="BB22" r:id="rId29"/>
+    <hyperlink ref="BC22" r:id="rId30"/>
+    <hyperlink ref="BB23" r:id="rId31"/>
+    <hyperlink ref="BC23" r:id="rId32"/>
+    <hyperlink ref="BB24" r:id="rId33"/>
+    <hyperlink ref="BC24" r:id="rId34"/>
+    <hyperlink ref="BB25" r:id="rId35"/>
+    <hyperlink ref="BC25" r:id="rId36"/>
+    <hyperlink ref="BB26" r:id="rId37"/>
+    <hyperlink ref="BC26" r:id="rId38"/>
+    <hyperlink ref="BB27" r:id="rId39"/>
+    <hyperlink ref="BC27" r:id="rId40"/>
+    <hyperlink ref="BB28" r:id="rId41"/>
+    <hyperlink ref="BC28" r:id="rId42"/>
+    <hyperlink ref="BB29" r:id="rId43"/>
+    <hyperlink ref="BC29" r:id="rId44"/>
+    <hyperlink ref="BB30" r:id="rId45"/>
+    <hyperlink ref="BC30" r:id="rId46"/>
+    <hyperlink ref="BB31" r:id="rId47"/>
+    <hyperlink ref="BC31" r:id="rId48"/>
+    <hyperlink ref="BB32" r:id="rId49"/>
+    <hyperlink ref="BC32" r:id="rId50"/>
+    <hyperlink ref="BB33" r:id="rId51"/>
+    <hyperlink ref="BC33" r:id="rId52"/>
+    <hyperlink ref="BB34" r:id="rId53"/>
+    <hyperlink ref="BC34" r:id="rId54"/>
+    <hyperlink ref="BB35" r:id="rId55"/>
+    <hyperlink ref="BC35" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
